--- a/spreadsheet/macrofree/avd_checklist.es.xlsx
+++ b/spreadsheet/macrofree/avd_checklist.es.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1094,7 +1059,7 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
@@ -1109,7 +1074,7 @@
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">El plan de control AVD no ofrece un acuerdo de nivel de servicio respaldado financieramente. Nos esforzamos por lograr una disponibilidad mínima del 99,9 % para las direcciones URL del servicio Windows Virtual Desktop. La disponibilidad de las máquinas virtuales host de sesión en su suscripción está cubierta por el SLA de máquinas virtuales. También se debe considerar la disponibilidad de recursos/servicios dependientes y de infraestructura para satisfacer adecuadamente los requisitos globales de alta disponibilidad. </t>
+          <t>El plano de control AVD no ofrece un acuerdo de nivel de servicio respaldado financieramente. Nos esforzamos por lograr una disponibilidad mínima del 99,9 % para las direcciones URL del servicio Azure Virtual Desktop. La disponibilidad de las máquinas virtuales host de sesión en su suscripción está cubierta por el SLA de máquinas virtuales. También se debe considerar la disponibilidad de recursos/servicios dependientes y de infraestructura para satisfacer adecuadamente los requisitos globales de alta disponibilidad.</t>
         </is>
       </c>
       <c r="E8" s="21" t="inlineStr">
@@ -1144,7 +1109,7 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
@@ -1154,12 +1119,12 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Evaluar la región de recuperación ante desastres geográficos para grupos de hosts AVD</t>
+          <t>Evaluar los requisitos de recuperación ante desastres geográficos para grupos de hosts AVD</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>El modelo Active-Active' se puede lograr con varios grupos de hosts en diferentes regiones. No se recomienda un único grupo de hosts con máquinas virtuales de diferentes regiones. Si se van a utilizar varios grupos para los mismos usuarios, se debe resolver el problema de cómo sincronizar/replicar perfiles de usuario. FSLogix Cloud Cache podría usarse, pero debe revisarse y planificarse cuidadosamente, o los clientes pueden decidir no sincronizar / replicar en absoluto. "Activo-pasivo" se puede lograr mediante Azure Site Recovery (ASR) o la implementación de grupos a petición con un mecanismo automatizado.</t>
+          <t>El modelo 'Activo-Activo' se puede lograr con varios grupos de hosts en diferentes regiones. No se recomienda un único grupo de hosts con máquinas virtuales de diferentes regiones. Si se van a utilizar varios grupos para los mismos usuarios, se debe resolver el problema de cómo sincronizar/replicar perfiles de usuario. FSLogix Cloud Cache podría usarse, pero debe revisarse y planificarse cuidadosamente, o los clientes pueden decidir no sincronizar / replicar en absoluto. "Activo-pasivo" se puede lograr mediante Azure Site Recovery (ASR) o la implementación de grupos a petición con un mecanismo automatizado. Para una discusión detallada sobre BCDR multi-región, lea el artículo complementario en la columna 'Más información' y esta página relacionada con FSLogix: https://learn.microsoft.com/en-us/fslogix/concepts-container-recovery-business-continuity.</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1175,7 +1140,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/wvd/azure-virtual-desktop-multi-region-bcdr</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1194,7 +1159,7 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
@@ -1209,12 +1174,12 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Antes de abordar la planeación y el diseño de BCDR de Windows Virtual Desktop, es importante considerar inicialmente qué aplicaciones que se consumen a través de AVD son críticas. Es posible que desee separarlas de las aplicaciones no críticas y usar un grupo de hosts independiente con un enfoque y capacidades de recuperación ante desastres diferentes.</t>
+          <t>Antes de abordar la planeación y el diseño de BCDR de Azure Virtual Desktop, es importante considerar inicialmente qué aplicaciones que se consumen a través de AVD son críticas. Es posible que desee separarlas de las aplicaciones no críticas y usar un grupo de hosts independiente con un enfoque y capacidades de recuperación ante desastres diferentes.</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1244,7 +1209,7 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
@@ -1259,7 +1224,7 @@
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">? ¿Seleccionó el nivel de resistencia adecuado para las máquinas virtuales del grupo de hosts (conjunto de disponibilidad frente a zonas de disponibilidad)? ¿Conoce las implicaciones en el SLA de alta disponibilidad y los límites de escalabilidad que vienen con AS o AZ? ? Actualmente puede implementar 399 máquinas virtuales por implementación de plantilla ARM de escritorio virtual de Windows sin conjuntos de disponibilidad o 200 máquinas virtuales por conjunto de disponibilidad. Puede aumentar el número de máquinas virtuales por implementación desactivando los conjuntos de disponibilidad en la plantilla de ARM o en la inscripción del grupo de hosts de Azure Portal. Ahora es posible implementar AZ, una AZ a la vez en este momento, necesita crear manualmente una fracción de máquinas virtuales en cada AZ deseada. </t>
+          <t>Cada grupo de hosts se puede implementar mediante zonas de disponibilidad (AZ) o conjunto de disponibilidad (AS). Para maximizar la resistencia, se recomienda el uso de AZ: en el momento de la creación del grupo de hosts, puede decidir distribuir los hosts de sesión del grupo de hosts en todas las zonas de disponibilidad disponibles. El uso de AS no protegerá contra errores de un solo centro de datos, por lo que solo debe usarse en regiones donde AZ no esté disponible. Más detalles sobre AZ y AVD en el artículo complementario. Para una comparación entre AZ y AS puede leer aquí: https://learn.microsoft.com/en-us/azure/virtual-machines/availability.</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1275,7 +1240,7 @@
       <c r="G11" s="21" t="n"/>
       <c r="H11" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://techcommunity.microsoft.com/t5/azure-virtual-desktop-blog/announcing-general-availability-of-support-for-azure/ba-p/3636262</t>
         </is>
       </c>
       <c r="I11" s="15" t="n"/>
@@ -1294,7 +1259,7 @@
     <row r="12" ht="16.5" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B12" s="21" t="inlineStr">
@@ -1304,12 +1269,12 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Evaluar el requisito de copia de seguridad de los hosts de sesión AVD</t>
+          <t>Evaluar el requisito de copia de seguridad de las máquinas virtuales host de sesión AVD</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Copia de seguridad de Azure también se puede usar para proteger máquinas virtuales del grupo de hosts, esta práctica es compatible, incluso si las máquinas virtuales del grupo de hosts no tienen estado. Esta opción podría considerarse para grupos de hosts personales. </t>
+          <t>Copia de seguridad de Azure se puede usar para proteger máquinas virtuales del grupo de hosts. Para los grupos agrupados, esto no es necesario ya que debe ser apátrida. En su lugar, esta opción se puede considerar para grupos de hosts personales.</t>
         </is>
       </c>
       <c r="E12" s="21" t="inlineStr">
@@ -1344,27 +1309,27 @@
     <row r="13" ht="16.5" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>Dependencias</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Planeación de la disponibilidad de Golden Image entre regiones</t>
+          <t>Preparar una estrategia de recuperación ante desastres local para hosts de sesión de grupo de hosts personales</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Si se usan imágenes personalizadas para implementar máquinas virtuales de grupos de hosts AVD, es importante asegurarse de que esos artefactos estén disponibles en todas las regiones, incluso si se trata de un desastre importante. El servicio Galería de proceso de Azure se puede usar para replicar imágenes en todas las regiones donde se implementa un grupo de hosts, con almacenamiento redundante y en varias copias.</t>
+          <t>Incluso para grupos personales, se recomienda el uso de zonas de disponibilidad, cuando estén disponibles. Son posibles tres posibles estrategias de recuperación ante desastres en la región, se recomienda seleccionar la mejor en función del costo, RTO/RPO y, si es realmente necesario, guardar todo el disco del sistema operativo de máquina virtual: (1) crear cada host de sesión en una zona específica (AZ) y, a continuación, usar Azure Site Recovery (ASR) para replicar en una zona diferente. (2) Use Copia de seguridad de Azure para realizar copias de seguridad y restaurar el host de sesión específico en una zona de disponibilidad diferente. (3) Cree un nuevo host de sesión en una zona de disponibilidad diferente y confíe en FSLogix y/o OneDrive para que los datos y la configuración estén disponibles en la nueva máquina. Todas las opciones requieren la intervención del administrador para DR y la asignación directa de usuarios a nivel de grupo de hosts, luego deben planificarse y configurarse de antemano.</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1375,7 +1340,7 @@
       <c r="G13" s="21" t="n"/>
       <c r="H13" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-images-portal</t>
+          <t>https://learn.microsoft.com/azure/site-recovery/azure-to-azure-how-to-enable-zone-to-zone-disaster-recovery</t>
         </is>
       </c>
       <c r="I13" s="15" t="n"/>
@@ -1383,7 +1348,7 @@
       <c r="K13" s="22" t="n"/>
       <c r="L13" s="25" t="inlineStr">
         <is>
-          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
+          <t>5da58639-ca3a-4961-890b-29663c5e10d</t>
         </is>
       </c>
       <c r="M13" s="25" t="n"/>
@@ -1394,7 +1359,7 @@
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B14" s="21" t="inlineStr">
@@ -1404,17 +1369,17 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evaluar las dependencias de infraestructura y aplicaciones </t>
+          <t>Planeación de la disponibilidad de Golden Image entre regiones</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>Si los usuarios de la infraestructura AVD necesitan acceso a recursos locales, la alta disponibilidad de la infraestructura de red necesaria para conectarse también es crítica y debe tenerse en cuenta. Es necesario evaluar la resiliencia de la infraestructura de autenticación. Los aspectos de BCDR para aplicaciones dependientes y otros recursos deben considerarse para garantizar la disponibilidad en la ubicación secundaria de DR.</t>
+          <t>Si se usan imágenes personalizadas para implementar máquinas virtuales de grupos de hosts de AVD, es importante asegurarse de que esos artefactos estén disponibles en todas las regiones donde se implementa AVD. El servicio Galería de proceso de Azure se puede usar para replicar imágenes en todas las regiones donde se implementa un grupo de hosts, con almacenamiento redundante y en varias copias. Tenga en cuenta que el servicio Galería de proceso de Azure no es un recurso global. Para escenarios de recuperación ante desastres, la práctica recomendada es tener al menos dos galerías, en diferentes regiones.</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1425,7 +1390,7 @@
       <c r="G14" s="21" t="n"/>
       <c r="H14" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/azure-compute-gallery</t>
         </is>
       </c>
       <c r="I14" s="15" t="n"/>
@@ -1433,7 +1398,7 @@
       <c r="K14" s="22" t="n"/>
       <c r="L14" s="25" t="inlineStr">
         <is>
-          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
+          <t>dd2e0d5d-771d-441e-9610-cc57b4a4a141</t>
         </is>
       </c>
       <c r="M14" s="25" t="n"/>
@@ -1444,22 +1409,22 @@
     <row r="15" ht="16.5" customHeight="1">
       <c r="A15" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Dependencias</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Evaluar qué datos deben protegerse dentro de los contenedores de perfil y oficina</t>
+          <t xml:space="preserve">Evaluar las dependencias de infraestructura y aplicaciones </t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">No todos los datos dentro de los perfiles de usuario de FSLogix pueden merecer protección contra desastres. Además, si se utiliza almacenamiento externo, por ejemplo, OneDrive o servidores de archivos/recursos compartidos, lo que queda en el perfil FSLogix es mínimo y podría perderse en algunas circunstancias extremas. En otros casos, los datos dentro del perfil se pueden reconstruir desde otros almacenamientos (por ejemplo, la Bandeja de entrada de Outlook en modo caché). </t>
+          <t>Si los usuarios de la infraestructura AVD necesitan acceso a recursos locales, la alta disponibilidad de la infraestructura de red necesaria para conectarse también es crítica y debe tenerse en cuenta. Es necesario evaluar la resiliencia de la infraestructura de autenticación. Los aspectos de BCDR para aplicaciones dependientes y otros recursos deben considerarse para garantizar la disponibilidad en la ubicación secundaria de DR.</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
@@ -1475,7 +1440,7 @@
       <c r="G15" s="21" t="n"/>
       <c r="H15" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I15" s="15" t="n"/>
@@ -1483,7 +1448,7 @@
       <c r="K15" s="22" t="n"/>
       <c r="L15" s="25" t="inlineStr">
         <is>
-          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
+          <t>fd339489-8c12-488b-9c6a-57cfb644451e</t>
         </is>
       </c>
       <c r="M15" s="25" t="n"/>
@@ -1494,7 +1459,7 @@
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B16" s="21" t="inlineStr">
@@ -1504,12 +1469,12 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Crear una estrategia de protección de copia de seguridad para contenedores de perfiles y Office</t>
+          <t>Evaluar qué datos deben protegerse en los contenedores de perfil y Office</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Prevenir la pérdida de datos para los datos críticos del usuario es importante, el primer paso es evaluar qué datos deben guardarse y protegerse. Si usa OneDrive u otro almacenamiento externo, es posible que no sea necesario guardar los datos del perfil de usuario o de los contenedores de Office. Se debe considerar un mecanismo apropiado para proporcionar protección a los datos críticos del usuario. El servicio Copia de seguridad de Azure se puede usar para proteger los datos de contenedores de Office y perfiles cuando se almacenan en los niveles Standard y Premium de Azure Files. Azure NetApp Files Snapshots and Policies se puede usar para Azure NetApp Files (todos los niveles).</t>
+          <t>No todos los datos dentro de los perfiles de usuario de FSLogix pueden merecer protección contra desastres. Además, si se utiliza almacenamiento externo, por ejemplo, OneDrive o servidores de archivos/recursos compartidos, lo que queda en el perfil FSLogix es mínimo y podría perderse en algunas circunstancias extremas. En otros casos, los datos dentro del perfil se pueden reconstruir desde otros almacenamientos (por ejemplo, la Bandeja de entrada de Outlook en modo caché).</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1525,7 +1490,7 @@
       <c r="G16" s="21" t="n"/>
       <c r="H16" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt</t>
         </is>
       </c>
       <c r="I16" s="15" t="n"/>
@@ -1533,7 +1498,7 @@
       <c r="K16" s="22" t="n"/>
       <c r="L16" s="25" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>687ab077-adb5-49e5-a960-3334fdf8cc23</t>
         </is>
       </c>
       <c r="M16" s="25" t="n"/>
@@ -1544,7 +1509,7 @@
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B17" s="21" t="inlineStr">
@@ -1554,12 +1519,12 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Evaluar los requerimientos de replicación y la resiliencia del almacenamiento de almacenamiento de información de contenedores de perfiles para fines de BCDR</t>
+          <t>Crear una estrategia de protección de copia de seguridad para contenedores de perfiles y Office</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>En AVD, se pueden usar múltiples mecanismos y estrategias de replicación para los datos de usuario que residen en contenedores FSLogix: Patrón de perfil #1: ¿Mecanismos de replicación de almacenamiento nativos de Azure, por ejemplo, replicación GRS estándar de Azure Files, replicación entre regiones de Azure NetApp Files o Azure Files Sync para servidores de archivos basados en máquinas virtuales? Se recomienda usar el almacenamiento replicado en zona (ZRS) o el almacenamiento con replicación geográfica (GRS) para Azure Files. LRS con resistencia solo local se puede usar si no se requiere protección de zona/región. NOTA: Azure Files Share Standard es LRS/ZRS/GRS, pero con la compatibilidad grande de 100 TB habilitada, solo se admiten LRS/ZRS. ? Patrón de perfil # 2: FSLogix Cloud Cache está integrado en un mecanismo automático para replicar contenedores entre diferentes (hasta 4) cuentas de almacenamiento. Cloud Cache solo debe usarse cuando:? Perfil de usuario o contenedores de Office disponibilidad de datos requeridos SLA de alta disponibilidad es crítico y debe ser resistente a errores de región. La opción de almacenamiento seleccionada no puede satisfacer los requisitos de BCDR. Por ejemplo, con el nivel Premium de Azure File Share o Azure File Share Standard con compatibilidad con archivos grandes habilitada, GRS no está disponible. Cuando se requiere replicación entre almacenamiento de información dispares. Patrón de perfil # 3: Solo configure la recuperación geográfica ante desastres para los datos de la aplicación y no para los contenedores de datos / perfiles del usuario: almacene los datos importantes de la aplicación en almacenamientos separados, como OneDrive u otro almacenamiento externo con su propio mecanismo de DR incorporado.</t>
+          <t>Prevenir la pérdida de datos para los datos críticos del usuario es importante, el primer paso es evaluar qué datos deben guardarse y protegerse. Si usa OneDrive u otro almacenamiento externo, es posible que no sea necesario guardar los datos del perfil de usuario o de los contenedores de Office. Se debe considerar un mecanismo apropiado para proporcionar protección a los datos críticos del usuario. El servicio Copia de seguridad de Azure se puede usar para proteger los datos de contenedores de Office y perfiles cuando se almacenan en los niveles Standard y Premium de Azure Files. Azure NetApp Files Snapshots and Policies se puede usar para Azure NetApp Files (todos los niveles).</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
@@ -1583,7 +1548,7 @@
       <c r="K17" s="22" t="n"/>
       <c r="L17" s="25" t="inlineStr">
         <is>
-          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M17" s="25" t="n"/>
@@ -1594,7 +1559,7 @@
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B18" s="21" t="inlineStr">
@@ -1604,12 +1569,12 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Revisión de la estrategia de recuperación ante desastres de Azure NetApp Files</t>
+          <t>Evaluar los requerimientos de replicación y la resiliencia del almacenamiento de almacenamiento de información de contenedores de perfiles para fines de BCDR</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>Recuperación ante desastres geográfica: Azure NetApp Files es esencialmente LRS (almacenamiento replicado localmente), entonces necesita diseñar algo más si desea la replicación entre regiones. La recomendación para la multiregión en este momento es Cloud Sync de NetApp, replicando en otra región de Azure (y NetApp Volume). Copia de seguridad: Las copias de seguridad son manejadas por instantáneas, pero no son automáticas, deben programarse mediante políticas. https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots. Hay un límite máximo de instantáneas (255) por volumen, como se documenta aquí: https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-resource-limits.</t>
+          <t>En AVD, se pueden usar varios mecanismos y estrategias de replicación para los datos de usuario que residen en contenedores FSLogix: [Patrón de perfil #1]: mecanismos de replicación de almacenamiento nativos de Azure, por ejemplo, replicación GRS estándar de Azure Files, replicación entre regiones de Azure NetApp Files. Se recomienda usar almacenamiento replicado en zona (ZRS) o almacenamiento con replicación geográfica (GRS) para Azure Files. LRS con resiliencia solo local se puede usar si no se requiere protección de zona o región. NOTA: Azure Files Share Standard es LRS/ZRS/GRS, pero con la compatibilidad grande de 100 TB habilitada, solo se admiten LRS/ZRS. [Patrón de perfil # 2]: FSLogix Cloud Cache está integrado en un mecanismo automático para replicar contenedores entre diferentes (hasta 4) cuentas de almacenamiento. Cloud Cache solo debe usarse cuando:(1) Perfil de usuario o contenedores de Office disponibilidad de datos requerida El SLA de alta disponibilidad es crítico y debe ser resistente a los errores de la región. (2) La opción de almacenamiento seleccionada no puede satisfacer los requisitos de BCDR. Por ejemplo, con el nivel Premium de Azure File Share o Azure File Share Standard con compatibilidad con archivos grandes habilitada, GRS no está disponible. (3) Cuando se requiere replicación entre almacenamiento de información dispar. [Patrón de perfil # 3]: solo configure la recuperación geográfica ante desastres para los datos de la aplicación y no para los contenedores de datos / perfiles de usuario: almacene los datos importantes de la aplicación en almacenamientos separados, como OneDrive u otro almacenamiento externo con su propio mecanismo de DR incorporado.</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1625,7 +1590,7 @@
       <c r="G18" s="21" t="n"/>
       <c r="H18" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-netapp-files/azure-netapp-files-manage-snapshots</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/disaster-recovery</t>
         </is>
       </c>
       <c r="I18" s="15" t="n"/>
@@ -1633,7 +1598,7 @@
       <c r="K18" s="22" t="n"/>
       <c r="L18" s="25" t="inlineStr">
         <is>
-          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
+          <t>9f7547c1-746d-4c56-868a-714435bd09dd</t>
         </is>
       </c>
       <c r="M18" s="25" t="n"/>
@@ -1644,7 +1609,7 @@
     <row r="19" ht="16.5" customHeight="1">
       <c r="A19" s="21" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B19" s="21" t="inlineStr">
@@ -1659,7 +1624,7 @@
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>Recuperación ante desastres geográfica: GRS para Azure Files solo está disponible con SKU estándar y sin compatibilidad con recursos compartidos grandes, por lo que no es adecuado en la mayoría de los escenarios de clientes. Si se requiere replicación geográfica, al usar Azure File Share Premium, se debe evaluar la replicación con FSLogix Cloud Cache o solo se debe considerar la resistencia de la zona de disponibilidad (AZ) "en la región". Copia de seguridad: Azure Backup es totalmente compatible con Azure File Share todos los SKU y es la solución recomendada para proteger los contenedores de perfiles. Si usa OneDrive u otro almacenamiento externo, es posible que no sea necesario guardar los datos del perfil de usuario o de los contenedores de Office.</t>
+          <t>Para la recuperación ante desastres local, se puede usar Azure Backup for Azure Files. Para la recuperación ante desastres geográficos entre regiones: GRS para Azure Files solo está disponible con SKU estándar y sin compatibilidad con recursos compartidos grandes, por lo que no es adecuado en la mayoría de los escenarios de clientes. Si se requiere replicación geográfica con Azure File Share Premium, se puede evaluar la replicación con FSLogix Cloud Cache o solo se debe considerar la resistencia de la zona de disponibilidad (AZ) "en la región".</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1694,22 +1659,22 @@
     <row r="20" ht="16.5" customHeight="1">
       <c r="A20" s="21" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B20" s="21" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Determinar cómo se implementarán las aplicaciones en los grupos de hosts AVD</t>
+          <t>Uso del almacenamiento con redundancia de zona (ZRS) para Azure Files para maximizar la resistencia</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>Las aplicaciones se pueden preinstalar en la(s) imagen(es) dorada, se pueden adjuntar utilizando la función MSIX &amp; AppAttach o distribuyendo a hosts después de la implementación del grupo utilizando métodos tradicionales de distribución de SW.</t>
+          <t xml:space="preserve">El almacenamiento con redundancia de zona maximizará la resistencia dentro de la región para los datos del perfil de usuario. ZRS es compatible con recursos compartidos de archivos premium a través del tipo de cuenta de almacenamiento 'FileStorage'. ZRS es compatible con las cuentas de almacenamiento v2 de uso general estándar. El uso del almacenamiento con redundancia de zona debe combinarse con la implementación con redundancia de zona de hosts de sesión en cada grupo de hosts. </t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1725,7 +1690,7 @@
       <c r="G20" s="21" t="n"/>
       <c r="H20" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://learn.microsoft.com/azure/storage/files/files-redundancy#zone-redundant-storage</t>
         </is>
       </c>
       <c r="I20" s="15" t="n"/>
@@ -1733,7 +1698,7 @@
       <c r="K20" s="22" t="n"/>
       <c r="L20" s="25" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
+          <t>10d4e875-d502-4142-a795-f2b6eff34f88</t>
         </is>
       </c>
       <c r="M20" s="25" t="n"/>
@@ -1744,22 +1709,22 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Almacenamiento</t>
         </is>
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Estimar el número de imágenes doradas que se requerirán</t>
+          <t>Revisión de la estrategia de recuperación ante desastres de Azure NetApp Files</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>¿Usarán el enmascaramiento de aplicaciones fslogix que se prestaría a una sola imagen, o múltiples imágenes con diferentes aplicaciones incorporadas: ¿qué es lo que requiere que se use más de una imagen?</t>
+          <t>Para la recuperación ante desastres local, está disponible la copia de seguridad nativa de Azure NetApp Files (ANF). ANF es esencialmente redundante localmente, entonces para la recuperación de desastres geográficos entre regiones es necesario utilizar un mecanismo adicional que sea la replicación entre regiones (CRR) https://learn.microsoft.com/en-us/azure/azure-netapp-files/cross-region-replication-create-peering. Actualmente, ANF no proporciona replicación ni redundancia en diferentes zonas de disponibilidad (AZ), solo la posibilidad de seleccionar en qué AZ colocar el volumen ANF: https://learn.microsoft.com/en-us/azure/azure-netapp-files/manage-availability-zone-volume-placement.</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1775,7 +1740,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://learn.microsoft.com/azure/azure-netapp-files/cross-region-replication-create-peering</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1783,7 +1748,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
+          <t>23429db7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1799,22 +1764,22 @@
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Imágenes doradas</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Determinar qué imagenes del sistema operativo usará para la implementación del grupo de hosts</t>
+          <t>Determinar cómo se implementarán las aplicaciones en los grupos de hosts AVD</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Determine qué SO invitado se usará para implementar cada grupo de hosts: Windows 10 frente a Windows Server, Marketplace frente a imágenes personalizadas</t>
+          <t>Las aplicaciones se pueden preinstalar en la(s) imagen(es) dorada, se pueden adjuntar mediante la función MSIX &amp; AppAttach o distribuirse a los hosts de sesión después de la implementación del grupo de hosts utilizando métodos tradicionales de distribución de software.</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1825,7 +1790,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-golden-image</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1833,7 +1798,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
+          <t>86ba2802-1459-4014-95d3-8e5309ccbd97</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1849,22 +1814,22 @@
       </c>
       <c r="B23" s="21" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Imágenes doradas</t>
         </is>
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Si se va a utilizar una imagen personalizada, determine si existe un proceso de compilación automatizado.</t>
+          <t>Estimar el número de imágenes doradas que se requerirán</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si no existe nada, considere la posibilidad de usar Azure Image Builder para automatizar el proceso de compilación. </t>
+          <t>Se pueden requerir múltiples imágenes doradas para admitir diferentes versiones y / o configuraciones del sistema operativo, diferentes grupos de aplicaciones que deben separarse y no se pueden incluir en una sola imagen.</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1875,7 +1840,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/image-builder-overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-golden-image</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1883,7 +1848,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
+          <t>9266bcca-274f-4aa1-abf3-9d95d44c7c89</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1899,22 +1864,22 @@
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Imágenes doradas</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Si se va a utilizar una imagen personalizada, ¿existe un plan para organizar y gestionar el ciclo de vida de las imágenes?</t>
+          <t>Determinar qué imagenes del sistema operativo usará para la implementación del grupo de hosts</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Evalúe la Galería de proceso de Azure.</t>
+          <t>Determine qué SO invitado se usará para implementar cada grupo de hosts: Windows 10 frente a Windows Server, Marketplace frente a imágenes personalizadas</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1925,7 +1890,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/shared-image-galleries</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#operating-systems-and-licenses</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1933,7 +1898,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
+          <t>19ca1f6d-5315-4ae5-84ba-34d4585e2213</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1949,22 +1914,22 @@
       </c>
       <c r="B25" s="21" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Imágenes doradas</t>
         </is>
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Si se va a utilizar una imagen personalizada, consulte las prácticas recomendadas para AVD sobre cómo crear una imagen maestra</t>
+          <t>Seleccione la tienda adecuada para imágenes personalizadas</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hay algunas mejores prácticas y recomendaciones conocidas para la personalización de la imagen dorada, asegúrese de consultar el artículo al que se hace referencia. </t>
+          <t>Las imágenes personalizadas de Azure VM se pueden crear y almacenar de diferentes maneras: en una Galería de proceso de Azure, como un objeto de imagen administrado o como un disco administrado en el almacenamiento. La forma recomendada es usar la Galería de proceso de Azure.</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1975,7 +1940,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-customize-master-image</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/shared-image-galleries</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1983,7 +1948,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
+          <t>5a2adb2c-3e23-426b-b225-ca44e1696fdd</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1999,22 +1964,22 @@
       </c>
       <c r="B26" s="21" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Imágenes doradas</t>
         </is>
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Evaluar el uso de Virtual-Desktop-Optimization-Tool</t>
+          <t>Diseñar el proceso de compilación para imágenes personalizadas</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Este conjunto de herramientas se ha creado para aplicar automáticamente la configuración a la que se hace referencia en las notas del producto 'Optimización de Windows 10, versión 2004 para un rol de infraestructura de escritorio virtual (VDI)': https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Se debe considerar el uso de la herramienta y / o las optimizaciones mencionadas en el documento técnico. </t>
+          <t>Si se van a usar imágenes personalizadas, planee un proceso de compilación automatizado. Si no existe una fábrica de software preexistente, considere la posibilidad de usar plantillas de imagen personalizadas o Azure Image Builder para automatizar el proceso de compilación.</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2025,7 +1990,7 @@
       <c r="G26" s="21" t="n"/>
       <c r="H26" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-custom-image-templates</t>
         </is>
       </c>
       <c r="I26" s="15" t="n"/>
@@ -2033,7 +1998,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
+          <t>9bd7bb01-2f7b-495e-86e1-54e2aa359282</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -2049,22 +2014,22 @@
       </c>
       <c r="B27" s="21" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Imágenes doradas</t>
         </is>
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Planificar/evaluar la estrategia de gestión de la configuración del host de sesión AVD</t>
+          <t>Si se va a utilizar una imagen personalizada, consulta las prácticas recomendadas para AVD sobre cómo crear una imagen personalizada</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Determine si ya existe una herramienta de administración de configuración para administrar la configuración de la máquina virtual del grupo de hosts después de la implementación inicial, por ejemplo, SCCM, MEM/Intune, GPO, soluciones de 3rd-party.</t>
+          <t>Hay algunas mejores prácticas y recomendaciones conocidas para la personalización de la imagen dorada, asegúrese de consultar el artículo al que se hace referencia.</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2075,14 +2040,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-golden-image</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
+          <t>deace4cb-1dec-44c6-90c3-fc14eebb36a3</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -2098,22 +2063,22 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Imágenes doradas</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Determinar si Microsoft OneDrive formará parte de la implementación de AVD</t>
+          <t>Incluir la última versión de FSLogix en el proceso de actualización de imagen dorada</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>Revise el artículo proporcionado y marque 'Redirección de carpetas conocidas' y 'Archivos a petición' Las características de OneDrive deben considerarse y, finalmente, adoptarse.</t>
+          <t>La pila FSLogix instalada en hosts de sesión AVD no proporciona capacidad de actualización automática. Por esta razón, se recomienda descargar la última versión de FSLogix e incluirla en el proceso de actualización de la imagen dorada.</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2124,14 +2089,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/install-office-on-AVD-master-image</t>
+          <t>https://learn.microsoft.com/fslogix/how-to-install-fslogix</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
+          <t>ed5c9027-dd1a-4343-86ca-52b199223186</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2147,22 +2112,22 @@
       </c>
       <c r="B29" s="21" t="inlineStr">
         <is>
-          <t>Imagen/es dorada/s</t>
+          <t>Imágenes doradas</t>
         </is>
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Determinar si Microsoft Teams formará parte de la implementación de AVD</t>
+          <t>Evaluar el uso de Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de revisar este artículo y usar la versión más reciente, revisar y evaluar las exclusiones de Teams para reducir el tamaño del perfil.</t>
+          <t xml:space="preserve">Este conjunto de herramientas se ha creado para aplicar automáticamente la configuración a la que se hace referencia en las notas del producto 'Optimización de Windows 10, versión 2004 para un rol de infraestructura de escritorio virtual (VDI)': https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Se debe considerar el uso de la herramienta y / o las optimizaciones mencionadas en el documento técnico. </t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2173,14 +2138,14 @@
       <c r="G29" s="21" t="n"/>
       <c r="H29" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
+          <t>https://github.com/The-Virtual-Desktop-Team/Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
+          <t>829e3fec-2183-4687-a017-7a2b5945bda4</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2196,22 +2161,22 @@
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Imágenes doradas</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">No use la misma cuenta/recurso compartido de almacenamiento que los contenedores de perfil/Office </t>
+          <t>Determinar si Microsoft OneDrive formará parte de la implementación de AVD</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda encarecidamente utilizar cuentas de almacenamiento/recursos compartidos independientes para almacenar paquetes MSIX. Si es necesario, el almacenamiento puede escalar horizontalmente de forma independiente y no verse afectado por las actividades de E/S del perfil. Azure ofrece varias opciones de almacenamiento que se pueden usar para la conexión de aplicaciones MISX. Se recomienda usar Azure Files o Azure NetApp Files, ya que estas opciones ofrecen el mejor valor entre costo y gastos generales de administración. </t>
+          <t>Si se usa OneDrive y se incluye en una imagen dorada, asegúrese de seguir el procedimiento de configuración indicado en el artículo complementario de la sección "Más información". No está en el alcance de esta lista de comprobación de AVD, pero las optimizaciones de OneDrive como 'Redirección de carpetas conocidas' y 'Archivos a petición' deben evaluarse para reducir el espacio utilizado en los perfiles de FSLogix y proporcionar una mejor experiencia de usuario. En la actualidad, OneDrive no es compatible con aplicaciones remotas.</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2222,14 +2187,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/install-office-on-wvd-master-image#install-onedrive-in-per-machine-mode</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
+          <t>e3d3e084-4276-4d4b-bc01-5bcf219e4a1e</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2245,22 +2210,22 @@
       </c>
       <c r="B31" s="21" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Imágenes doradas</t>
         </is>
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Revisar las consideraciones de rendimiento para MSIX</t>
+          <t>Determinar si Microsoft Teams formará parte de la implementación de AVD</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>En el artículo al que se hace referencia, informamos pocas pero importantes consideraciones de rendimiento para el uso de MSIX en el contexto AVD, asegúrese de revisarlo cuidadosamente.</t>
+          <t>Asegúrese de revisar los requisitos y el procedimiento de configuración contenidos en el artículo complementario en la columna 'Más información'. Dado que las actualizaciones automáticas de Teams estarán deshabilitadas, se recomienda comprobar e incluir la última versión de Teams en el proceso de actualización de la imagen dorada.</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2271,14 +2236,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/teams-on-AVD</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
+          <t>b5887953-5d22-4788-9d30-b66c67be5951</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2294,22 +2259,22 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>MSIX y AppAttach</t>
+          <t>Imágenes doradas</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Comprobar los permisos de host de sesión adecuados para el recurso compartido MSIX</t>
+          <t>Evaluar el requisito de admitir varios idiomas</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
         <is>
-          <t>La conexión de la aplicación MSIX requiere permisos de solo lectura para acceder al recurso compartido de archivos. Si va a almacenar las aplicaciones MSIX en Azure Files, deberá asignar a todas las máquinas virtuales host de sesión permisos de control de acceso basado en roles (RBAC) de cuentas de almacenamiento y permisos del sistema de archivos de nueva tecnología (NTFS) en el recurso compartido.</t>
+          <t>AVD puede admitir usuarios con diferentes requisitos de idioma y localización en el mismo grupo de hosts. Esto se puede hacer personalizando imágenes doradas para garantizar que los usuarios puedan seleccionar el idioma que necesiten. El procedimiento para configurar paquetes de idioma adicionales en Windows 11 se documenta en el artículo de referencia.</t>
         </is>
       </c>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2320,7 +2285,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/windows-11-language-packs</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2328,7 +2293,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
+          <t>7c336f3b-822a-498e-8cd1-667d1150df4a</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2349,12 +2314,12 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Paquetes MSIX para aplicaciones de 3ª parte</t>
+          <t>No utilice la misma cuenta/recurso compartido de almacenamiento que los perfiles de FSLogix</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>El proveedor de software de 3rd party debe proporcionar un paquete MSIX, no se recomienda que el cliente intente el procedimiento de conversión sin el soporte adecuado del propietario de la aplicación.</t>
+          <t xml:space="preserve">Se recomienda encarecidamente utilizar cuentas de almacenamiento/recursos compartidos independientes para almacenar paquetes MSIX. Si es necesario, el almacenamiento puede escalar horizontalmente de forma independiente y no verse afectado por las actividades de E/S del perfil. Azure ofrece varias opciones de almacenamiento que se pueden usar para la conexión de aplicaciones MISX. Se recomienda usar Azure Files o Azure NetApp Files, ya que estas opciones ofrecen el mejor valor entre costo y gastos generales de administración. </t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2370,7 +2335,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2378,7 +2343,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
+          <t>90083845-c587-4cb3-a1ec-16a1d076ef9f</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2399,17 +2364,17 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Deshabilitar la actualización automática para paquetes MSIX</t>
+          <t>Revisar las consideraciones de rendimiento para MSIX</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>La aplicación MSIX adjunta no admite la actualización automática para aplicaciones MSIX, por lo que debe deshabilitarse.</t>
+          <t>En el artículo al que se hace referencia, informamos pocas pero importantes consideraciones de rendimiento para el uso de MSIX en el contexto AVD, asegúrese de revisarlo cuidadosamente.</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2420,7 +2385,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2428,7 +2393,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
+          <t>241addce-5793-477b-adb3-751ab2ac1fad</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2449,12 +2414,12 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Revisar la compatibilidad con sistemas operativos</t>
+          <t>Comprobar los permisos de host de sesión adecuados para el recurso compartido MSIX</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>Para aprovechar MSIX &amp; App Attach, la imagen del sistema operativo invitado para el grupo de hosts AVD debe ser Windows 10 Enterprise o Windows 10 Enterprise Multi-session, versión 2004 o posterior.</t>
+          <t>La conexión de la aplicación MSIX requiere permisos de solo lectura para acceder al recurso compartido de archivos. Si va a almacenar las aplicaciones MSIX en Azure Files, deberá asignar a todas las máquinas virtuales host de sesión permisos de control de acceso basado en roles (RBAC) de cuentas de almacenamiento y permisos del sistema de archivos de nueva tecnología (NTFS) en el recurso compartido.</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2470,7 +2435,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-file-share</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2478,7 +2443,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
+          <t>66e15d4d-5a2a-4db2-a3e2-326bf225ca41</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2494,22 +2459,22 @@
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>Host de sesión</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Evaluar el uso de la máquina virtual Gen2 para la implementación del grupo de hosts</t>
+          <t>Paquetes MSIX para aplicaciones de 3ª parte</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>Una vez seleccionada la SKU de máquina virtual que se usará para la implementación del grupo de hosts, se recomienda usar el tipo Gen2 de la SKU para una mayor seguridad y capacidades mejoradas.</t>
+          <t>El proveedor de software de 3rd party debe proporcionar un paquete MSIX, no se recomienda que el cliente intente el procedimiento de conversión sin el soporte adecuado del propietario de la aplicación.</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2520,7 +2485,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-machines/generation-2</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2528,7 +2493,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
+          <t>bd362caa-ab79-4b19-adab-81932c9fc9d1</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2539,27 +2504,27 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Determinación del tipo de grupo de hosts que se va a usar</t>
+          <t>Deshabilitar la actualización automática para paquetes MSIX</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>Compartido/Agrupado o Dedicado/Personal</t>
+          <t>La aplicación MSIX adjunta no admite la actualización automática para aplicaciones MSIX, por lo que deben deshabilitarse.</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2570,7 +2535,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2578,7 +2543,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
+          <t>bb88037f-5e6b-4fbb-aed5-03547cc447e8</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2589,22 +2554,22 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>MSIX y AppAttach</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Para el tipo de grupo de hosts personales, decida el tipo de asignación</t>
+          <t>Revisar la compatibilidad con sistemas operativos</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>Confirme que la diferencia entre asignación automática y directa se entiende bien y que la opción seleccionada es apropiada para el escenario en cuestión.</t>
+          <t>Para aprovechar MSIX &amp; App Attach, la imagen del SO invitado para el grupo de hosts AVD debe ser Windows 10/11 Enterprise o Windows 10/11 Enterprise Multi-session, versión 2004 o posterior.</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2620,7 +2585,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/app-attach-faq</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2628,7 +2593,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
+          <t>26128a71-f0f1-4cac-9d9e-f1d5e832e42e</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2639,22 +2604,22 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Host de sesión</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Para Tipo de grupo de hosts agrupados, decida el método de equilibrio de carga</t>
+          <t>Evaluar el uso de la máquina virtual Gen2 para la implementación del grupo de hosts</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compruebe cuál usar y las opciones disponibles, tenga en cuenta que si se utilizará el escalado automático, lo establece en amplitud primero. </t>
+          <t>Una vez seleccionada la SKU de máquina virtual que se usará para la implementación del grupo de hosts, se recomienda usar el tipo Gen2 de la SKU para una mayor seguridad y capacidades mejoradas.</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
@@ -2670,7 +2635,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
+          <t>https://docs.microsoft.com/azure/virtual-machines/generation-2</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2678,7 +2643,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
+          <t>e4633254-3185-40a1-b120-bd563a1c8e9d</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2689,27 +2654,27 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Fundación</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Planificación de la capacidad</t>
+          <t>Host de sesión</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estimar el número de grupos de hosts diferentes para implementar </t>
+          <t>Considere el uso de MMR (MultiMedia Redirection) para obtener un mejor rendimiento de video en el navegador</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>Según sus criterios de selección, ¿cuántos grupos de hosts necesitaría? Deberías considerar tener varios si:? ¿Múltiples imágenes del sistema operativo? ¿Varias regiones? ¿Se requiere un HW diferente? ¿Diferentes tipos de grupo de hosts (compartido vs. personal)? ¿Diferentes requisitos de usuario y SLA (usuarios principales, ejecutivos, trabajadores de oficina frente a desarrolladores, etc.)? Diferentes configuraciones de RDP (aplicadas a nivel de grupo de hosts), consulte https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties? Número requerido de máquinas virtuales en el grupo de hosts que supera las capacidades máximas</t>
+          <t>MMR redirige el contenido multimedia del host de sesión a su máquina local para un procesamiento y representación más rápidos. Solo funciona cuando reproduce contenido multimedia en Microsoft Edge o Google Chrome. Consulte URL vinculada para obtener más detalles.</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2720,7 +2685,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/multimedia-redirection</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2728,7 +2693,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>c7c791dc-a1f6-4d56-999e-558b937d4985</t>
+          <t>adecb27f-dc40-40f5-aca2-0090f633b1c9</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2749,17 +2714,17 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Ejecute una prueba de rendimiento de carga de trabajo para determinar el mejor SKU de máquina virtual de Azure y el tamaño que se debe usar (determinar el número de hosts por grupo)</t>
+          <t>Determinación del tipo de grupo de hosts que se va a usar</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>Utilice el enlace proporcionado para establecer un punto de partida para la decisión de SKU y, a continuación, valide mediante una prueba de rendimiento. Asegúrese de seleccionar un mínimo de 4 núcleos para producción por host de sesión (multisesión)</t>
+          <t>Un grupo de hosts es una colección de máquinas virtuales de Azure que se registran en Azure Virtual Desktop como hosts de sesión. Un grupo host puede ser de dos tipos: Personal y Agrupado. Qué tipo usar, y cuántos, es una decisión de diseño clave que debe documentarse y validarse. Consulte el artículo complementario en la columna 'Más información' para obtener más detalles.</t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2770,7 +2735,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/terminology#host-pools</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2778,7 +2743,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
+          <t>8468c55a-775c-46ee-a5b8-6ad8844ce3b2</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2799,12 +2764,12 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Comprobar los límites de escalabilidad de AVD para el entorno</t>
+          <t xml:space="preserve">Estimar el número de grupos de hosts diferentes para implementar </t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es fundamental verificar la capacidad de AVD y los límites informados en el artículo al que se hace referencia. </t>
+          <t>Use los criterios de diseño para determinar el número de grupos de hosts que se van a implementar. Esto se basará en factores como diferentes imágenes del sistema operativo, compatibilidad con varias regiones, diferencias de hardware de VM invitada (como compatibilidad con GPU o no), diferentes expectativas de usuario y requisitos de tiempo de actividad (ejemplos pueden ser 'Ejecutivos', 'Trabajadores de oficina', 'Desarrolladores', etc.) y la configuración RDP del grupo de hosts (como la compatibilidad con la redirección de unidades). Estos determinarán el número de grupos de hosts, así como cuántos hosts habrá en cada grupo.</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
@@ -2820,7 +2785,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/AVD/windows-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/terminology?WT.mc_id=Portal-fx#host-pools</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2828,7 +2793,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
+          <t>4e98495f-d3c0-4af2-aa59-a793395a32a7</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2849,17 +2814,17 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Determinar si los hosts de sesión requerirán GPU</t>
+          <t>En Personal Host Pool type (Tipo de grupo de hosts personales), seleccione el tipo de asignación adecuado</t>
         </is>
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los grupos de hosts con GPU requieren una configuración especial, asegúrese de revisar el artículo al que se hace referencia. </t>
+          <t>Confirme que la diferencia entre asignación automática y directa se entiende bien y que la opción seleccionada es apropiada para el escenario en cuestión. Automático es la configuración predeterminada.</t>
         </is>
       </c>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2870,7 +2835,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2878,7 +2843,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
+          <t>b38b875b-a1cf-4204-a901-3a5d3ce474db</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2899,12 +2864,12 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda usar SKU de máquina virtual capaces de aprovechar la característica de redes aceleradas en Azure.</t>
+          <t>En Tipo de grupo de hosts agrupados, seleccione el mejor método de equilibrio de carga</t>
         </is>
       </c>
       <c r="D44" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Siempre que sea posible, se recomienda aprovechar las SKU de VM con la función de red acelerada. Hoy en día, los sistemas operativos Windows Server son compatibles (consulte la lista en el artículo), en el futuro el sistema operativo cliente de Windows también puede incluirse. </t>
+          <t>Compruebe cuál usar y las opciones disponibles, el escalado automático ignora los algoritmos de equilibrio de carga existentes.</t>
         </is>
       </c>
       <c r="E44" s="21" t="inlineStr">
@@ -2920,7 +2885,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/create-vm-accelerated-networking-powershell</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/host-pool-load-balancing</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2928,7 +2893,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
+          <t>cbd8682a-6abc-4a2a-9fda-1dbf3dc95d48</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2944,17 +2909,17 @@
       </c>
       <c r="B45" s="21" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Evaluar cuántos usuarios se conectarán a AVD y desde qué regiones</t>
+          <t>Para el tipo de grupo de hosts agrupados, las máquinas virtuales no deben tener más de 32 núcleos</t>
         </is>
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para una planificación e implementación adecuadas, es importante evaluar el número máximo de usuarios y el promedio de sesiones simultáneas. </t>
+          <t>El número de núcleos aumenta, la sobrecarga de sincronización del sistema también aumenta. Especialmente para el inicio de sesión de varios usuarios simultáneamente. Asegúrese de no usar una máquina virtual demasiado grande para el host de sesión</t>
         </is>
       </c>
       <c r="E45" s="21" t="inlineStr">
@@ -2970,14 +2935,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://learn.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
+          <t>b3724959-4943-4577-a3a9-e10ff6345f24</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2993,22 +2958,22 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Determinar si todos los usuarios tendrán el mismo conjunto de aplicaciones y/o diferentes configuraciones de grupo de hosts y/o imágenes de sistema operativo</t>
+          <t>No use el mismo grupo de hosts para ofrecer escritorios completos (DAG) y aplicaciones remotas al mismo conjunto de usuarios</t>
         </is>
       </c>
       <c r="D46" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es posible que se requieran varios grupos de hosts para admitir diferentes conjuntos de usuarios, se recomienda estimar cuántos serán necesarios. </t>
+          <t>AVD no admite la asignación de RemoteApp y el grupo de aplicaciones de escritorio (DAG) en un único grupo de hosts al mismo conjunto de usuarios. Si lo hace, un solo usuario tendrá dos sesiones de usuario en un solo grupo de hosts. Se supone que los usuarios no deben tener dos sesiones activas al mismo tiempo en el mismo grupo de hosts con el mismo perfil.</t>
         </is>
       </c>
       <c r="E46" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3019,7 +2984,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/environment-setup</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/terminology?WT.mc_id=Portal-fx#application-groups</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -3027,7 +2992,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>a1cf2049-9013-4a5d-9ce4-74dbcbd8682a</t>
+          <t>b384b7ed-1cdd-457e-a2cd-c8d4d55bc144</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -3043,22 +3008,22 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Evaluar las dependencias externas para cada grupo de hosts</t>
+          <t>Calcular el número de grupos de aplicaciones necesarios en todos los grupos de hosts del inquilino de Microsoft Entra ID</t>
         </is>
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>Se deben evaluar y revisar las dependencias de recursos externos al grupo de AVD, por ejemplo, Active Directory, recursos compartidos de archivos externos u otro almacenamiento, servicios y recursos locales, componentes de infraestructura de red como VPN y/o Express Route, servicios externos y componentes de 3rd-party. Para todos estos recursos, es necesario evaluar la latencia del grupo de hosts AVD y considerar la conectividad. Además, las consideraciones de BCDR también deben aplicarse a estas dependencias.</t>
+          <t>Hay un límite de 500 grupos de aplicaciones que se pueden crear en AVD para cada inquilino de Microsoft Entra ID (antiguo Azure AD). El límite se puede aumentar (consulte el enlace complementario para obtener más detalles), pero no se recomienda.</t>
         </is>
       </c>
       <c r="E47" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -3069,7 +3034,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits#azure-virtual-desktop-service-limits</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -3077,7 +3042,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
+          <t>971cc4a4-b1f7-4c12-90e0-1ad96808f00c</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -3093,22 +3058,22 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Revisar el sistema operativo del cliente utilizado y el tipo de cliente AVD</t>
+          <t>Estimar el número de aplicaciones para cada grupo de aplicaciones</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>Revise las limitaciones de cada cliente y compare múltiples opciones cuando sea posible.</t>
+          <t>Las aplicaciones se agrupan en Grupos de aplicaciones como contenedores para publicar y asignar permisos: se recomienda no publicar más de 50 aplicaciones por grupo de aplicaciones.</t>
         </is>
       </c>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3119,14 +3084,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/connect-windows-7-10</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop#considerations</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
+          <t>fa9f2895-473d-439b-ab8e-5a5cf92c7f32</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -3142,17 +3107,17 @@
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Comprobar los requisitos de licencia</t>
+          <t>Evaluar el uso de FSLogix para grupos de hosts personales</t>
         </is>
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>Los clientes que tienen la licencia adecuada para ejecutar cargas de trabajo de Windows Virtual Desktop son elegibles para aplicar una licencia de Windows a sus máquinas virtuales host de sesión y ejecutarlas sin pagar por otra licencia.</t>
+          <t>FSLogix no es necesario para los grupos de hosts personales, ya que cada máquina virtual se asigna estáticamente a un solo usuario, por lo que no hay necesidad inmediata de una solución de perfil móvil. En algunos escenarios de uso, FSLogix puede ayudar. Por ejemplo, se puede reasignar una máquina virtual, mover el usuario a otro escritorio, o usar un perfil móvil para guardar el perfil de usuario en una ubicación diferente para fines de recuperación ante desastres.</t>
         </is>
       </c>
       <c r="E49" s="21" t="inlineStr">
@@ -3168,14 +3133,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/pricing/details/virtual-desktop/</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type?tabs=azure#reassign-a-personal-desktop</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>7ba012e7-b94e-4f6e-847d-2ea2992b1cd6</t>
+          <t>38b19ab6-0693-4992-9394-5590883916ec</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -3191,17 +3156,17 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Ejecute una prueba de concepto para probar la experiencia del usuario de extremo a extremo y verificar el impacto causado por la latencia de la red</t>
+          <t>Ejecución de pruebas de rendimiento de carga de trabajo para determinar el mejor SKU de máquina virtual de Azure y el tamaño que se debe usar</t>
         </is>
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dependiendo de las ubicaciones de los usuarios y la implementación de la región AVD, los usuarios pueden tener una experiencia no óptima, por lo tanto, es importante probar lo antes posible en un entorno PoC pequeño. </t>
+          <t>Utilice el enlace proporcionado para establecer un punto de partida para la decisión de SKU y, a continuación, valide mediante una prueba de rendimiento. Asegúrese de seleccionar un mínimo de cuatro núcleos para producción por host de sesión (sesión múltiple)</t>
         </is>
       </c>
       <c r="E50" s="21" t="inlineStr">
@@ -3217,7 +3182,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/virtual-machine-recs</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -3225,7 +3190,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
+          <t>e1112dbd-7ba0-412e-9b94-ef6e047d2ea2</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3241,22 +3206,22 @@
       </c>
       <c r="B51" s="21" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinar si los usuarios accederán a AVD utilizando escritorios completos y/o aplicaciones remotas </t>
+          <t>Comprobar los límites de escalabilidad de AVD para el entorno</t>
         </is>
       </c>
       <c r="D51" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determine si a los usuarios se les ofrecerán escritorios completos y/o grupos de aplicaciones remotas. </t>
+          <t xml:space="preserve">Es fundamental comprobar la capacidad de AVD y los límites informados en el artículo al que se hace referencia. Se aplican límites y umbrales adicionales para la administración de redes, computación, almacenamiento y servicios. </t>
         </is>
       </c>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3267,7 +3232,7 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop#considerations</t>
         </is>
       </c>
       <c r="I51" s="15" t="n"/>
@@ -3275,7 +3240,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-837ee7ad6c6d</t>
+          <t>992b1cd6-d2f5-44b2-a769-e3a691e8838a</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3291,17 +3256,17 @@
       </c>
       <c r="B52" s="21" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">¿Todos los usuarios tendrán la misma configuración de RDP? </t>
+          <t>Determinar si los hosts de sesión requerirán GPU</t>
         </is>
       </c>
       <c r="D52" s="21" t="inlineStr">
         <is>
-          <t>Actualmente, la configuración de RDP solo se puede configurar en el nivel del grupo de hosts, no por usuario o grupo.</t>
+          <t>Los grupos de hosts con GPU requieren una configuración especial, asegúrese de revisar el artículo al que se hace referencia.</t>
         </is>
       </c>
       <c r="E52" s="21" t="inlineStr">
@@ -3317,7 +3282,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/configure-vm-gpu</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3325,7 +3290,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
+          <t>c936667e-13c0-4056-94b1-e945a459837e</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3341,22 +3306,22 @@
       </c>
       <c r="B53" s="21" t="inlineStr">
         <is>
-          <t>Clientes y Usuarios</t>
+          <t>Planificación de la capacidad</t>
         </is>
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Evaluar RDP ShortPath para clientes que se conectan desde redes internas administradas</t>
+          <t>Usar SKU de máquina virtual de Azure capaces de aprovechar las redes aceleradas</t>
         </is>
       </c>
       <c r="D53" s="21" t="inlineStr">
         <is>
-          <t>RDP Shortpath para redes administradas es una característica de Azure Virtual Desktop que establece un transporte directo basado en UDP entre el cliente de Escritorio remoto y el host de sesión. La eliminación del relé adicional reduce el tiempo de ida y vuelta, lo que mejora la experiencia del usuario con aplicaciones y métodos de entrada sensibles a la latencia. Para admitir RDP Shortpath, el cliente de Azure Virtual Desktop necesita una línea de visión directa al host de sesión y debe ejecutar Windows 10 o Windows 7 y tener instalado el cliente de escritorio de Windows.</t>
+          <t>Siempre que sea posible, se recomienda aprovechar las SKU de VM con la función de red acelerada. Esta característica requiere SKU / tamaño de VM específico y versiones del sistema operativo, consulte la lista y los requisitos en el artículo complementario.</t>
         </is>
       </c>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3367,14 +3332,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/virtual-desktop/shortpath</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
+          <t>b47a393a-0803-4272-a479-8b1578b219a4</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3390,22 +3355,22 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Determine en qué región o grupos de hosts AVD de Azure se implementarán.</t>
+          <t>Evaluar cuántos usuarios se conectarán a AVD y desde qué regiones</t>
         </is>
       </c>
       <c r="D54" s="21" t="inlineStr">
         <is>
-          <t>AVD es un servicio no regional, los grupos de hosts se pueden crear en cualquier región, la redirección automática desde el front-end más cercano se realizará automáticamente.</t>
+          <t>Para una planeación e implementación adecuadas, es importante evaluar el número máximo de usuarios simultáneos y totales para cada grupo de hosts. Además, los usuarios de diferentes regiones pueden requerir diferentes grupos de hosts para garantizar la mejor experiencia de usuario.</t>
         </is>
       </c>
       <c r="E54" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -3416,7 +3381,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/overview</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3424,7 +3389,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
+          <t>bb91a33d-90ca-4e2c-a881-3706f7c0cb9f</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3440,17 +3405,17 @@
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Determinar si se requiere conectividad híbrida para conectarse al entorno local</t>
+          <t>Evaluar las dependencias externas para cada grupo de hosts</t>
         </is>
       </c>
       <c r="D55" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si es necesario conectarse al entorno local, evalúe la opción de conectividad actual o planee la conectividad necesaria. </t>
+          <t>Se deben evaluar y revisar las dependencias de recursos externos al grupo de AVD, por ejemplo, Active Directory, recursos compartidos de archivos externos u otro almacenamiento, servicios y recursos locales, componentes de infraestructura de red como VPN o ExpressRoute, servicios externos y componentes de 3rd-party. Para todos estos recursos, es necesario evaluar la latencia del grupo de hosts AVD y considerar la conectividad. Además, las consideraciones de BCDR también deben aplicarse a estas dependencias.</t>
         </is>
       </c>
       <c r="E55" s="21" t="inlineStr">
@@ -3466,14 +3431,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop?toc=%2Fazure%2Fvirtual-desktop%2Ftoc.json&amp;bc=%2Fazure%2Fvirtual-desktop%2Fbreadcrumb%2Ftoc.json</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
+          <t>6abca2a4-fda1-4dbf-9dc9-5d48c7c791dc</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3489,22 +3454,22 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>¿Evaluó la latencia entre la ubicación de los usuarios y la infraestructura de Azure AVD?</t>
+          <t>Revisar el sistema operativo del cliente de usuario utilizado y el tipo de cliente AVD</t>
         </is>
       </c>
       <c r="D56" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ejecute la herramienta 'Windows Virtual Desktop Experience Estimator' para seleccionar la mejor región de Azure para implementar grupos de hosts. Más allá de la latencia de 150 ms, la experiencia del usuario puede no ser óptima. </t>
+          <t>AVD ofrece una variedad de tipos de clientes (fat, thin, web) para conectarse a través de diferentes plataformas (Windows, MacOS, iOS, Android). Revise las limitaciones de cada cliente y compare múltiples opciones cuando sea posible.</t>
         </is>
       </c>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3515,14 +3480,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
+          <t>https://learn.microsoft.com/en-us/azure/virtual-desktop/users/connect-windows</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>0d834a34-8b26-43e6-bc60-512a26498f6d</t>
+          <t>a1f6d565-99e5-458b-a37d-4985e1112dbd</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3538,22 +3503,22 @@
       </c>
       <c r="B57" s="21" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Determinar la ubicación de metadatos para el servicio AVD</t>
+          <t>Ejecute una prueba de concepto para validar la experiencia del usuario de extremo a extremo y el impacto de la latencia de la red</t>
         </is>
       </c>
       <c r="D57" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">AVD almacena metadatos solo para ejecutar el servicio en ubicaciones geográficas específicas, determinar qué está disponible hoy y, si es adecuado, según los requisitos del cliente. </t>
+          <t>Dependiendo de las ubicaciones de los usuarios y la implementación de la región AVD, los usuarios pueden tener una experiencia no óptima, por lo tanto, es importante probar lo antes posible en un entorno PoC pequeño. Ejecute la herramienta 'Azure Virtual Desktop Experience Estimator' para seleccionar la mejor región de Azure para implementar grupos de hosts. Más allá de la latencia de 150 ms, la experiencia del usuario puede no ser óptima.</t>
         </is>
       </c>
       <c r="E57" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3564,14 +3529,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
+          <t>https://azure.microsoft.com/services/virtual-desktop/assessment/</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
+          <t>d2f54b29-769e-43a6-a1e8-838ac936667e</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3587,17 +3552,17 @@
       </c>
       <c r="B58" s="21" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Clientes y Usuarios</t>
         </is>
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Comprobar las cuotas y la disponibilidad de Azure para tamaños de máquina virtual específicos en las regiones seleccionadas</t>
+          <t>Evaluar y documentar la configuración de RDP para todos los grupos de usuarios</t>
         </is>
       </c>
       <c r="D58" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compruebe si hay SKU de máquina virtual específicas, especialmente si necesita GPU o SKU de especificaciones altas y, finalmente, la disponibilidad de Azure NetApp Files si se usa. </t>
+          <t>Actualmente, la configuración de RDP solo se puede configurar en el nivel del grupo de hosts, no por usuario o grupo. Si se requieren diferentes configuraciones para diferentes conjuntos de usuarios, se recomienda crear varios grupos de hosts.</t>
         </is>
       </c>
       <c r="E58" s="21" t="inlineStr">
@@ -3613,14 +3578,14 @@
       <c r="G58" s="21" t="n"/>
       <c r="H58" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/customize-rdp-properties</t>
         </is>
       </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
+          <t>3b365a5c-7acb-4e48-abe5-4cd79f2e8776</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3641,17 +3606,17 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Comprobar la disponibilidad de la zona de disponibilidad (AZ) en la región seleccionada</t>
+          <t>Determine en qué regiones de Azure se implementarán los grupos de hosts AVD.</t>
         </is>
       </c>
       <c r="D59" s="21" t="inlineStr">
         <is>
-          <t>Consulte la sección BCDR para obtener más detalles.</t>
+          <t>AVD es un servicio no regional, los grupos de hosts se pueden crear en cualquier región, la redirección automática desde el front-end más cercano se realizará automáticamente.</t>
         </is>
       </c>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3662,14 +3627,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/availability-zones/az-region</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/?products=virtual-desktop</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>be1f38ce-f398-412b-b463-cbbac89c199d</t>
+          <t>42e52f47-21d9-428c-8b1b-d521e44a29a9</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3680,22 +3645,22 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Creación de al menos dos controladores de dominio (DC) de Active Directory en un entorno de red virtual de Azure cerca del grupo de hosts AVD</t>
+          <t>Determinar la ubicación de metadatos para el servicio AVD</t>
         </is>
       </c>
       <c r="D60" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomiendan los controladores de dominio de AD en Azure para reducir la latencia de los usuarios que inician sesión en hosts de sesión de AVD y, finalmente, para la integración de Azure NetApp Files y AD. ADC debe poder comunicarse con los controladores de dominio para TODOS los dominios secundarios. Como alternativa, se debe usar la conectividad local para llegar a los controladores de dominio de AD. </t>
+          <t>AVD debe almacenar metadatos para admitir el servicio; Esto se almacena en la geografía especificada. Sin embargo, esto es independiente de las regiones donde se encuentran los grupos de servidores.</t>
         </is>
       </c>
       <c r="E60" s="21" t="inlineStr">
@@ -3711,14 +3676,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/data-locations</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
+          <t>bad37ead-53cc-47ce-8d7a-aab3571449ab</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3729,22 +3694,22 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Identidad</t>
+          <t>Fundación</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>Active Directory</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Crear una unidad organizativa específica en Active Directory para cada grupo de hosts</t>
+          <t>Comprobar las cuotas y la disponibilidad de Azure para tamaños y tipos de máquinas virtuales específicos en las regiones seleccionadas</t>
         </is>
       </c>
       <c r="D61" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda crear una unidad organizativa independiente por grupo de hosts en una jerarquía de unidades organizativas independiente. Estas unidades organizativas contendrán cuentas de máquina de hosts de sesión AVD. </t>
+          <t>Compruebe si hay SKU de máquina virtual específicas, especialmente si necesita GPU o SKU de especificaciones altas, y finalmente Azure NetApp Files si se usa.</t>
         </is>
       </c>
       <c r="E61" s="21" t="inlineStr">
@@ -3760,14 +3725,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-host-pools-azure-marketplace</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
+          <t>8053d89e-89dc-47b3-9be2-a1a27f7a9e91</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3788,12 +3753,12 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Revisar el GPO de dominio que se aplicará a la unidad organizativa y que afecta a las funcionalidades de la máquina virtual del grupo de hosts</t>
+          <t>Creación de al menos dos controladores de dominio (DC) de Active Directory en un entorno de red virtual de Azure cerca del grupo de hosts AVD</t>
         </is>
       </c>
       <c r="D62" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revise cuidadosamente y, finalmente, bloquee o filtre la herencia de GPO a las unidades organizativas que contienen grupos de hosts AVD. </t>
+          <t>Se recomiendan los controladores de dominio de AD en Azure (al menos dos en zonas de disponibilidad diferentes) para reducir la latencia para los usuarios que inician sesión en hosts de sesión AVD y, finalmente, para Azure NetApp Files y la integración de AD. Un DC debe poder comunicarse con los controladores de dominio para TODOS los dominios secundarios. Como alternativa, se debe usar la conectividad local para llegar a los controladores de dominio de AD.</t>
         </is>
       </c>
       <c r="E62" s="21" t="inlineStr">
@@ -3809,14 +3774,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/identity/adds-extend-domain</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>7126504b-b47a-4393-a080-327294798b15</t>
+          <t>c14aea7e-65e8-4d9a-9aec-218e6436b073</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3837,12 +3802,12 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Crear una cuenta de usuario dedicada con solo permisos para unir la máquina virtual al dominio</t>
+          <t>Crear una unidad organizativa específica en Active Directory para cada grupo de hosts</t>
         </is>
       </c>
       <c r="D63" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda tener una cuenta dedicada específica con permisos específicos y sin la limitación predeterminada de 10 uniones. </t>
+          <t xml:space="preserve">Se recomienda crear una unidad organizativa independiente por grupo de hosts en una jerarquía de unidades organizativas independiente. Estas unidades organizativas contendrán cuentas de máquina de hosts de sesión AVD. </t>
         </is>
       </c>
       <c r="E63" s="21" t="inlineStr">
@@ -3866,7 +3831,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
+          <t>6db55f57-9603-4334-adf9-cc23418db612</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3887,12 +3852,12 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Crear un grupo de usuarios de dominio para cada conjunto de usuarios a los que se concederá acceso a cada grupo de aplicaciones del grupo de servidores host (DAG o RAG)</t>
+          <t>Revisar los GPO de dominio que se aplicarán a la unidad organizativa y que afectan a las funcionalidades de los hosts de sesión del grupo de hosts</t>
         </is>
       </c>
       <c r="D64" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evite conceder acceso por usuario, en su lugar use grupos de AD y replíquelos con ADC en Azure AD. </t>
+          <t xml:space="preserve">Revise detenidamente y, potencialmente, bloquee o filtre la herencia de GPO a las unidades organizativas que contienen grupos de hosts AVD. </t>
         </is>
       </c>
       <c r="E64" s="21" t="inlineStr">
@@ -3908,7 +3873,7 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
+          <t>https://docs.microsoft.com/previous-versions/windows/desktop/Policy/group-policy-hierarchy</t>
         </is>
       </c>
       <c r="I64" s="15" t="n"/>
@@ -3916,7 +3881,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
+          <t>7126504b-b47a-4393-a080-327294798b15</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3937,17 +3902,17 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Revisión de la directiva de expiración de contraseñas de la organización para las cuentas usadas por la integración de Azure Files AD</t>
+          <t>Configurar las opciones de FSLogix mediante la plantilla ADMX de GPO integrada proporcionada</t>
         </is>
       </c>
       <c r="D65" s="21" t="inlineStr">
         <is>
-          <t>Como parte del procedimiento para integrar el recurso compartido de archivos de Azure y la autenticación de Active Directory, se creará una cuenta de AD para representar la cuenta de almacenamiento (recurso compartido de archivos). Puede elegir registrarse como cuenta de equipo o cuenta de inicio de sesión de servicio, consulte Preguntas frecuentes para obtener más información. Para las cuentas de equipo, hay una antigüedad de caducidad de contraseña predeterminada establecida en AD en 30 días. Del mismo modo, la cuenta de inicio de sesión del servicio puede tener una antigüedad de caducidad de contraseña predeterminada establecida en el dominio de AD o la unidad organizativa (OU). Para ambos tipos de cuenta, le recomendamos que compruebe la antigüedad de caducidad de la contraseña configurada en su entorno de AD y planee actualizar la contraseña de la identidad de la cuenta de almacenamiento de la cuenta de AD antes de la antigüedad máxima de la contraseña. Puede considerar la posibilidad de crear una nueva unidad organizativa (OU) de AD en AD y deshabilitar la directiva de caducidad de contraseñas en cuentas de equipo o cuentas de inicio de sesión de servicio en consecuencia.</t>
+          <t>Si se usan GPO de dominio de Active Directory, se recomienda configurar FSLogix mediante la plantilla ADMX de GPO integrada a la que se hace referencia en el artículo complementario de la columna "Más información"</t>
         </is>
       </c>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3958,7 +3923,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
+          <t>https://learn.microsoft.com/fslogix/how-to-use-group-policy-templates</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3966,7 +3931,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
+          <t>2226a8e3-50a4-4ac3-8bd6-ee150553051f</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3982,22 +3947,22 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Un inquilino de Azure Active Directory debe estar disponible con al menos una suscripción vinculada</t>
+          <t>Crear una cuenta de usuario dedicada con solo permisos para unir la máquina virtual al dominio</t>
         </is>
       </c>
       <c r="D66" s="21" t="inlineStr">
         <is>
-          <t>Una suscripción de Azure debe ser primaria al mismo inquilino de Azure AD, que contiene una red virtual que contiene o está conectada a la instancia de Windows Server Active Directory o Azure AD DS.</t>
+          <t>Se recomienda tener una cuenta dedicada específica con permisos mínimos y sin la limitación predeterminada de 10 uniones. Revise el artículo complementario para obtener más detalles.</t>
         </is>
       </c>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -4008,14 +3973,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#session-hosts</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
+          <t>347dc560-28a7-41ff-b1cd-15dd2f0d5e77</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -4031,22 +3996,22 @@
       </c>
       <c r="B67" s="21" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Un bosque/dominio de Windows Server Active Directory está sincronizado con Azure Active Directory</t>
+          <t>Crear un grupo de usuarios de dominio para cada conjunto de usuarios a los que se concederá acceso a cada grupo de aplicaciones del grupo de servidores host (DAG o RAG)</t>
         </is>
       </c>
       <c r="D67" s="21" t="inlineStr">
         <is>
-          <t>Puede configurarlo mediante Azure AD Connect (para organizaciones híbridas) o Servicios de dominio de Azure AD (para organizaciones híbridas o en la nube).</t>
+          <t xml:space="preserve">Evite conceder acceso por usuario, en su lugar use grupos de AD y replíquelos con el conector de Active Directory (ADC) en el identificador de Microsoft Entra (antiguo Azure AD). </t>
         </is>
       </c>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -4057,7 +4022,7 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/manage-app-groups</t>
         </is>
       </c>
       <c r="I67" s="15" t="n"/>
@@ -4065,7 +4030,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
+          <t>2d41e361-1cc5-47b4-a4b1-410d43958a8c</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -4081,22 +4046,22 @@
       </c>
       <c r="B68" s="21" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Compruebe los requisitos de la cuenta de usuario para conectarse a Windows Virtual Desktop</t>
+          <t>Revisión de la directiva de expiración de contraseñas de la organización para las cuentas usadas por la integración de Azure Files AD</t>
         </is>
       </c>
       <c r="D68" s="21" t="inlineStr">
         <is>
-          <t>(1) El usuario debe provenir del mismo Active Directory que está conectado a Azure AD. Windows Virtual Desktop no admite cuentas B2B o MSA. (2) El UPN que use para suscribirse a Windows Virtual Desktop debe existir en el dominio de Active Directory al que está unida la máquina virtual.</t>
+          <t>Si se usa la integración de Azure Files Active Directory (AD), como parte del procedimiento de configuración, se creará una cuenta de AD para representar la cuenta de almacenamiento (recurso compartido de archivos). Puede elegir registrarse como cuenta de equipo o cuenta de inicio de sesión de servicio, consulte Preguntas frecuentes para obtener más información. Para las cuentas de equipo, hay una antigüedad de caducidad de contraseña predeterminada establecida en AD en 30 días. Del mismo modo, la cuenta de inicio de sesión del servicio puede tener una antigüedad de caducidad de contraseña predeterminada establecida en el dominio de AD o la unidad organizativa (OU). Para ambos tipos de cuenta, le recomendamos que compruebe la antigüedad de caducidad de la contraseña configurada en su entorno de AD y planee actualizar la contraseña de la identidad de la cuenta de almacenamiento de la cuenta de AD antes de la antigüedad máxima de la contraseña. Puede considerar la posibilidad de crear una nueva unidad organizativa (OU) de AD en AD y deshabilitar la directiva de caducidad de contraseñas en cuentas de equipo o cuentas de inicio de sesión de servicio en consecuencia.</t>
         </is>
       </c>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -4107,7 +4072,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-identity-ad-ds-enable</t>
         </is>
       </c>
       <c r="I68" s="15" t="n"/>
@@ -4115,7 +4080,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
+          <t>2289b3d6-b57c-4fc6-9546-1e1a3e3453a3</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -4131,22 +4096,22 @@
       </c>
       <c r="B69" s="21" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Compruebe los requisitos de VM para los hosts de sesión AVD que se crearán</t>
+          <t>Un bosque/dominio de Windows Server Active Directory debe estar sincronizado con Microsoft Entra ID</t>
         </is>
       </c>
       <c r="D69" s="21" t="inlineStr">
         <is>
-          <t>Las máquinas virtuales deben estar unidas a un dominio estándar o híbridas a AD. Las máquinas virtuales no se pueden unir a Azure AD.</t>
+          <t>Puede configurarlo mediante Active Directory Connect (ADC) o Servicios de dominio de Azure AD (para organizaciones híbridas o en la nube). Microsoft Entra ID es el nuevo nombre de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4157,7 +4122,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/overview</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#identity</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -4165,7 +4130,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
+          <t>5119bf8e-8f58-4542-a7d9-cec166cd072a</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -4181,22 +4146,22 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Requisitos</t>
+          <t>Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antes de usar los Servicios de dominio de Azure Active Directory (AAD-DS) para AVD, asegúrese de revisar las limitaciones. </t>
+          <t>Configuración del recurso compartido de Azure Files para el identificador de Microsoft Entra (antiguo Azure AD) Autenticación Kerberos en el escenario unido al identificador de Microsoft Entra</t>
         </is>
       </c>
       <c r="D70" s="21" t="inlineStr">
         <is>
-          <t>Comparación de Servicios de dominio de Active Directory autoadministrados, Azure Active Directory y Servicios de dominio de Azure Active Directory administrados</t>
+          <t>Si se usa Azure Files y se pueden cumplir los requisitos previos, se recomienda configurar la autenticación Kerberos (Microsoft Entra ID). Esta configuración permitirá almacenar perfiles FSLogix a los que pueden acceder las identidades de usuario híbridas desde hosts de sesión unidos a Azure AD sin necesidad de línea de visión de red para los controladores de dominio.</t>
         </is>
       </c>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4207,7 +4172,7 @@
       <c r="G70" s="21" t="n"/>
       <c r="H70" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-identity-auth-hybrid-identities-enable</t>
         </is>
       </c>
       <c r="I70" s="15" t="n"/>
@@ -4215,7 +4180,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
+          <t>e777fd5e-c5f1-4d6e-8fa9-fc210b88e338</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -4226,27 +4191,27 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Evaluar el requisito de la capacidad de escalado automático del grupo de hosts</t>
+          <t>Un inquilino de Microsoft Entra ID debe estar disponible con al menos una suscripción vinculada</t>
         </is>
       </c>
       <c r="D71" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">La herramienta de escalado proporciona una opción de automatización de bajo costo para los clientes que desean optimizar los costos de la máquina virtual del host de sesión. Puede usar la herramienta de escalado para programar máquinas virtuales para que se inicien y detengan en función de las horas comerciales pico y fuera de pico, escalar horizontalmente máquinas virtuales en función del número de sesiones por núcleo de CPU, escalar en máquinas virtuales durante las horas de menor actividad, dejando en ejecución el número mínimo de máquinas virtuales host de sesión. Aún no está disponible para el tipo de grupo de hosts personales, se recomienda tener una configuración independiente para cada grupo de hosts. </t>
+          <t>Una suscripción de Azure debe estar vinculada al mismo inquilino de Microsoft Entra ID (antiguo Azure AD), que contiene una red virtual que contiene o está conectada a la instancia de Servicios de dominio de Windows Server Active Directory o Servicios de dominio de Microsoft Entra ID.</t>
         </is>
       </c>
       <c r="E71" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4257,7 +4222,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-scaling-script</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#identity</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -4265,7 +4230,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
+          <t>6ceb5443-5125-4922-9442-93bb628537a5</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -4276,27 +4241,27 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Comprobar periódicamente las recomendaciones de Azure Advisor para AVD</t>
+          <t>Revisar y documentar el escenario de identidad</t>
         </is>
       </c>
       <c r="D72" s="21" t="inlineStr">
         <is>
-          <t>Azure Advisor analiza las configuraciones y la telemetría para ofrecer recomendaciones personalizadas para resolver problemas comunes. Con estas recomendaciones, puede optimizar sus recursos de Azure para ofrecer confiabilidad, seguridad, excelencia operativa, rendimiento y costo.</t>
+          <t>Azure Virtual Desktop admite diferentes tipos de identidades en función de la configuración que elija. Revise los escenarios admitidos mencionados en el artículo "Más información" y documente la decisión de diseño en consecuencia en la columna "Comentario". Críticamente, las identidades externas (B2B o B2C) no son compatibles. Asegúrese de revisar también la lista de escenarios admitidos en https://learn.microsoft.com/en-us/azure/virtual-desktop/prerequisites?tabs=portal#supported-identity-scenarios.</t>
         </is>
       </c>
       <c r="E72" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4307,7 +4272,7 @@
       <c r="G72" s="21" t="n"/>
       <c r="H72" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-advisor</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/authentication</t>
         </is>
       </c>
       <c r="I72" s="15" t="n"/>
@@ -4315,7 +4280,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
+          <t>b4ce4781-7557-4a1f-8043-332ae199d44c</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4326,22 +4291,22 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Planeación de una estrategia de administración de actualizaciones de imágenes doradas</t>
+          <t>Evaluar los tipos y requisitos de la cuenta de usuario</t>
         </is>
       </c>
       <c r="D73" s="21" t="inlineStr">
         <is>
-          <t>Prepare una estrategia para administrar las actualizaciones de las imágenes doradas, por ejemplo, para aplicar revisiones de seguridad y/o actualizar las aplicaciones instaladas dentro de la imagen. Azure Image Builder Service es una solución de 1ª parte para automatizar la compilación y personalización de máquinas virtuales.Las plantillas ARM se pueden usar para crear nuevos hosts y, a continuación, retirar los antiguos: https://github.com/Azure/RDS-Templates/tree/master/ARM-AVD-templates/AddVirtualMachinesToHostPool El enfoque recomendado es crear un nuevo grupo en paralelo, más fácil de revertir, no utilizable para un grupo dedicadoRe-implementar y aumentar el número de máquinas virtuales con la plantilla ARM también es una opción viable. Los clientes también pueden querer utilizar los métodos de distribución de software existentes para actualizar la imagen sin volver a implementarla, por ejemplo, con SCCM o similar.</t>
+          <t>Los usuarios necesitan cuentas que estén en Microsoft Entra ID (antiguo Azure AD). Si también usa AD DS o Servicios de dominio de Azure AD en la implementación de Azure Virtual Desktop, estas cuentas deberán ser identidades híbridas, lo que significa que las cuentas de usuario están sincronizadas. Si usa el identificador de Microsoft Entra con AD DS, deberá configurar Azure AD Connect para sincronizar los datos de identidad de usuario entre AD DS y el identificador de Microsoft entra. Si usa el identificador de Microsoft Entra con los Servicios de dominio de Azure AD, las cuentas de usuario se sincronizan de una manera desde el identificador de Microsoft Entra a los Servicios de dominio de Azure AD. Este proceso de sincronización es automático. AVD también admite cuentas nativas de Microsoft Entra ID con algunas restricciones. No se admiten identidades externas (B2B o B2C).</t>
         </is>
       </c>
       <c r="E73" s="21" t="inlineStr">
@@ -4357,7 +4322,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#supported-identity-scenarios</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4365,7 +4330,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>d7b68d0c-7555-462f-8b3e-4563b4d874a7</t>
+          <t>f9b141a8-98a5-435e-9378-97e71ca7da7b</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4376,22 +4341,22 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Planeación de una estrategia de actualización y revisión del host de sesión</t>
+          <t>Si el inicio de sesión único (SSO) es un requisito, revise los escenarios admitidos y los requisitos previos</t>
         </is>
       </c>
       <c r="D74" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los clientes pueden tener varias opciones:- Microsoft Endpoint Configuration Manager, este artículo explica cómo configurar Microsoft Endpoint Configuration Manager para aplicar automáticamente actualizaciones a un host de Windows Virtual Desktop que ejecuta Windows 10 Enterprise multisesión: https://docs.microsoft.com/azure/virtual-desktop/configure-automatic-updates- Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session- Windows Server Update Services (WSUS)-  3ª Parte que admite su sistema operativo.- Azure Update Management (Azure Automation), hoy no compatible con el sistema operativo cliente: https://docs.microsoft.com/azure/automation/update-management/overview#unsupported-operating-systemsIt se recomienda alejarse de una estrategia de revisión y pasar a una estrategia de recreación de imágenes si es posible. </t>
+          <t>AVD admite SSO mediante la autenticación de Servicios de federación de Active Directory (AD FS) o Microsoft Entra ID (anteriormente Azure AD). Esto último se recomienda, consulte los requisitos y la limitación en el artículo 'Más información'. El uso de AD FS podría ser una opción viable si ya está presente en el entorno del cliente, no se recomienda implementar una nueva infraestructura de ADFS solo para la implementación de AVD SSO.</t>
         </is>
       </c>
       <c r="E74" s="21" t="inlineStr">
@@ -4407,7 +4372,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/windows/image-builder-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/authentication#single-sign-on-sso</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4415,7 +4380,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
+          <t>5f9f680a-ba07-4429-bbf7-93d7071561f4</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4426,27 +4391,27 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Evaluar el requisito de un entorno canario de prueba AVD</t>
+          <t>Seleccione el tipo de unión al dominio de host de sesión AVD adecuado</t>
         </is>
       </c>
       <c r="D75" s="21" t="inlineStr">
         <is>
-          <t>Los grupos de servidores host son una colección de una o más máquinas virtuales idénticas dentro del entorno de Windows Virtual Desktop. Se recomienda encarecidamente crear un grupo de hosts de validación donde se apliquen primero las actualizaciones de servicio. Esto le permite supervisar las actualizaciones del servicio antes de que el servicio las aplique a su entorno estándar o de no validación.</t>
+          <t>Las máquinas virtuales pueden estar unidas a un dominio de Windows Active Directory (AD), a AD híbridas, a Microsoft Entra ID (anteriormente Azure AD) unidas o a los Servicios de dominio de Azure AD. Asegúrese de revisar los escenarios admitidos, las limitaciones y los requisitos del artículo al que se hace referencia.</t>
         </is>
       </c>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4457,7 +4422,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#supported-identity-scenarios</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4465,7 +4430,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
+          <t>ea962a15-9394-46da-a7cc-3923266b2258</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4476,27 +4441,27 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Identidad</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Administración</t>
+          <t>Requisitos</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Determinación de la estrategia de implementación del grupo de hosts</t>
+          <t>Antes de usar Servicios de dominio de Azure AD (AAD-D) para AVD, asegúrese de revisar las limitaciones.</t>
         </is>
       </c>
       <c r="D76" s="21" t="inlineStr">
         <is>
-          <t>Un grupo de hosts AVD se puede implementar de varias maneras: Portal de Azure, plantillas de ARM, herramienta CLI de Azure, PowerShell, creación manual de máquinas virtuales con token de registro, Terraform, etc. Es importante adoptar método(s) adecuados/s para soportar la implementación automática a través de herramientas de automatización y CI/CD.</t>
+          <t>Comparar los Servicios de dominio de Windows Active Directory autoadministrados, el identificador de Microsoft Entra (anteriormente Azure AD) y los Servicios de dominio de Azure AD administrados (AAD-DS)</t>
         </is>
       </c>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4507,7 +4472,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/RDS-Templates/tree/master/AVD-templates</t>
+          <t>https://docs.microsoft.com/azure/active-directory-domain-services/compare-identity-solutions</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4515,7 +4480,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
+          <t>6f4a1651-bddd-4ea8-a487-cdeb4861bc3b</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4536,17 +4501,17 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Activar máquinas virtuales regularmente cada 90 días para la actualización de tokens</t>
+          <t>Usar plantillas administrativas integradas para la configuración de AVD</t>
         </is>
       </c>
       <c r="D77" s="21" t="inlineStr">
         <is>
-          <t>Después de registrar una máquina virtual en un grupo de hosts dentro del servicio Windows Virtual Desktop, el agente actualiza regularmente el token de la máquina virtual siempre que la máquina virtual está activa. El certificado para el token de registro es válido durante 90 días. Debido a este límite de 90 días, recomendamos que las máquinas virtuales estén en línea durante 20 minutos cada 90 días para que la máquina pueda actualizar sus tokens y actualizar el agente y los componentes de la pila en paralelo.</t>
+          <t>AVD proporciona plantillas administrativas para Intune y GPO de Active Directory. Usando estas plantillas es posible controlar centralmente varios ajustes de configuración de AVD: Registro de datos relacionados con gráficos, Protección de captura de pantalla, Shortpath RDP para redes administradas, Marca de agua. Consulte el artículo complementario en la columna 'Más información' para obtener más detalles. NOTA: FSLogix tiene su propia plantilla separada.</t>
         </is>
       </c>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4557,7 +4522,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/administrative-template</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4565,7 +4530,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
+          <t>5549524b-36c0-4f1a-892b-ab3ca78f5db2</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4581,22 +4546,22 @@
       </c>
       <c r="B78" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Habilitación de la supervisión de Azure para AVD</t>
+          <t>Planeación de la estrategia de administración de configuración de AVD Session Hosts</t>
         </is>
       </c>
       <c r="D78" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor para Windows Virtual Desktop es un panel basado en libros de Azure Monitor que ayuda a los profesionales de TI a comprender sus entornos de Windows Virtual Desktop. Lea el artículo al que se hace referencia para obtener información sobre cómo configurar Azure Monitor para Windows Virtual Desktop para supervisar los entornos de Windows Virtual Desktop.</t>
+          <t>Determine si ya existe una herramienta de administración de configuración para administrar la configuración de la máquina virtual del grupo de hosts después de la implementación inicial, por ejemplo, SCCM/SCOM, Intune/ConfigurationManager, soluciones de 3rd-party.</t>
         </is>
       </c>
       <c r="E78" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4607,7 +4572,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/azure-monitor</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/management</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4615,7 +4580,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
+          <t>3334fdf9-1c23-4418-8b65-285269440b4b</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4631,17 +4596,17 @@
       </c>
       <c r="B79" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Habilitar y redirigir la configuración de diagnóstico para áreas de trabajo, grupos de hosts, grupos de aplicaciones y máquinas virtuales host al área de trabajo de Log Analytics</t>
+          <t>Evaluar Intune para la administración de hosts de sesión AVD</t>
         </is>
       </c>
       <c r="D79" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Windows Virtual Desktop usa Azure Monitor y Log Analytics para la supervisión y las alertas como muchos otros servicios de Azure. Esto permite a los administradores identificar problemas a través de una única interfaz. El servicio crea registros de actividad para las acciones administrativas y de usuario.  Cada registro de actividad se divide en las siguientes categorías: Administración, Fuente, Conexiones, Registro de host, Errores, Puntos de control. </t>
+          <t>Se recomienda usar Microsoft Intune, si se pueden cumplir los requisitos, para administrar el entorno de Azure Virtual Desktop. Revise los escenarios y requisitos admitidos para habilitar Intune para la administración de hosts de sesión AVD en el artículo al que se hace referencia en la columna "Más información". Documente su elección en la columna 'Comentario'. En ese artículo, revise los diferentes requisitos y capacidades para https://learn.microsoft.com/en-us/mem/intune/fundamentals/windows-virtual-desktop de sesión única y https://learn.microsoft.com/en-us/mem/intune/fundamentals/windows-virtual-desktop-multi-session de sesión múltiple AVD.</t>
         </is>
       </c>
       <c r="E79" s="21" t="inlineStr">
@@ -4657,7 +4622,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
+          <t>https://learn.microsoft.com/mem/intune/fundamentals/azure-virtual-desktop</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4665,7 +4630,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
+          <t>63a08be1-6004-4b4a-a79b-f3239faae113</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4681,17 +4646,17 @@
       </c>
       <c r="B80" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Crear alertas en el almacenamiento del perfil para recibir alertas en caso de uso elevado y limitación</t>
+          <t>Evaluar los requisitos para la capacidad de escalado automático del grupo de hosts</t>
         </is>
       </c>
       <c r="D80" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Consulte el artículo al que se hace referencia y este adicional para configurar la supervisión y las alertas adecuadas para el almacenamiento: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
+          <t>La herramienta de escalado proporciona una opción de automatización de bajo costo para los clientes que desean optimizar los costos de la máquina virtual del host de sesión. Puede usar la herramienta de escalado para programar máquinas virtuales para que se inicien y detengan en función de las horas comerciales pico y fuera de pico, escalar horizontalmente máquinas virtuales en función del número de sesiones por núcleo de CPU, escalar en máquinas virtuales durante las horas de menor actividad, dejando en ejecución el número mínimo de máquinas virtuales host de sesión. Aún no está disponible para el tipo de grupo de hosts personales.</t>
         </is>
       </c>
       <c r="E80" s="21" t="inlineStr">
@@ -4707,7 +4672,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/autoscale-scenarios</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4715,7 +4680,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
+          <t>7138b820-102c-4e16-be30-1e6e872e52e3</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4731,22 +4696,22 @@
       </c>
       <c r="B81" s="21" t="inlineStr">
         <is>
-          <t>Monitorización</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configuración del estado del servicio de Azure para alertas AVD </t>
+          <t>Considere el uso de Start VM on Connect for Personal Host Pools</t>
         </is>
       </c>
       <c r="D81" s="21" t="inlineStr">
         <is>
-          <t>Puede usar Azure Service Health para supervisar problemas de servicio y avisos de mantenimiento para Windows Virtual Desktop. Azure Service Health puede notificarle con diferentes tipos de alertas (por ejemplo, correo electrónico o SMS), ayudarle a comprender el efecto de un problema y mantenerle actualizado a medida que se resuelve el problema.</t>
+          <t>Start VM On Connect le permite reducir los costos al permitir que los usuarios finales enciendan sus máquinas virtuales (VM) host de sesión solo cuando las necesiten. A continuación, puede desactivar las máquinas virtuales cuando no sean necesarias. Puede configurar Start VM on Connect para grupos de hosts personales o agrupados mediante Azure Portal o PowerShell. Iniciar máquina virtual al conectar es una configuración de todo el grupo de hosts.</t>
         </is>
       </c>
       <c r="E81" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4757,7 +4722,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/start-virtual-machine-connect</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4765,7 +4730,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
+          <t>55f612fe-f215-4f0d-a956-10e7dd96bcbc</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4776,27 +4741,27 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Revisar la arquitectura de conectividad híbrida para el entorno local</t>
+          <t>Evaluar la implementación de un mecanismo ad-hoc para cerrar los hosts de sesión de Personal AVD</t>
         </is>
       </c>
       <c r="D82" s="21" t="inlineStr">
         <is>
-          <t>¿Qué tipo de conectividad híbrida? ¿Ruta Express, VPN, NVA?</t>
+          <t>'Start VM On Connect' proporciona una forma inteligente de iniciar automáticamente hosts de sesión previamente detenidos, pero no proporciona un mecanismo para apagar cuando no se usa. Se recomienda a los administradores que configuren directivas adicionales para cerrar la sesión de los usuarios en sus sesiones y ejecutar scripts de automatización de Azure para desasignar máquinas virtuales. No se debe permitir que los usuarios cierren sus hosts personales, ya que no podrán desasignar máquinas virtuales de Azure, por lo que la facturación seguirá activa sin reducción de costos.</t>
         </is>
       </c>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4807,7 +4772,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/start-virtual-machine-connect-faq#are-vms-automatically-deallocated-when-a-user-stops-using-them</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4815,7 +4780,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
+          <t>79a686ea-d971-4ea0-a9a8-1aea074c94cb</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4826,27 +4791,27 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Evaluar qué recursos necesitarán los usuarios para acceder desde grupos de hosts AVD a las instalaciones</t>
+          <t>Revisar y adoptar las etiquetas de Azure sugeridas para Azure Virtual Desktop</t>
         </is>
       </c>
       <c r="D83" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evalúe los requisitos de ancho de banda, asegúrese de que el ancho de banda VPN/ER sea suficiente y que la latencia sea tolerable. </t>
+          <t xml:space="preserve">La facturación de Azure Virtual Desktop se basa principalmente en el costo asociado a los recursos de proceso, redes y almacenamiento consumidos por los grupos de hosts. Además de esto, los costos pueden ser generados por recursos dependientes, por ejemplo, VPN o ExpressRoute o vWAN, controladores de dominio de Active Directory, DNS, etc. No hay ningún costo directo asociado a objetos AVD como espacios de trabajo, grupos de hosts o grupos de aplicaciones. Para que los costos asociados a AVD sean más evidentes y agrupados por grupo de hosts, se recomienda usar la etiqueta 'cm-resource-parent'. </t>
         </is>
       </c>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4857,7 +4822,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/tag-virtual-desktop-resources</t>
         </is>
       </c>
       <c r="I83" s="15" t="n"/>
@@ -4865,7 +4830,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
+          <t>51bcafca-476a-48fa-9b91-9645a7679f20</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4876,27 +4841,27 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Revisar la topología de red de la zona de aterrizaje para el servicio AVD</t>
+          <t>Comprobar periódicamente las recomendaciones de Azure Advisor para AVD</t>
         </is>
       </c>
       <c r="D84" s="21" t="inlineStr">
         <is>
-          <t>Revise o recomiende uno nuevo donde colocar grupos de hosts AVD basados en CAF (vWAN vs. Hub &amp; Spoke)</t>
+          <t>Azure Advisor analiza las configuraciones y la telemetría para ofrecer recomendaciones personalizadas para resolver problemas comunes. Con estas recomendaciones, puede optimizar sus recursos de Azure para ofrecer confiabilidad, seguridad, excelencia operativa, rendimiento y costo.</t>
         </is>
       </c>
       <c r="E84" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4907,7 +4872,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/considerations/networking-options</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/azure-advisor-recommendations</t>
         </is>
       </c>
       <c r="I84" s="15" t="n"/>
@@ -4915,7 +4880,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>f42c78e7-8c06-4a63-a21a-4956e6a8dc4a</t>
+          <t>611dd68c-5a4b-4252-8e44-a59a9c2399c4</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4926,22 +4891,22 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Evaluación de la ubicación de redes virtuales y subredes para varios grupos de servidores host</t>
+          <t>Planeación de una estrategia de actualización y revisión de emergencia del host de sesión</t>
         </is>
       </c>
       <c r="D85" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que cada subred tenga suficiente espacio para escalar el grupo de hosts AVD. Para diferentes grupos de hosts, se recomienda usar subredes independientes si es posible. </t>
+          <t>Los clientes tienen varias opciones: Microsoft Configuration Manager, en este artículo se explica cómo aplicar automáticamente actualizaciones a hosts de sesión de Azure Virtual Desktop que ejecutan Windows 10/11: https://learn.microsoft.com/en-us/azure/virtual-desktop/configure-automatic-updates, Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session, Azure Update Management y WSUS solo para SO de servidor Windows (SO cliente no compatible:  https://learn.microsoft.com/en-us/azure/automation/update-management/operating-system-requirements), herramientas del 3er Partido. Fuera de una situación de parches de seguridad de emergencia, se recomienda alejarse de una estrategia de parches de actualización "in situ" y adoptar un enfoque de regeneración de imágenes.</t>
         </is>
       </c>
       <c r="E85" s="21" t="inlineStr">
@@ -4957,7 +4922,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/mem/intune/fundamentals/azure-virtual-desktop-multi-session</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4965,7 +4930,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>20e27b3e-2971-41b1-952b-eee079b588de</t>
+          <t>04722da2-9c2b-41cd-922f-54b29bade3aa</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4976,27 +4941,27 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">¿Necesita controlar/restringir el tráfico saliente de Internet para los hosts AVD? </t>
+          <t>Configurar la función Actualizaciones programadas del agente</t>
         </is>
       </c>
       <c r="D86" s="21" t="inlineStr">
         <is>
-          <t>Hay varias opciones disponibles. Puede usar Azure Firewall o NVA Firewall, NSG y/o Proxy. NSG no puede habilitar/deshabilitar por URL, solo puertos y protocolos. El proxy debe usarse solo como configuración explícita en el navegador del usuario. Los detalles sobre el uso de Azure Firewall Premium con AVD están aquí en https://aka.ms/AVDfirewall y aquí https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop. Asegúrese de revisar la lista completa de requisitos para el acceso a las URL de AVD.</t>
+          <t>La función Actualizaciones programadas del agente le permite crear hasta dos ventanas de mantenimiento por grupo de hosts para actualizar los componentes de AVD en un momento conveniente. Se recomienda especificar ventanas de mantenimiento y luego no se realizará la actualización de los hosts de sesión durante las horas pico de trabajo. Las actualizaciones programadas del agente están deshabilitadas de forma predeterminada. Esto significa que, a menos que habilite esta configuración, el agente puede ser actualizado en cualquier momento por el servicio de vuelo de actualización del agente.</t>
         </is>
       </c>
       <c r="E86" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -5007,7 +4972,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://aka.ms/AVDfirewall</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/scheduled-agent-updates</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -5015,7 +4980,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
+          <t>c067939b-e5ca-4698-b9ce-3bd91843e73f</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -5026,22 +4991,22 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">¿Necesita controlar/restringir el tráfico saliente de Internet solo para usuarios en hosts AVD? </t>
+          <t>Crear un grupo de hosts de validación (canario)</t>
         </is>
       </c>
       <c r="D87" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tenga en cuenta el uso de Azure Defender Endpoint para controlar la navegación web del usuario, consulte la sección Seguridad para obtener más detalles. </t>
+          <t>Los grupos de servidores host son una colección de una o varias máquinas virtuales idénticas dentro del entorno de Azure Virtual Desktop. Se recomienda encarecidamente crear un grupo de hosts de validación donde se apliquen primero las actualizaciones de servicio. Esto le permite supervisar las actualizaciones del servicio antes de que el servicio las aplique a su entorno estándar o de no validación.</t>
         </is>
       </c>
       <c r="E87" s="21" t="inlineStr">
@@ -5057,7 +5022,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/create-validation-host-pool</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -5065,7 +5030,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
+          <t>d1e8c38e-c936-4667-913c-005674b1e944</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -5076,27 +5041,27 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Revisar UDR para la subred del grupo de hosts AVD</t>
+          <t>Determinación de la estrategia de implementación del grupo de hosts</t>
         </is>
       </c>
       <c r="D88" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">UDR personalizado se puede aplicar a la subred del grupo de hosts de AVD, por ejemplo, para redirigir a Azure Firewall o NVA. En este caso se recomienda revisar cuidadosamente para asegurarse de que se utiliza la ruta óptima para el tráfico saliente al plano de control AVD. Las etiquetas de servicio ahora se pueden usar con UDR, luego el tráfico del plano de administración de AVD se puede incluir fácilmente en la lista blanca. https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop#host-pool-outbound-access-to-windows-virtual-desktop </t>
+          <t>Un grupo de hosts AVD se puede implementar de varias maneras: Portal de Azure, plantillas de ARM, herramienta CLI de Azure, PowerShell, creación manual de máquinas virtuales con token de registro, Terraform, herramientas de 3rd-party. Es importante adoptar método(s) adecuados/s para soportar la implementación automática a través de herramientas de automatización y CI/CD.</t>
         </is>
       </c>
       <c r="E88" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5107,7 +5072,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/wvd/eslz-platform-automation-and-devops</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -5115,7 +5080,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
+          <t>a459c373-e7ed-4616-83b3-65a917ecbe48</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -5126,27 +5091,27 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los puntos finales del plano de control AVD sean accesibles</t>
+          <t>Activar las máquinas virtuales host de sesión al menos cada 90 días para la actualización de tokens</t>
         </is>
       </c>
       <c r="D89" s="21" t="inlineStr">
         <is>
-          <t>Las URL necesarias para el acceso al plano de control AVD por parte de los hosts de sesión se documentan aquí: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. Hay disponible una herramienta de comprobación para verificar la conectividad de los hosts de sesión: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool.</t>
+          <t>Después de registrar una máquina virtual en un grupo de hosts dentro del servicio Azure Virtual Desktop, el agente actualiza periódicamente el token de la máquina virtual siempre que la máquina virtual está activa. El certificado para el token de registro es válido durante 90 días. Debido a este límite de 90 días, recomendamos que las máquinas virtuales estén en línea durante 20 minutos cada 90 días para que la máquina pueda actualizar sus tokens y actualizar el agente y los componentes de la pila en paralelo.</t>
         </is>
       </c>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5157,7 +5122,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/faq</t>
         </is>
       </c>
       <c r="I89" s="15" t="n"/>
@@ -5165,7 +5130,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
+          <t>ebe54cd7-df2e-48bb-ac35-81559bb9153e</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -5176,27 +5141,27 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Compruebe el ancho de banda de red necesario para cada usuario y, en total, para la SKU de máquina virtual</t>
+          <t>Habilitar la supervisión para AVD</t>
         </is>
       </c>
       <c r="D90" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda evaluar y revisar los requisitos de ancho de banda de red para los usuarios, en función del tipo de carga de trabajo específico. El artículo al que se hace referencia proporciona estimaciones y recomendaciones generales, pero se requieren medidas específicas para un tamaño adecuado. </t>
+          <t>Azure Virtual Desktop Insights es un panel basado en libros de Azure Monitor que ayuda a los profesionales de TI a comprender sus entornos de Azure Virtual Desktop. Lea el artículo al que se hace referencia para obtener información sobre cómo configurar Azure Monitor para Azure Virtual Desktop para supervisar los entornos AVD.</t>
         </is>
       </c>
       <c r="E90" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5207,7 +5172,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/windows-server/remote/remote-desktop-services/network-guidance</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/insights</t>
         </is>
       </c>
       <c r="I90" s="15" t="n"/>
@@ -5215,7 +5180,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
+          <t>63cfff1c-ac59-49ef-8d5a-83dd4de36c1c</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -5226,22 +5191,22 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asegúrese de que los usuarios de AVD no tengan privilegios de administrador local en los hosts AVD. </t>
+          <t>Habilitar la configuración de diagnóstico para áreas de trabajo, grupos de hosts, grupos de aplicaciones y máquinas virtuales host en el área de trabajo de Log Analytics</t>
         </is>
       </c>
       <c r="D91" s="21" t="inlineStr">
         <is>
-          <t>Le recomendamos que no conceda a los usuarios acceso de administrador a escritorios virtuales. Si necesita paquetes de software, le recomendamos que los ponga a disposición a través de utilidades de administración de configuración como Microsoft Endpoint Manager. En un entorno multisesión, le recomendamos que no permita que los usuarios instalen software directamente.</t>
+          <t xml:space="preserve">Azure Virtual Desktop usa Azure Monitor y Log Analytics para la supervisión y las alertas como muchos otros servicios de Azure. Esto permite a los administradores identificar problemas a través de una única interfaz. El servicio crea registros de actividad para las acciones administrativas y de usuario.  Cada registro de actividad se divide en las siguientes categorías: Administración, Fuente, Conexiones, Registro de host, Errores, Puntos de control. </t>
         </is>
       </c>
       <c r="E91" s="21" t="inlineStr">
@@ -5257,7 +5222,7 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/diagnostics-log-analytics</t>
         </is>
       </c>
       <c r="I91" s="15" t="n"/>
@@ -5265,7 +5230,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
+          <t>81770afb-c4c0-4e43-a186-58d2857ed671</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -5276,27 +5241,27 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que se utiliza una solución antivirus y antimalware</t>
+          <t>Crear alertas en el almacenamiento del perfil para recibir alertas en caso de uso elevado y limitación</t>
         </is>
       </c>
       <c r="D92" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender para Endpoint ahora admite Windows Virtual Desktop para Windows 10 Enterprise multisesión. Consulte el artículo para la incorporación de dispositivos de infraestructura de escritorio virtual (VDI) no persistentes: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
+          <t xml:space="preserve">Consulte el artículo al que se hace referencia y este adicional para configurar la supervisión y las alertas adecuadas para el almacenamiento: https://docs.microsoft.com/azure/storage/files/storage-troubleshooting-files-performance. </t>
         </is>
       </c>
       <c r="E92" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5307,7 +5272,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/storage/files/storage-files-monitoring?tabs=azure-portal</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -5315,7 +5280,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
+          <t>2463cffe-179c-4599-be0d-5973dd4ce32c</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -5326,27 +5291,27 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Monitorización</t>
         </is>
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las exclusiones AV adecuadas estén en su lugar</t>
+          <t xml:space="preserve">Configuración del estado del servicio de Azure para alertas AVD </t>
         </is>
       </c>
       <c r="D93" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que las siguientes exclusiones estén en su lugar: https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix#antivirus-exclusions .</t>
+          <t>Puede usar Azure Service Health para supervisar problemas de servicio y avisos de mantenimiento para Azure Virtual Desktop. Azure Service Health puede notificarle con diferentes tipos de alertas (por ejemplo, correo electrónico o SMS), ayudarle a comprender el efecto de un problema y mantenerle actualizado a medida que se resuelve el problema.</t>
         </is>
       </c>
       <c r="E93" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5357,7 +5322,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-service-alerts</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -5365,7 +5330,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>80b12308-1a54-4174-8583-3ea3ad2c2de7</t>
+          <t>18813706-f7c4-4c0d-9e51-4548d2457ed6</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5376,27 +5341,27 @@
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Evaluar los requisitos de cifrado de disco para hosts AVD</t>
+          <t>Determinar si se requiere conectividad híbrida para conectarse al entorno local</t>
         </is>
       </c>
       <c r="D94" s="21" t="inlineStr">
         <is>
-          <t>Los discos de Azure ya están cifrados en reposo de forma predeterminada con claves administradas por Microsoft. El cifrado de disco del sistema operativo de la máquina virtual host es posible y compatible con ADE y DES: los datos de usuario sensibles y peristentes no deben almacenarse en el disco host de sesión, entonces deben usarse solo si es estrictamente necesario por razones de cumplimiento. El cifrado del almacenamiento FSLogix mediante Azure Files se puede realizar mediante SSE en Azure Storage.Para el cifrado de OneDrive, consulte este artículo: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
+          <t xml:space="preserve">Si es necesario conectarse al entorno local, evalúe la opción de conectividad actual o planee la conectividad necesaria (ExpressRoute, Azure S2S o VPN NVA de terceros). </t>
         </is>
       </c>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5407,7 +5372,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I94" s="15" t="n"/>
@@ -5415,7 +5380,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
+          <t>dd399cfd-7b28-4dc8-9555-6202bfe4563b</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5426,22 +5391,22 @@
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B95" s="21" t="inlineStr">
         <is>
-          <t>Configuración del host</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>¿Necesita controlar/restringir la navegación del usuario por Internet desde los hosts de sesión AVD?</t>
+          <t>Determinación de la ubicación de la red virtual de Azure (VNet) para cada grupo de hosts AVD</t>
         </is>
       </c>
       <c r="D95" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Considere el uso de Azure Defender Endpoint para controlar la navegación web del usuario. </t>
+          <t>Los grupos de hosts AVD se pueden implementar en Azure Virtual WAN o en topologías de red tradicionales 'Hub &amp; Spoke'. Se recomienda implementar cada grupo de hosts en una red virtual "radial" independiente, no se recomienda usar 'hub'.</t>
         </is>
       </c>
       <c r="E95" s="21" t="inlineStr">
@@ -5457,7 +5422,7 @@
       <c r="G95" s="21" t="n"/>
       <c r="H95" s="15" t="inlineStr">
         <is>
-          <t>https://techcommunity.microsoft.com/t5/microsoft-defender-for-endpoint/windows-virtual-desktop-support-is-now-generally-available/ba-p/2103712</t>
+          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/scenarios/wvd/eslz-network-topology-and-connectivity</t>
         </is>
       </c>
       <c r="I95" s="15" t="n"/>
@@ -5465,7 +5430,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
+          <t>c8639648-a652-4d6c-85e5-02965388e5de</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5476,22 +5441,22 @@
     <row r="96" ht="16.5" customHeight="1">
       <c r="A96" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B96" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Evaluación del uso de Azure Security Center (ASC) para hosts de sesión AVD</t>
+          <t>Evaluar qué recursos locales se requieren de los grupos de hosts AVD</t>
         </is>
       </c>
       <c r="D96" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda habilitar Azure Security Center Standard para suscripciones, máquinas virtuales, almacenes de claves y cuentas de almacenamiento. Con Azure Security Center Standard es posible evaluar y administrar vulnerabilidades, evaluar el cumplimiento de marcos comunes como PCI, fortalecer la seguridad general de su entorno AVD.</t>
+          <t xml:space="preserve">Evalúe los requisitos de ancho de banda, asegúrese de que el ancho de banda VPN / ER sea suficiente, asegúrese de que se implementen las reglas de enrutamiento y firewall adecuadas, pruebe la latencia de extremo a extremo. </t>
         </is>
       </c>
       <c r="E96" s="21" t="inlineStr">
@@ -5507,7 +5472,7 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/</t>
         </is>
       </c>
       <c r="I96" s="15" t="n"/>
@@ -5515,7 +5480,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
+          <t>d227dd14-2b06-4c21-a799-9a646f4389a7</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5526,22 +5491,22 @@
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B97" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Revisar los GPO de Active Directory para proteger las sesiones RDP</t>
+          <t>¿Necesita controlar/restringir el tráfico saliente de Internet para los hosts AVD?</t>
         </is>
       </c>
       <c r="D97" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Debe utilizarse, por ejemplo, para imponer el bloqueo del escritorio y la terminación de la sesión inactiva. Los GPO existentes aplicados al entorno local deben revisarse y, finalmente, aplicarse para proteger también los hosts AVD. </t>
+          <t>Hay varias opciones disponibles. Puede usar Azure Firewall o servidores NVA, grupo de seguridad de red (NSG) o proxy equivalentes de 3ª parte. NSG no puede habilitar/deshabilitar por URL, solo puertos y protocolos. El proxy debe usarse solo como configuración explícita en el navegador del usuario. Los detalles sobre el uso de Azure Firewall Premium con AVD se indican en el artículo complementario de la columna "Más información". Asegúrese de permitir el acceso adecuado a las URL AVD requeridas. No se recomienda la tunelización forzada a las instalaciones.</t>
         </is>
       </c>
       <c r="E97" s="21" t="inlineStr">
@@ -5557,7 +5522,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t xml:space="preserve"> https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I97" s="15" t="n"/>
@@ -5565,7 +5530,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
+          <t>fc4972cd-3cd2-41bf-9703-6e5e6b4bed3d</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5576,27 +5541,27 @@
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B98" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Evaluar el uso de MFA para usuarios de AVD</t>
+          <t>Asegúrese de que los puntos finales del plano de control AVD sean accesibles</t>
         </is>
       </c>
       <c r="D98" s="21" t="inlineStr">
         <is>
-          <t>Para obtener detalles e información adicionales, consulte este artículo: https://christiaanbrinkhoff.com/2020/03/23/learn-how-to-increase-the-security-level-of-your-windows-virtual-desktop-environment-e-g-windows-client-with-azure-mfa-and-conditional-access</t>
+          <t>Las URL necesarias para el acceso al plano de control AVD por parte de los hosts de sesión se documentan aquí: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. Hay disponible una herramienta de comprobación para verificar la conectividad de los hosts de sesión: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool. No se recomienda la tunelización forzada a las instalaciones.</t>
         </is>
       </c>
       <c r="E98" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5607,7 +5572,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/safe-url-list</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5615,7 +5580,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
+          <t>65c7acbe-45bb-4e60-ad89-f2e87778424d</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5626,27 +5591,27 @@
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B99" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Evaluar el uso del acceso condicional para los usuarios</t>
+          <t xml:space="preserve">¿Necesita controlar/restringir el tráfico saliente de Internet solo para usuarios en hosts AVD? </t>
         </is>
       </c>
       <c r="D99" s="21" t="inlineStr">
         <is>
-          <t>La habilitación del acceso condicional le permite administrar los riesgos antes de conceder a los usuarios acceso a su entorno de Windows Virtual Desktop. Al decidir a qué usuarios conceder acceso, le recomendamos que también tenga en cuenta quién es el usuario, cómo inicia sesión y qué dispositivo está usando.</t>
+          <t>Tenga en cuenta el uso de Azure Defender Endpoint o agentes similares de 3rd party para controlar la navegación web del usuario, consulte la sección Seguridad para obtener más detalles.</t>
         </is>
       </c>
       <c r="E99" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5657,7 +5622,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/onboard-windows-multi-session-device?view=o365-worldwide</t>
         </is>
       </c>
       <c r="I99" s="15" t="n"/>
@@ -5665,7 +5630,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>556246b4-3856-44b4-bc74-a748b6633ad2</t>
+          <t>73676ae4-6691-4e88-95ad-a42223e13810</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5676,27 +5641,27 @@
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B100" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Habilitar el registro de diagnóstico y auditoría en el área de trabajo central de Log Analytics</t>
+          <t>Revisar UDR y NSG personalizados para subredes de grupos de hosts AVD</t>
         </is>
       </c>
       <c r="D100" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habilitar la recopilación de registros de auditoría le permite ver la actividad de usuarios y administradores relacionada con Windows Virtual Desktop. Este es también un requisito para eanble y utilizar la herramienta de monitoreo AVD. Muy recomendable para habilitar. </t>
+          <t>UDR y NSG personalizados se pueden aplicar a subredes del grupo de hosts AVD, por ejemplo, para redirigir a Azure Firewall o NVA, o para filtrar o bloquear el tráfico de red. En este caso se recomienda revisar cuidadosamente para asegurarse de que se utiliza la ruta óptima para el tráfico saliente al plano de control AVD. Las etiquetas de servicio ahora se pueden usar con UDR y NSG, luego el tráfico del plano de administración AVD se puede permitir fácilmente: https://learn.microsoft.com/en-us/azure/virtual-desktop/safe-url-list.</t>
         </is>
       </c>
       <c r="E100" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5707,7 +5672,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I100" s="15" t="n"/>
@@ -5715,7 +5680,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
+          <t>523181a9-4174-4158-93ff-7ae7c6d37431</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5726,27 +5691,27 @@
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evaluar el requisito de usar roles RBAC personalizados para la administración de AVD </t>
+          <t>No utilice servidores proxy, terminación SSL e inspección profunda de paquetes para el tráfico del plano de control AVD</t>
         </is>
       </c>
       <c r="D101" s="21" t="inlineStr">
         <is>
-          <t>AVD usa controles de acceso basados en rol (RBAC) de Azure para asignar roles a usuarios y administradores. Estos roles dan permiso a los administradores para llevar a cabo ciertas tareas. Si se requiere separación de tareas, Windows Virtual Desktop tiene funciones adicionales que permiten separar las funciones de administración para grupos host, grupos de aplicaciones y áreas de trabajo. Esta separación le permite tener un control más granular sobre las tareas administrativas. Estos roles se denominan de conformidad con los roles estándar y la metodología de privilegios mínimos de Azure.</t>
+          <t>El tráfico de red desde las máquinas virtuales host de sesión AVD al plano de control AVD debe ser lo más directo posible. Redirigir este tráfico a través de un proxy o firewall con inspección profunda de paquetes y / o terminación SSL podría causar problemas graves y una mala experiencia del cliente. Se recomienda omitir Proxy y Firewall solo para el plano de control AVD. El tráfico generado por el usuario que navega por la web en su lugar, debe ser filtrado por el Firewall y / o redirigido a un Proxy. Para obtener detalles y directrices, consulte el artículo complementario en la columna "Más información".</t>
         </is>
       </c>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5757,7 +5722,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/proxy-server-support</t>
         </is>
       </c>
       <c r="I101" s="15" t="n"/>
@@ -5765,7 +5730,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
+          <t>cc6edca0-aeca-4566-9e92-cf246f1465af</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5776,27 +5741,27 @@
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B102" s="21" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Revisar todas las prácticas recomendadas de seguridad para el entorno AVD</t>
+          <t>Compruebe el ancho de banda de red necesario para cada usuario y, en total, para la SKU de máquina virtual</t>
         </is>
       </c>
       <c r="D102" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Un conjunto completo de mejores prácticas de seguridad y recomendaciones se encuentran en el artículo al que se hace referencia, se recomienda revisar. </t>
+          <t xml:space="preserve">Se recomienda evaluar y revisar los requisitos de ancho de banda de red para los usuarios, en función del tipo de carga de trabajo específico. El artículo al que se hace referencia proporciona estimaciones y recomendaciones generales, pero se requieren medidas específicas para un tamaño adecuado. </t>
         </is>
       </c>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5807,7 +5772,7 @@
       <c r="G102" s="21" t="n"/>
       <c r="H102" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/rdp-bandwidth</t>
         </is>
       </c>
       <c r="I102" s="15" t="n"/>
@@ -5815,7 +5780,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
+          <t>516785c6-fa96-4c96-ad88-408f372734c8</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5826,27 +5791,27 @@
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B103" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Determinar qué solución back-end de almacenamiento se usará para FSLogix Profile y Office Containers</t>
+          <t>Evaluación del uso del punto de conexión privado para el recurso compartido de Azure Files</t>
         </is>
       </c>
       <c r="D103" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure NetApp Files, Azure Files, servidor de archivos basado en VM. No se recomienda el servidor de archivos. Azure Files Premium suele ser un buen punto de partida. Por lo general, NetApp solo se requiere para entornos de gran escala / alto rendimiento. </t>
+          <t>Si se va a usar el recurso compartido SMB de Azure Files para almacenar perfiles de usuario a través de FSLogix, se recomienda el uso de Private Endpoint (PE) para el acceso privado al almacenamiento. Los hosts de sesión AVD accederán al almacenamiento mediante una IP privada en la misma red virtual, se recomienda una subred independiente. Esta característica tiene un costo adicional que debe ser evaluado. Si no se va a utilizar PE, al menos se recomienda Service Endpoint (sin costo asociado).</t>
         </is>
       </c>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5857,7 +5822,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-networking-endpoints</t>
         </is>
       </c>
       <c r="I103" s="15" t="n"/>
@@ -5865,7 +5830,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+          <t>ec27d589-9178-426d-8df2-ff60020f30a6</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5876,27 +5841,27 @@
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Evaluar la posibilidad de separar los contenedores de perfiles de los contenedores de Office</t>
+          <t>Evaluar el uso de RDP ShortPath para clientes que se conectan desde redes internas administradas</t>
         </is>
       </c>
       <c r="D104" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">La recomendación de Windows Virtual Desktop es usar el contenedor de perfiles sin el contenedor de Office, a menos que esté planeando escenarios específicos de continuidad empresarial y recuperación ante desastres (BCDR), como se describe en la sección Recuperación ante desastres a continuación. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
+          <t>Las conexiones a Azure Virtual Desktop pueden usar TCP o UDP. RDP Shortpath es una característica de AVD que establece un transporte directo basado en UDP entre un cliente de Escritorio remoto de Windows compatible y un host de sesión. si los clientes tienen línea de visión a los hosts de sesión AVD desde la red interna (no se recomienda el uso de VPN), esta característica puede proporcionar una latencia más baja y el mejor rendimiento, como se explica en https://learn.microsoft.com/en-us/azure/virtual-desktop/rdp-shortpath?tabs=managed-networks#key-benefits.</t>
         </is>
       </c>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Bajo</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5907,7 +5872,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/shortpath</t>
         </is>
       </c>
       <c r="I104" s="15" t="n"/>
@@ -5915,7 +5880,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+          <t>b2074747-d01a-4f61-b1aa-92ad793d9ff4</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5926,27 +5891,27 @@
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B105" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Active Directory</t>
         </is>
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Verificar los límites de escalabilidad del almacenamiento para admitir los requisitos del grupo de hosts</t>
+          <t>Revisar el GPO de Active Directory para proteger las sesiones RDP</t>
         </is>
       </c>
       <c r="D105" s="21" t="inlineStr">
         <is>
-          <t>Como punto de partida para estimar los requisitos de rendimiento de almacenamiento de contenedores de perfiles, se recomienda asumir 10 IOPS por usuario en estado estable y 50 IOPS por usuario durante el inicio y cierre de sesión.</t>
+          <t>Se deben usar los mecanismos de seguridad proporcionados por GPO, si están disponibles. Por ejemplo, es posible imponer el bloqueo de pantalla del escritorio y el tiempo de desconexión de la sesión inactiva. Los GPO existentes aplicados al entorno local deben revisarse y, finalmente, aplicarse también para proteger también los hosts AVD cuando se unen al dominio.</t>
         </is>
       </c>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5957,7 +5922,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#establish-maximum-inactive-time-and-disconnection-policies</t>
         </is>
       </c>
       <c r="I105" s="15" t="n"/>
@@ -5965,7 +5930,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+          <t>a135e337-897e-431c-97d6-8cb6a22ac19f</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5976,27 +5941,27 @@
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B106" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Si se utiliza el almacenamiento de archivos de NetApp, compruebe la disponibilidad del servicio de almacenamiento en su región específica.</t>
+          <t>Asegúrese de que se utilizan soluciones antivirus y antimalware</t>
         </is>
       </c>
       <c r="D106" s="21" t="inlineStr">
         <is>
-          <t>Si se requiere una segunda región para fines de recuperación ante desastres, verifique también la disponibilidad de NetApp.</t>
+          <t>Microsoft Defender para Endpoint admite Azure Virtual Desktop para Windows 10/11 Enterprise multisesión. Consulte el artículo para la incorporación de dispositivos de infraestructura de escritorio virtual (VDI) no persistentes: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
         </is>
       </c>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Medio</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -6007,7 +5972,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/deployment-vdi-microsoft-defender-antivirus</t>
         </is>
       </c>
       <c r="I106" s="15" t="n"/>
@@ -6015,7 +5980,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+          <t>b1172576-9ef6-4691-a483-5ac932223ece</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -6026,27 +5991,27 @@
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B107" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Para un rendimiento óptimo, la solución de almacenamiento y el contenedor de perfiles FSLogix deben estar en la misma ubicación del centro de datos.</t>
+          <t>Evaluar los requisitos de cifrado de disco para los hosts de sesión AVD</t>
         </is>
       </c>
       <c r="D107" s="21" t="inlineStr">
         <is>
-          <t>Evite introducir latencia y costos adicionales asociados con el tráfico de red entre regiones siempre que sea posible.</t>
+          <t>Los discos de Azure ya están cifrados en reposo de forma predeterminada con claves administradas por Microsoft. El cifrado de disco del sistema operativo de máquina virtual host es posible y se admite mediante Azure Disk Encryption (ADE - BitLocker) y Disk Encryption Set (DES - Server Side Encryption), este último recomendado. El cifrado del almacenamiento FSLogix mediante Azure Files se puede realizar mediante SSE en Azure Storage. Para el cifrado de OneDrive, consulta este artículo: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
         </is>
       </c>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -6057,7 +6022,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/disk-encryption-overview</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -6065,7 +6030,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+          <t>0fd32907-98bc-4178-adc5-a06ca7144351</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -6076,22 +6041,22 @@
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B108" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Configure las exclusiones antivirus recomendadas para FSLogix (incluye no analizar archivos VHD(x) al conectarse).</t>
+          <t>Habilitación del inicio de confianza en hosts de sesión de máquina virtual de Azure Gen2</t>
         </is>
       </c>
       <c r="D108" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de configurar las siguientes exclusiones antivirus para los discos duros virtuales del contenedor de perfiles FSLogix, como se documenta en el artículo al que se hace referencia.</t>
+          <t>El lanzamiento de confianza son las máquinas virtuales Gen2 Azure con características de seguridad mejoradas destinadas a proteger contra las amenazas de la "parte inferior de la pila" a través de vectores de ataque como rootkits, kits de arranque y malware de nivel de kernel. Se recomienda habilitar y aprovechar el arranque seguro, el TPM virtual (vTPM) y la supervisión de integridad.</t>
         </is>
       </c>
       <c r="E108" s="21" t="inlineStr">
@@ -6107,7 +6072,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#azure-virtual-desktop-support-for-trusted-launch</t>
         </is>
       </c>
       <c r="I108" s="15" t="n"/>
@@ -6115,7 +6080,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+          <t>36a5a67f-bb9e-4d5b-9547-8c4479816b28</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -6126,22 +6091,22 @@
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B109" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Revise las claves del Registro FSLogix y determine cuáles aplicar</t>
+          <t>Habilitar Trusted Launch y usar la imagen Gen2 son requisitos del sistema para Windows 11</t>
         </is>
       </c>
       <c r="D109" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">La configuración básica y recomendada predeterminada está aquí: https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix#best-practice-settings-for-enterprises Consulte aquí el conjunto básico: https://docs.microsoft.com/fslogix/configure-profile-container-tutorialSee aquí para una referencia completa: https://docs.microsoft.com/fslogix/profile-container-configuration-reference </t>
+          <t>Trusted Launch y Gen2 VM no solo son características de mejora de la seguridad y el rendimiento, sino también requisitos del sistema para Windows 11. Al crear un entorno AVD basado en Windows 11, es esencial habilitar estas características.</t>
         </is>
       </c>
       <c r="E109" s="21" t="inlineStr">
@@ -6157,7 +6122,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/windows/whats-new/windows-11-requirements</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -6165,7 +6130,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+          <t>135d3899-4b31-44d3-bc8f-028871a359d8</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -6176,27 +6141,27 @@
     <row r="110" ht="16.5" customHeight="1">
       <c r="A110" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B110" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Comprobar el uso de conexiones simultáneas o múltiples al mismo perfil</t>
+          <t>Considere habilitar la protección de captura de pantalla para evitar que se capture información confidencial</t>
         </is>
       </c>
       <c r="D110" s="21" t="inlineStr">
         <is>
-          <t>Se desaconsejan las conexiones simultáneas o múltiples en Windows Virtual Desktop. La práctica recomendada es crear una ubicación de perfil diferente para cada sesión (como grupo de servidores).</t>
+          <t>El contenido mostrado se bloqueará u ocultará automáticamente en las capturas de pantalla. Tenga en cuenta que el uso compartido de pantalla también se bloqueará cuando use Teams u otro software de colaboración que use el uso compartido de pantalla.</t>
         </is>
       </c>
       <c r="E110" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -6207,7 +6172,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/screen-capture-protection</t>
         </is>
       </c>
       <c r="I110" s="15" t="n"/>
@@ -6215,7 +6180,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+          <t>a49dc137-7896-4343-b2bc-1a31bf1d30b6</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -6226,27 +6191,27 @@
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B111" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Configuración del host</t>
         </is>
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Revisar las mejores prácticas y las consideraciones clave para el dimensionamiento del almacenamiento</t>
+          <t>Restringir la redirección de dispositivos y la asignación de unidades</t>
         </is>
       </c>
       <c r="D111" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Como estimación general, para ser validada en un entorno de prueba, para cada usuario se deben considerar primero de 5 a 15 IOPS, dependiendo de la carga de trabajo. Azure Files: Premium max 100k IOPS por recurso compartido (máx. 100TB) y hasta 5Gbps con latencia de 3ms. Tenga en cuenta cómo se aprovisiona Azure Files, es decir, IOPS estrictamente vinculadas a SIZE aprovisionado. Capacidad de dimensionamiento de ráfaga en algunos casos. Asegúrese de aprovisionar por adelantado más espacio del necesario para asegurarse de tener suficientes IOPS. NOTA: Azure Premium puede ser más barato que Standard porque no paga transacciones, luego detalles importantes a tener en cuenta. Azure NetApp Files: recuerde un máximo de 1000 direcciones IP conectadas, puede ajustar IOPS sobre la marcha, capacidad aprovisionada mínima de 4 TB. </t>
+          <t>Si no es absolutamente necesario, la redirección de unidades, impresoras y dispositivos USB al dispositivo local de un usuario en una sesión de escritorio remoto debe estar deshabilitada o muy restringida. Restringir el acceso del Explorador de Windows ocultando las asignaciones de unidades locales y remotas también es una medida segura para evitar que los usuarios descubran información no deseada sobre la configuración del sistema y los usuarios.</t>
         </is>
       </c>
       <c r="E111" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Medio</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -6257,14 +6222,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#other-security-tips-for-session-hosts</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>1f348ff3-64d2-47d4-8e8b-bbc868155abb</t>
+          <t>7ce2cd20-85b4-4f82-828e-6558736ede6a</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -6275,22 +6240,22 @@
     <row r="112" ht="16.5" customHeight="1">
       <c r="A112" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Compruebe los procedimientos recomendados para Azure Files (si se usa)</t>
+          <t>Cuando sea posible, prefiera las aplicaciones remotas a los escritorios completos (DAG)</t>
         </is>
       </c>
       <c r="D112" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de consultar la lista de prácticas recomendadas y recomendaciones descritas en el artículo al que se hace referencia.</t>
+          <t>Al elegir un modelo de implementación, puede proporcionar a los usuarios remotos acceso a escritorios virtuales completos o solo a aplicaciones seleccionadas. Las aplicaciones remotas, o RemoteApps, proporcionan una experiencia perfecta a medida que el usuario trabaja con aplicaciones en su escritorio virtual. RemoteApps reduce el riesgo al permitir que el usuario trabaje solo con un subconjunto del equipo remoto expuesto por la aplicación.</t>
         </is>
       </c>
       <c r="E112" s="21" t="inlineStr">
@@ -6306,7 +6271,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/web-protection-overview</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -6314,7 +6279,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+          <t>4e25d70e-3924-44f4-b66f-d6cdd4f4a973</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -6325,22 +6290,22 @@
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B113" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Compruebe las prácticas recomendadas para los archivos de NetApp (si se utilizan)</t>
+          <t>¿Necesita controlar/restringir la navegación del usuario por Internet desde los hosts de sesión AVD?</t>
         </is>
       </c>
       <c r="D113" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de consultar la lista de prácticas recomendadas y recomendaciones descritas en el artículo al que se hace referencia.</t>
+          <t>La característica de filtrado de contenido web proporcionada por la funcionalidad de protección web de Microsoft Defender para Endpoint se puede usar para controlar la navegación web del usuario. Si se utiliza esta herramienta, se recomienda configurar el filtrado web para la navegación web del usuario. Se debe garantizar el acceso del sistema de SO invitado a las URL del plano de control AVD requeridas.</t>
         </is>
       </c>
       <c r="E113" s="21" t="inlineStr">
@@ -6356,7 +6321,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/example-scenario/wvd/windows-virtual-desktop-fslogix</t>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/web-protection-overview</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -6364,7 +6329,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>c42149d4-13a9-423c-9574-d11028ac6aae</t>
+          <t>e19dd344-29eb-4722-a237-a151c5bb4e4f</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -6375,22 +6340,22 @@
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B114" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Revisar y confirmar el tamaño máximo de perfil configurado en FSLogix</t>
+          <t>Asegúrese de que los usuarios de AVD no tengan privilegios de administrador local en los hosts AVD</t>
         </is>
       </c>
       <c r="D114" s="21" t="inlineStr">
         <is>
-          <t>Los contenedores de perfiles tienen un tamaño máximo predeterminado de 30 GB. Si se anticipan contenedores de perfiles grandes y los clientes quieren intentar mantenerlos pequeños, considere la posibilidad de usar OneDrive para hospedar archivos de Office 365 fuera del perfil de FSLogix.</t>
+          <t>Le recomendamos que no conceda a los usuarios acceso de administrador a escritorios virtuales. Si necesita paquetes de software, le recomendamos que los ponga a disposición a través de utilidades de administración de configuración.</t>
         </is>
       </c>
       <c r="E114" s="21" t="inlineStr">
@@ -6406,7 +6371,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/security-guide</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -6414,7 +6379,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+          <t>a0cdb3b5-4eb2-4eb0-9dda-a3592718e2ed</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -6425,22 +6390,22 @@
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B115" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Si se utiliza FSLogix Cloud Cache, mueva el directorio Cache a la unidad temporal.</t>
+          <t>Habilitar Microsoft Defender para la nube para administrar la postura de seguridad de los hosts de sesión AVD</t>
         </is>
       </c>
       <c r="D115" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cloud Cache utiliza el disco local como caché y puede generar mucha presión en el disco de la máquina virtual. Se recomienda aprovechar la potencia del disco de máquina virtual temporal (y conectado localmente), si es posible en función de la SKU de máquina virtual. </t>
+          <t>Le recomendamos que habilite Defender for Cloud para las suscripciones, máquinas virtuales, almacenes de claves y cuentas de almacenamiento utilizadas por AVD. Con esta herramienta es posible evaluar y gestionar vulnerabilidades, evaluar el cumplimiento de marcos comunes como PCI, fortalecer la seguridad general de su entorno AVD y medirla a lo largo del tiempo utilizando 'Secure Score': https://learn.microsoft.com/en-us/azure/virtual-desktop/security-guide#improve-your-secure-score.</t>
         </is>
       </c>
       <c r="E115" s="21" t="inlineStr">
@@ -6456,14 +6421,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#enable-microsoft-defender-for-cloud</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+          <t>1814387e-5ca9-4c26-a9b3-2ab5bdfc6998</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6474,22 +6439,22 @@
     <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B116" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Revise el uso de la redirección FSLogix.</t>
+          <t>Habilitar el registro de diagnóstico y auditoría</t>
         </is>
       </c>
       <c r="D116" s="21" t="inlineStr">
         <is>
-          <t>REDIRECTION.XML archivo se utiliza para controlar qué carpetas se redirigen fuera del contenedor de perfiles a la unidad C:. Las exclusiones deben ser la excepción y nunca deben usarse a menos que la exclusión específica sea completamente entendida por la persona que configura la exclusión. Las exclusiones siempre deben probarse completamente en el entorno donde se pretende implementar. La configuración de exclusiones puede afectar a la funcionalidad, la estabilidad y el rendimiento.</t>
+          <t xml:space="preserve">La habilitación de la recopilación de registros de auditoría le permite ver la actividad de usuarios y administradores relacionada con Azure Virtual Desktop y almacenarla en un repositorio central como el área de trabajo de Log Analytics. </t>
         </is>
       </c>
       <c r="E116" s="21" t="inlineStr">
@@ -6505,14 +6470,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#collect-audit-logs</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+          <t>a0916a76-4980-4ad0-b278-ee293c1bc352</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6523,27 +6488,27 @@
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B117" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Si se usa el almacenamiento de Azure NetApp Files, compruebe la configuración del nombre del sitio de AD en la conexión de AD.</t>
+          <t>Evaluar el requisito de usar roles RBAC personalizados para la administración de AVD</t>
         </is>
       </c>
       <c r="D117" s="21" t="inlineStr">
         <is>
-          <t>Se debe crear un sitio de Active Directory para el entorno de red virtual de Azure donde se creará la subred ANF y ese nombre de sitio debe especificarse en la propiedad de conexión ANF al ejecutar el procedimiento de unión, como se explica en el artículo de referencia.</t>
+          <t>Asigne el privilegio mínimo necesario definiendo roles administrativos, de operaciones e ingeniería a roles RBAC de Azure. Para limitar el acceso a roles con privilegios altos dentro de la zona de aterrizaje de Azure Virtual Desktop, considere la posibilidad de integrarlos con Azure Privileged Identity Management (PIM). Mantener el conocimiento de qué equipo es responsable de cada área administrativa concreta le ayuda a determinar los roles y la configuración del control de acceso basado en rol (RBAC) de Azure.</t>
         </is>
       </c>
       <c r="E117" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -6554,14 +6519,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-us/azure/azure-netapp-files/create-active-directory-connections</t>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/rbac</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+          <t>baaab757-1849-4ab8-893d-c9fc9d1bb73b</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6572,22 +6537,22 @@
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B118" s="21" t="inlineStr">
         <is>
-          <t>FSLogix</t>
+          <t>Administración</t>
         </is>
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Habilite SMB multicanal cuando use un recurso compartido de archivos premium para hospedar contenedores de perfiles FSLogix.</t>
+          <t>Restringir a los usuarios la instalación de aplicaciones no autorizadas</t>
         </is>
       </c>
       <c r="D118" s="21" t="inlineStr">
         <is>
-          <t>SMB Multichannel permite a los clientes utilizar múltiples conexiones de red que proporcionan un mayor rendimiento al tiempo que reducen el costo de propiedad. El aumento del rendimiento se logra mediante la agregación de ancho de banda en varias NIC y el uso de la compatibilidad con Receive Side Scaling (RSS) para que las NIC distribuyan la carga de E/S entre varias CPU.</t>
+          <t xml:space="preserve">Los usuarios de AVD no deben tener permiso para instalar la aplicación. Si es necesario, el Control de aplicaciones de Windows Defender (WDAC) se puede usar para controlar qué controladores y aplicaciones pueden ejecutarse en sus clientes Windows. </t>
         </is>
       </c>
       <c r="E118" s="21" t="inlineStr">
@@ -6603,7 +6568,7 @@
       <c r="G118" s="21" t="n"/>
       <c r="H118" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/storage/files/storage-files-smb-multichannel-performance</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/security-guide#windows-defender-application-control</t>
         </is>
       </c>
       <c r="I118" s="15" t="n"/>
@@ -6611,7 +6576,7 @@
       <c r="K118" s="22" t="n"/>
       <c r="L118" s="25" t="inlineStr">
         <is>
-          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
+          <t>b9ea80c8-0628-49fc-ae63-125aa4c0a284</t>
         </is>
       </c>
       <c r="M118" s="25" t="n"/>
@@ -6622,22 +6587,22 @@
     <row r="119" ht="16.5" customHeight="1">
       <c r="A119" s="21" t="inlineStr">
         <is>
-          <t>Almacenamiento</t>
+          <t>Seguridad</t>
         </is>
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Host de sesión </t>
+          <t>Microsoft Entra ID</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Determinar qué tipo de disco administrado se utilizará para los hosts de sesión  </t>
+          <t>Evaluar el uso de Multi-Factor Authentication (MFA) y acceso condicional (CA) para usuarios de AVD</t>
         </is>
       </c>
       <c r="D119" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">HDD estándar, SSD estándar o SSD premium, discos efímeros no son compatibles, no se recomiendan discos Ultra. Se recomienda evaluar Premium para el disco del sistema operativo si la densidad de usuarios no es baja y si va a utilizar Cloud Cache. </t>
+          <t>Habilitar MFA y CA le permite administrar los riesgos antes de conceder a los usuarios acceso a su entorno AVD. Al decidir a qué usuarios conceder acceso, le recomendamos que también tenga en cuenta quién es el usuario, cómo inicia sesión y qué dispositivo está usando. En el artículo complementario se proporcionan detalles adicionales y procedimientos de configuración. Microsoft Entra ID es el nuevo nombre de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="E119" s="21" t="inlineStr">
@@ -6653,14 +6618,14 @@
       <c r="G119" s="21" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/set-up-mfa</t>
         </is>
       </c>
       <c r="J119" s="22" t="n"/>
       <c r="K119" s="22" t="n"/>
       <c r="L119" s="25" t="inlineStr">
         <is>
-          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+          <t>916d697d-8ead-4ed2-9bdd-186f1ac252b9</t>
         </is>
       </c>
       <c r="M119" s="25" t="n"/>
@@ -6669,294 +6634,888 @@
       <c r="P119" s="25" t="n"/>
     </row>
     <row r="120" ht="16.5" customHeight="1">
-      <c r="A120" s="21" t="n"/>
-      <c r="B120" s="21" t="n"/>
-      <c r="C120" s="21" t="n"/>
-      <c r="D120" s="21" t="n"/>
-      <c r="E120" s="21" t="n"/>
+      <c r="A120" s="21" t="inlineStr">
+        <is>
+          <t>Seguridad</t>
+        </is>
+      </c>
+      <c r="B120" s="21" t="inlineStr">
+        <is>
+          <t>Confianza cero</t>
+        </is>
+      </c>
+      <c r="C120" s="21" t="inlineStr">
+        <is>
+          <t>Revisar y aplicar los principios y la orientación de Zero Trust</t>
+        </is>
+      </c>
+      <c r="D120" s="21" t="inlineStr">
+        <is>
+          <t>Si Zero Trust es un requisito, revise el artículo complementario en la columna 'Más información'. Proporciona los pasos para aplicar los principios de confianza cero a una implementación de Azure Virtual Desktop.</t>
+        </is>
+      </c>
+      <c r="E120" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G120" s="21" t="n"/>
-      <c r="H120" s="15" t="n"/>
+      <c r="H120" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/security/zero-trust/azure-infrastructure-avd</t>
+        </is>
+      </c>
       <c r="I120" s="15" t="n"/>
       <c r="J120" s="22" t="n"/>
       <c r="K120" s="22" t="n"/>
-      <c r="L120" s="25" t="n"/>
+      <c r="L120" s="25" t="inlineStr">
+        <is>
+          <t>221102d0-90af-49fc-b2b7-8d3fe397e43</t>
+        </is>
+      </c>
       <c r="M120" s="25" t="n"/>
       <c r="N120" s="25" t="n"/>
       <c r="O120" s="25" t="n"/>
       <c r="P120" s="25" t="n"/>
     </row>
     <row r="121" ht="16.5" customHeight="1">
-      <c r="A121" s="21" t="n"/>
-      <c r="B121" s="21" t="n"/>
-      <c r="C121" s="21" t="n"/>
-      <c r="D121" s="21" t="n"/>
-      <c r="E121" s="21" t="n"/>
+      <c r="A121" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B121" s="21" t="inlineStr">
+        <is>
+          <t>Archivos de Azure</t>
+        </is>
+      </c>
+      <c r="C121" s="21" t="inlineStr">
+        <is>
+          <t>Comprobar los procedimientos recomendados para Azure Files</t>
+        </is>
+      </c>
+      <c r="D121" s="21" t="inlineStr">
+        <is>
+          <t>Si se utiliza, asegúrese de consultar la lista de prácticas recomendadas y recomendaciones descritas en el artículo al que se hace referencia.</t>
+        </is>
+      </c>
+      <c r="E121" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G121" s="21" t="n"/>
-      <c r="H121" s="15" t="n"/>
+      <c r="H121" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files#best-practices-for-azure-virtual-desktop</t>
+        </is>
+      </c>
       <c r="I121" s="15" t="n"/>
       <c r="J121" s="22" t="n"/>
       <c r="K121" s="22" t="n"/>
-      <c r="L121" s="25" t="n"/>
+      <c r="L121" s="25" t="inlineStr">
+        <is>
+          <t>9164e990-9ae2-48c8-9c33-b6b7808bafe6</t>
+        </is>
+      </c>
       <c r="M121" s="25" t="n"/>
       <c r="N121" s="25" t="n"/>
       <c r="O121" s="25" t="n"/>
       <c r="P121" s="25" t="n"/>
     </row>
     <row r="122" ht="16.5" customHeight="1">
-      <c r="A122" s="21" t="n"/>
-      <c r="B122" s="21" t="n"/>
-      <c r="C122" s="21" t="n"/>
-      <c r="D122" s="21" t="n"/>
-      <c r="E122" s="21" t="n"/>
+      <c r="A122" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B122" s="21" t="inlineStr">
+        <is>
+          <t>Archivos de Azure</t>
+        </is>
+      </c>
+      <c r="C122" s="21" t="inlineStr">
+        <is>
+          <t>Habilite SMB multicanal cuando use un recurso compartido de archivos premium para hospedar contenedores de perfiles FSLogix.</t>
+        </is>
+      </c>
+      <c r="D122" s="21" t="inlineStr">
+        <is>
+          <t>SMB Multichannel permite a los clientes utilizar múltiples conexiones de red que proporcionan un mayor rendimiento al tiempo que reducen el costo de propiedad. El aumento del rendimiento se logra mediante la agregación de ancho de banda en varias NIC y el uso de la compatibilidad con Receive Side Scaling (RSS) para que las NIC distribuyan la carga de E/S entre varias CPU.</t>
+        </is>
+      </c>
+      <c r="E122" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G122" s="21" t="n"/>
-      <c r="H122" s="15" t="n"/>
+      <c r="H122" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/storage/files/storage-files-smb-multichannel-performance</t>
+        </is>
+      </c>
       <c r="I122" s="15" t="n"/>
       <c r="J122" s="22" t="n"/>
       <c r="K122" s="22" t="n"/>
-      <c r="L122" s="25" t="n"/>
+      <c r="L122" s="25" t="inlineStr">
+        <is>
+          <t>5784b6ca-5e9e-4bcf-8b54-c95459ea7369</t>
+        </is>
+      </c>
       <c r="M122" s="25" t="n"/>
       <c r="N122" s="25" t="n"/>
       <c r="O122" s="25" t="n"/>
       <c r="P122" s="25" t="n"/>
     </row>
     <row r="123" ht="16.5" customHeight="1">
-      <c r="A123" s="21" t="n"/>
-      <c r="B123" s="21" t="n"/>
-      <c r="C123" s="21" t="n"/>
-      <c r="D123" s="21" t="n"/>
-      <c r="E123" s="21" t="n"/>
+      <c r="A123" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B123" s="21" t="inlineStr">
+        <is>
+          <t>Archivos de Azure NetApp</t>
+        </is>
+      </c>
+      <c r="C123" s="21" t="inlineStr">
+        <is>
+          <t>Si se requiere almacenamiento de archivos de NetApp, compruebe la disponibilidad del servicio de almacenamiento en su región específica.</t>
+        </is>
+      </c>
+      <c r="D123" s="21" t="inlineStr">
+        <is>
+          <t>Si se requiere una segunda región para fines de DR, verifique también la disponibilidad de NetApp.</t>
+        </is>
+      </c>
+      <c r="E123" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G123" s="21" t="n"/>
-      <c r="H123" s="15" t="n"/>
+      <c r="H123" s="15" t="inlineStr">
+        <is>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+        </is>
+      </c>
       <c r="I123" s="15" t="n"/>
       <c r="J123" s="22" t="n"/>
       <c r="K123" s="22" t="n"/>
-      <c r="L123" s="25" t="n"/>
+      <c r="L123" s="25" t="inlineStr">
+        <is>
+          <t>4a359836-ee79-4d6c-9d3a-364a5b7abae3</t>
+        </is>
+      </c>
       <c r="M123" s="25" t="n"/>
       <c r="N123" s="25" t="n"/>
       <c r="O123" s="25" t="n"/>
       <c r="P123" s="25" t="n"/>
     </row>
     <row r="124" ht="16.5" customHeight="1">
-      <c r="A124" s="21" t="n"/>
-      <c r="B124" s="21" t="n"/>
-      <c r="C124" s="21" t="n"/>
-      <c r="D124" s="21" t="n"/>
-      <c r="E124" s="21" t="n"/>
+      <c r="A124" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B124" s="21" t="inlineStr">
+        <is>
+          <t>Archivos de Azure NetApp</t>
+        </is>
+      </c>
+      <c r="C124" s="21" t="inlineStr">
+        <is>
+          <t>Si se utiliza el almacenamiento de archivos de NetApp, habilite la opción CA (disponibilidad continua) para aumentar la resiliencia</t>
+        </is>
+      </c>
+      <c r="D124" s="21" t="inlineStr">
+        <is>
+          <t>La opción CA es una configuración recomendada en el escenario FSLogix, ya que permite una sesión SMB más resistente entre el host de sesión y los archivos de NetApp.</t>
+        </is>
+      </c>
+      <c r="E124" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G124" s="21" t="n"/>
-      <c r="H124" s="15" t="n"/>
+      <c r="H124" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/create-fslogix-profile-container</t>
+        </is>
+      </c>
       <c r="I124" s="15" t="n"/>
       <c r="J124" s="22" t="n"/>
       <c r="K124" s="22" t="n"/>
-      <c r="L124" s="25" t="n"/>
+      <c r="L124" s="25" t="inlineStr">
+        <is>
+          <t>a2661898-866a-4c8d-9d1f-8cfc86e88024</t>
+        </is>
+      </c>
       <c r="M124" s="25" t="n"/>
       <c r="N124" s="25" t="n"/>
       <c r="O124" s="25" t="n"/>
       <c r="P124" s="25" t="n"/>
     </row>
     <row r="125" ht="16.5" customHeight="1">
-      <c r="A125" s="21" t="n"/>
-      <c r="B125" s="21" t="n"/>
-      <c r="C125" s="21" t="n"/>
-      <c r="D125" s="21" t="n"/>
-      <c r="E125" s="21" t="n"/>
+      <c r="A125" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B125" s="21" t="inlineStr">
+        <is>
+          <t>Archivos de Azure NetApp</t>
+        </is>
+      </c>
+      <c r="C125" s="21" t="inlineStr">
+        <is>
+          <t>Si se usa el almacenamiento de Azure NetApp Files, compruebe la configuración del nombre del sitio de Active Directory en la configuración de conexión de Active Directory</t>
+        </is>
+      </c>
+      <c r="D125" s="21" t="inlineStr">
+        <is>
+          <t>Se debe crear un sitio de Active Directory para el entorno de red virtual de Azure donde se creará la subred Azure NetApp Files (ANF) y ese nombre de sitio debe especificarse en la propiedad de conexión ANF al ejecutar el procedimiento de unión, como se explica en el artículo de referencia.</t>
+        </is>
+      </c>
+      <c r="E125" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G125" s="21" t="n"/>
-      <c r="H125" s="15" t="n"/>
+      <c r="H125" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-netapp-files/create-active-directory-connections</t>
+        </is>
+      </c>
       <c r="I125" s="15" t="n"/>
       <c r="J125" s="22" t="n"/>
       <c r="K125" s="22" t="n"/>
-      <c r="L125" s="25" t="n"/>
+      <c r="L125" s="25" t="inlineStr">
+        <is>
+          <t>6647e977-db49-48a8-bc35-743f17499d42</t>
+        </is>
+      </c>
       <c r="M125" s="25" t="n"/>
       <c r="N125" s="25" t="n"/>
       <c r="O125" s="25" t="n"/>
       <c r="P125" s="25" t="n"/>
     </row>
     <row r="126" ht="16.5" customHeight="1">
-      <c r="A126" s="21" t="n"/>
-      <c r="B126" s="21" t="n"/>
-      <c r="C126" s="21" t="n"/>
-      <c r="D126" s="21" t="n"/>
-      <c r="E126" s="21" t="n"/>
+      <c r="A126" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B126" s="21" t="inlineStr">
+        <is>
+          <t>Planificación de la capacidad</t>
+        </is>
+      </c>
+      <c r="C126" s="21" t="inlineStr">
+        <is>
+          <t>Determinar qué tipo de disco administrado se utilizará para los hosts de sesión</t>
+        </is>
+      </c>
+      <c r="D126" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Opciones posibles: HDD estándar, SSD estándar o SSD premium. Los discos efímeros no son compatibles, no se recomiendan Ultra-Disks. Se recomienda evaluar Premium para el disco del sistema operativo si la densidad de usuarios no es baja y si se utilizará Cloud Cache. </t>
+        </is>
+      </c>
+      <c r="E126" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G126" s="21" t="n"/>
-      <c r="H126" s="15" t="n"/>
+      <c r="H126" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-machines/disks-types</t>
+        </is>
+      </c>
       <c r="J126" s="22" t="n"/>
       <c r="K126" s="22" t="n"/>
-      <c r="L126" s="25" t="n"/>
+      <c r="L126" s="25" t="inlineStr">
+        <is>
+          <t>3611c818-b0a0-4bc5-80e4-3a18a9cd289c</t>
+        </is>
+      </c>
       <c r="M126" s="25" t="n"/>
       <c r="N126" s="25" t="n"/>
       <c r="O126" s="25" t="n"/>
       <c r="P126" s="25" t="n"/>
     </row>
     <row r="127" ht="16.5" customHeight="1">
-      <c r="A127" s="21" t="n"/>
-      <c r="B127" s="21" t="n"/>
-      <c r="C127" s="21" t="n"/>
-      <c r="D127" s="21" t="n"/>
-      <c r="E127" s="21" t="n"/>
+      <c r="A127" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B127" s="21" t="inlineStr">
+        <is>
+          <t>Planificación de la capacidad</t>
+        </is>
+      </c>
+      <c r="C127" s="21" t="inlineStr">
+        <is>
+          <t>Determinar qué solución back-end de almacenamiento se utilizará para los perfiles FSLogix</t>
+        </is>
+      </c>
+      <c r="D127" s="21" t="inlineStr">
+        <is>
+          <t>Las opciones posibles son: Azure NetApp Files, Azure Files, servidor de archivos basado en VM. No se recomienda el servidor de archivos. Azure Files Premium suele ser un buen punto de partida. Por lo general, NetApp se requiere para entornos de gran escala / alto rendimiento. Para una comparación detallada, consulte el artículo en la columna 'Más información'.</t>
+        </is>
+      </c>
+      <c r="E127" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G127" s="21" t="n"/>
-      <c r="H127" s="15" t="n"/>
+      <c r="H127" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+        </is>
+      </c>
       <c r="J127" s="22" t="n"/>
       <c r="K127" s="22" t="n"/>
-      <c r="L127" s="25" t="n"/>
+      <c r="L127" s="25" t="inlineStr">
+        <is>
+          <t>ed6b17db-8255-4462-b2ae-e4553afc8339</t>
+        </is>
+      </c>
       <c r="M127" s="25" t="n"/>
       <c r="N127" s="25" t="n"/>
       <c r="O127" s="25" t="n"/>
       <c r="P127" s="25" t="n"/>
     </row>
     <row r="128" ht="16.5" customHeight="1">
-      <c r="A128" s="21" t="n"/>
-      <c r="B128" s="21" t="n"/>
-      <c r="C128" s="21" t="n"/>
-      <c r="D128" s="21" t="n"/>
-      <c r="E128" s="21" t="n"/>
+      <c r="A128" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B128" s="21" t="inlineStr">
+        <is>
+          <t>Planificación de la capacidad</t>
+        </is>
+      </c>
+      <c r="C128" s="21" t="inlineStr">
+        <is>
+          <t>No compartir almacenamiento y perfiles entre diferentes grupos de hosts</t>
+        </is>
+      </c>
+      <c r="D128" s="21" t="inlineStr">
+        <is>
+          <t>Cada grupo de hosts debe usar un conjunto independiente de cuentas/volúmenes de almacenamiento (al menos uno) y recursos compartidos. Los usuarios deben tener un perfil diferente para cada grupo de hosts, ya que los ajustes y configuraciones son específicos de cada grupo de hosts. Además, el acceso a diferentes grupos de hosts al mismo tiempo puede provocar errores en el VHD/X del perfil de usuario compartido. También se recomienda escalar de forma independiente el uso de diferentes cuentas o volúmenes de almacenamiento para varios recursos compartidos.</t>
+        </is>
+      </c>
+      <c r="E128" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G128" s="21" t="n"/>
-      <c r="H128" s="15" t="n"/>
+      <c r="H128" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/store-fslogix-profile</t>
+        </is>
+      </c>
       <c r="J128" s="22" t="n"/>
       <c r="K128" s="22" t="n"/>
-      <c r="L128" s="25" t="n"/>
+      <c r="L128" s="25" t="inlineStr">
+        <is>
+          <t>2fad62bd-5004-453c-ace4-64d862e7f5a4</t>
+        </is>
+      </c>
       <c r="M128" s="25" t="n"/>
       <c r="N128" s="25" t="n"/>
       <c r="O128" s="25" t="n"/>
       <c r="P128" s="25" t="n"/>
     </row>
     <row r="129" ht="16.5" customHeight="1">
-      <c r="A129" s="21" t="n"/>
-      <c r="B129" s="21" t="n"/>
-      <c r="C129" s="21" t="n"/>
-      <c r="D129" s="21" t="n"/>
-      <c r="E129" s="21" t="n"/>
+      <c r="A129" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B129" s="21" t="inlineStr">
+        <is>
+          <t>Planificación de la capacidad</t>
+        </is>
+      </c>
+      <c r="C129" s="21" t="inlineStr">
+        <is>
+          <t>Comprobar los límites de escalabilidad del almacenamiento y los requisitos del grupo de hosts</t>
+        </is>
+      </c>
+      <c r="D129" s="21" t="inlineStr">
+        <is>
+          <t>Como punto de partida para estimar los requisitos de rendimiento de almacenamiento de contenedores de perfiles, se recomienda asumir 10 IOPS por usuario en estado estable y 50 IOPS por usuario durante el inicio y cierre de sesión. Los requisitos de espacio se obtienen simplemente en función del tamaño máximo de perfiles en FSLogix por el número total de usuarios para cada grupo de hosts. Se pueden usar varias cuentas de almacenamiento para el mismo grupo de hosts si es necesario.</t>
+        </is>
+      </c>
+      <c r="E129" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G129" s="21" t="n"/>
-      <c r="H129" s="15" t="n"/>
+      <c r="H129" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/faq#what-s-the-largest-profile-size-fslogix-can-handle-</t>
+        </is>
+      </c>
       <c r="J129" s="22" t="n"/>
       <c r="K129" s="22" t="n"/>
-      <c r="L129" s="25" t="n"/>
+      <c r="L129" s="25" t="inlineStr">
+        <is>
+          <t>680e7828-9c93-4665-9d02-bff4564b0d93</t>
+        </is>
+      </c>
       <c r="M129" s="25" t="n"/>
       <c r="N129" s="25" t="n"/>
       <c r="O129" s="25" t="n"/>
       <c r="P129" s="25" t="n"/>
     </row>
     <row r="130" ht="16.5" customHeight="1">
-      <c r="A130" s="21" t="n"/>
-      <c r="B130" s="21" t="n"/>
-      <c r="C130" s="21" t="n"/>
-      <c r="D130" s="21" t="n"/>
-      <c r="E130" s="21" t="n"/>
+      <c r="A130" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B130" s="21" t="inlineStr">
+        <is>
+          <t>Planificación de la capacidad</t>
+        </is>
+      </c>
+      <c r="C130" s="21" t="inlineStr">
+        <is>
+          <t>Para un rendimiento óptimo, la solución de almacenamiento y el contenedor de perfiles de FSLogix deben estar en la misma región de Azure.</t>
+        </is>
+      </c>
+      <c r="D130" s="21" t="inlineStr">
+        <is>
+          <t>Evite introducir latencia y costos adicionales asociados con el tráfico de red entre regiones siempre que sea posible.</t>
+        </is>
+      </c>
+      <c r="E130" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G130" s="21" t="n"/>
-      <c r="H130" s="15" t="n"/>
+      <c r="H130" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/virtual-desktop/fslogix-containers-azure-files</t>
+        </is>
+      </c>
       <c r="J130" s="22" t="n"/>
       <c r="K130" s="22" t="n"/>
-      <c r="L130" s="25" t="n"/>
+      <c r="L130" s="25" t="inlineStr">
+        <is>
+          <t>8aad53cc-79e2-4e86-9673-57c549675c5e</t>
+        </is>
+      </c>
       <c r="M130" s="25" t="n"/>
       <c r="N130" s="25" t="n"/>
       <c r="O130" s="25" t="n"/>
       <c r="P130" s="25" t="n"/>
     </row>
     <row r="131" ht="16.5" customHeight="1">
-      <c r="A131" s="21" t="n"/>
-      <c r="B131" s="21" t="n"/>
-      <c r="C131" s="21" t="n"/>
-      <c r="D131" s="21" t="n"/>
-      <c r="E131" s="21" t="n"/>
+      <c r="A131" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B131" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C131" s="21" t="inlineStr">
+        <is>
+          <t>No utilice contenedores de Office (ODFC) si no es estrictamente necesario y justificado</t>
+        </is>
+      </c>
+      <c r="D131" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La recomendación de Azure Virtual Desktop es usar el contenedor de perfiles sin división del contenedor de Office (ODFC), a menos que esté planeando escenarios específicos de continuidad empresarial y recuperación ante desastres (BCDR), como se describe en la sección Recuperación ante desastres a continuación. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
+        </is>
+      </c>
+      <c r="E131" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G131" s="21" t="n"/>
-      <c r="H131" s="15" t="n"/>
+      <c r="H131" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fslogix/concepts-container-types#when-to-use-profile-and-odfc-containers</t>
+        </is>
+      </c>
       <c r="J131" s="22" t="n"/>
       <c r="K131" s="22" t="n"/>
-      <c r="L131" s="25" t="n"/>
+      <c r="L131" s="25" t="inlineStr">
+        <is>
+          <t>df47d2d9-2881-4b1c-b5d1-e54a29759e39</t>
+        </is>
+      </c>
       <c r="M131" s="25" t="n"/>
       <c r="N131" s="25" t="n"/>
       <c r="O131" s="25" t="n"/>
       <c r="P131" s="25" t="n"/>
     </row>
     <row r="132" ht="16.5" customHeight="1">
-      <c r="A132" s="21" t="n"/>
-      <c r="B132" s="21" t="n"/>
-      <c r="C132" s="21" t="n"/>
-      <c r="D132" s="21" t="n"/>
-      <c r="E132" s="21" t="n"/>
+      <c r="A132" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B132" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C132" s="21" t="inlineStr">
+        <is>
+          <t>Configure las exclusiones antivirus recomendadas para FSLogix (incluye no analizar archivos VHD(x) al conectarse).</t>
+        </is>
+      </c>
+      <c r="D132" s="21" t="inlineStr">
+        <is>
+          <t>Asegúrese de configurar las siguientes exclusiones antivirus para las unidades de disco duro virtuales FSLogix Profile Container, como se documenta en el artículo al que se hace referencia en la columna 'Más información'.</t>
+        </is>
+      </c>
+      <c r="E132" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G132" s="21" t="n"/>
-      <c r="H132" s="15" t="n"/>
+      <c r="H132" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fslogix/overview-prerequisites#configure-antivirus-file-and-folder-exclusions</t>
+        </is>
+      </c>
       <c r="J132" s="22" t="n"/>
       <c r="K132" s="22" t="n"/>
-      <c r="L132" s="25" t="n"/>
+      <c r="L132" s="25" t="inlineStr">
+        <is>
+          <t>83f63047-22ee-479d-9b5c-3632054b69ba</t>
+        </is>
+      </c>
       <c r="M132" s="25" t="n"/>
       <c r="N132" s="25" t="n"/>
       <c r="O132" s="25" t="n"/>
       <c r="P132" s="25" t="n"/>
     </row>
     <row r="133" ht="16.5" customHeight="1">
-      <c r="A133" s="21" t="n"/>
-      <c r="B133" s="21" t="n"/>
-      <c r="C133" s="21" t="n"/>
-      <c r="D133" s="21" t="n"/>
-      <c r="E133" s="21" t="n"/>
+      <c r="A133" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B133" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C133" s="21" t="inlineStr">
+        <is>
+          <t>Revisar y confirmar el tamaño máximo de perfil configurado en FSLogix</t>
+        </is>
+      </c>
+      <c r="D133" s="21" t="inlineStr">
+        <is>
+          <t>Los contenedores de perfiles tienen un tamaño máximo predeterminado de 30 GB. Si se anticipan contenedores de perfiles grandes y los clientes quieren intentar mantenerlos pequeños, considere la posibilidad de usar OneDrive para hospedar archivos de Office 365 fuera del perfil de FSLogix.</t>
+        </is>
+      </c>
+      <c r="E133" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G133" s="21" t="n"/>
-      <c r="H133" s="15" t="n"/>
+      <c r="H133" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/fslogix/profile-container-configuration-reference</t>
+        </is>
+      </c>
       <c r="J133" s="22" t="n"/>
       <c r="K133" s="22" t="n"/>
-      <c r="L133" s="25" t="n"/>
+      <c r="L133" s="25" t="inlineStr">
+        <is>
+          <t>01e6a84d-e5df-443d-8992-481718d5d1e5</t>
+        </is>
+      </c>
       <c r="M133" s="25" t="n"/>
       <c r="N133" s="25" t="n"/>
       <c r="O133" s="25" t="n"/>
       <c r="P133" s="25" t="n"/>
     </row>
     <row r="134" ht="16.5" customHeight="1">
-      <c r="A134" s="21" t="n"/>
-      <c r="B134" s="21" t="n"/>
-      <c r="C134" s="21" t="n"/>
-      <c r="D134" s="21" t="n"/>
-      <c r="E134" s="21" t="n"/>
+      <c r="A134" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B134" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C134" s="21" t="inlineStr">
+        <is>
+          <t>Revise las claves del Registro FSLogix y determine cuáles aplicar</t>
+        </is>
+      </c>
+      <c r="D134" s="21" t="inlineStr">
+        <is>
+          <t>Los valores predeterminados y la configuración recomendada se informan en el artículo complementario de la columna "Más información". Si no se deben usar claves y/o valores recomendados, asegúrese de revisar con un experto de Microsoft AVD y documentar claramente sus elecciones.</t>
+        </is>
+      </c>
+      <c r="E134" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G134" s="21" t="n"/>
-      <c r="H134" s="15" t="n"/>
+      <c r="H134" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fslogix/concepts-configuration-examples</t>
+        </is>
+      </c>
       <c r="J134" s="22" t="n"/>
       <c r="K134" s="22" t="n"/>
-      <c r="L134" s="25" t="n"/>
+      <c r="L134" s="25" t="inlineStr">
+        <is>
+          <t>d34aad5e-8c78-4e1d-9666-7313c405674c</t>
+        </is>
+      </c>
       <c r="M134" s="25" t="n"/>
       <c r="N134" s="25" t="n"/>
       <c r="O134" s="25" t="n"/>
       <c r="P134" s="25" t="n"/>
     </row>
     <row r="135" ht="16.5" customHeight="1">
-      <c r="A135" s="21" t="n"/>
-      <c r="B135" s="21" t="n"/>
-      <c r="C135" s="21" t="n"/>
-      <c r="D135" s="21" t="n"/>
-      <c r="E135" s="21" t="n"/>
+      <c r="A135" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B135" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C135" s="21" t="inlineStr">
+        <is>
+          <t>Evite el uso de conexiones simultáneas o múltiples</t>
+        </is>
+      </c>
+      <c r="D135" s="21" t="inlineStr">
+        <is>
+          <t>No se recomiendan conexiones simultáneas o varias en Azure Virtual Desktop. Las conexiones simultáneas tampoco son compatibles con los hosts de sesión que se ejecutan en un grupo de hosts de escritorio virtual de Azure. OneDrive, si se usa, no admite conexiones simultáneas o múltiples con el mismo contenedor, bajo ninguna circunstancia. Para varias conexiones, no se recomienda el uso del mismo disco de perfil.</t>
+        </is>
+      </c>
+      <c r="E135" s="21" t="inlineStr">
+        <is>
+          <t>Alto</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G135" s="21" t="n"/>
-      <c r="H135" s="15" t="n"/>
+      <c r="H135" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/fslogix/concepts-multi-concurrent-connections</t>
+        </is>
+      </c>
       <c r="J135" s="22" t="n"/>
       <c r="K135" s="22" t="n"/>
-      <c r="L135" s="25" t="n"/>
+      <c r="L135" s="25" t="inlineStr">
+        <is>
+          <t>5e985b85-9c77-43e7-b261-623b775a917e</t>
+        </is>
+      </c>
       <c r="M135" s="25" t="n"/>
       <c r="N135" s="25" t="n"/>
       <c r="O135" s="25" t="n"/>
       <c r="P135" s="25" t="n"/>
     </row>
     <row r="136" ht="16.5" customHeight="1">
-      <c r="A136" s="21" t="n"/>
-      <c r="B136" s="21" t="n"/>
-      <c r="C136" s="21" t="n"/>
-      <c r="D136" s="21" t="n"/>
-      <c r="E136" s="21" t="n"/>
+      <c r="A136" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B136" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C136" s="21" t="inlineStr">
+        <is>
+          <t>Si se usa FSLogix Cloud Cache, considere mover el directorio de caché a la unidad temporal de la máquina virtual.</t>
+        </is>
+      </c>
+      <c r="D136" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cloud Cache utiliza la unidad del sistema operativo como almacenamiento en caché local y puede generar mucha presión en el disco de la máquina virtual. Según el SKU de la máquina virtual y el tamaño utilizado, la unidad temporal de la máquina virtual puede ser una solución viable y de alto rendimiento donde reubicar el contenido en caché de Cloud Cache. Antes de adoptar esta solución, se deben ejecutar pruebas para confirmar el rendimiento y la estabilidad. Puede encontrar más detalles sobre Cloud Cache aquí: https://learn.microsoft.com/en-us/fslogix/concepts-fslogix-cloud-cache. </t>
+        </is>
+      </c>
+      <c r="E136" s="21" t="inlineStr">
+        <is>
+          <t>Bajo</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G136" s="21" t="n"/>
-      <c r="H136" s="15" t="n"/>
+      <c r="H136" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/fslogix/cloud-cache-configuration-reference</t>
+        </is>
+      </c>
       <c r="J136" s="22" t="n"/>
       <c r="K136" s="22" t="n"/>
-      <c r="L136" s="25" t="n"/>
+      <c r="L136" s="25" t="inlineStr">
+        <is>
+          <t>b2d1215a-e114-4ba3-9df5-85ecdcd9bd3b</t>
+        </is>
+      </c>
       <c r="M136" s="25" t="n"/>
       <c r="N136" s="25" t="n"/>
       <c r="O136" s="25" t="n"/>
       <c r="P136" s="25" t="n"/>
     </row>
     <row r="137" ht="16.5" customHeight="1">
-      <c r="A137" s="21" t="n"/>
-      <c r="B137" s="21" t="n"/>
-      <c r="C137" s="21" t="n"/>
-      <c r="D137" s="21" t="n"/>
-      <c r="E137" s="21" t="n"/>
+      <c r="A137" s="21" t="inlineStr">
+        <is>
+          <t>Almacenamiento</t>
+        </is>
+      </c>
+      <c r="B137" s="21" t="inlineStr">
+        <is>
+          <t>FSLogix</t>
+        </is>
+      </c>
+      <c r="C137" s="21" t="inlineStr">
+        <is>
+          <t>Revise el uso de la redirección FSLogix.</t>
+        </is>
+      </c>
+      <c r="D137" s="21" t="inlineStr">
+        <is>
+          <t>REDIRECTION.XML archivo se utiliza para controlar qué carpetas se redirigen fuera del contenedor de perfiles a la unidad 'C:'. Las exclusiones deben ser la excepción y nunca deben usarse a menos que la exclusión específica sea completamente entendida por la persona que configura la exclusión. Las exclusiones siempre deben probarse completamente en el entorno donde se pretende implementar. La configuración de exclusiones puede afectar a la funcionalidad, la estabilidad y el rendimiento.</t>
+        </is>
+      </c>
+      <c r="E137" s="21" t="inlineStr">
+        <is>
+          <t>Medio</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>No verificado</t>
+        </is>
+      </c>
       <c r="G137" s="21" t="n"/>
-      <c r="H137" s="15" t="n"/>
+      <c r="H137" s="15" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/fslogix/manage-profile-content-cncpt#redirectionsxml</t>
+        </is>
+      </c>
       <c r="J137" s="22" t="n"/>
       <c r="K137" s="22" t="n"/>
-      <c r="L137" s="25" t="n"/>
+      <c r="L137" s="25" t="inlineStr">
+        <is>
+          <t>0b50ca97-b1d2-473c-b4d9-6e98b0f912de</t>
+        </is>
+      </c>
       <c r="M137" s="25" t="n"/>
       <c r="N137" s="25" t="n"/>
       <c r="O137" s="25" t="n"/>
@@ -9415,20 +9974,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -9440,123 +10097,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F120" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F138" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -9711,7 +10253,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Gestión de redes</t>
+          <t>Calcular</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -9733,7 +10275,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Calcular</t>
+          <t>Gestión de redes</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -9772,21 +10314,21 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Seguridad</t>
+          <t>Monitoreo y Gestión</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguridad</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>BC/DR</t>
+          <t>Continuidad del negocio y recuperación ante desastres</t>
         </is>
       </c>
     </row>

--- a/spreadsheet/macrofree/avd_checklist.es.xlsx
+++ b/spreadsheet/macrofree/avd_checklist.es.xlsx
@@ -1069,12 +1069,12 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Determinar el SLA de alta disponibilidad esperado para aplicaciones o escritorios publicados a través de AVD</t>
+          <t>Determinar el Acuerdo de Nivel de Servicio de Alta Disponibilidad esperado para aplicaciones o escritorios publicados a través de AVD</t>
         </is>
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>El plano de control AVD no ofrece un acuerdo de nivel de servicio respaldado financieramente. Nos esforzamos por lograr una disponibilidad mínima del 99,9 % para las direcciones URL del servicio Azure Virtual Desktop. La disponibilidad de las máquinas virtuales host de sesión en su suscripción está cubierta por el SLA de máquinas virtuales. También se debe considerar la disponibilidad de recursos/servicios dependientes y de infraestructura para satisfacer adecuadamente los requisitos globales de alta disponibilidad.</t>
+          <t>El plano de control de AVD no ofrece un acuerdo de nivel de servicio respaldado financieramente. Nos esforzamos por lograr al menos un 99,9 % de disponibilidad para las direcciones URL del servicio Azure Virtual Desktop. La disponibilidad de las máquinas virtuales de host de sesión de la suscripción está cubierta por el Acuerdo de Nivel de Servicio de Máquinas Virtuales. También se deben tener en cuenta los recursos/servicios dependientes y la disponibilidad de la infraestructura para satisfacer adecuadamente los requisitos globales de alta disponibilidad.</t>
         </is>
       </c>
       <c r="E8" s="21" t="inlineStr">
@@ -1119,12 +1119,12 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Evaluar los requisitos de recuperación ante desastres geográficos para grupos de hosts AVD</t>
+          <t>Evalúe los requisitos de recuperación ante desastres geográfica para grupos de hosts de AVD</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
         <is>
-          <t>El modelo 'Activo-Activo' se puede lograr con varios grupos de hosts en diferentes regiones. No se recomienda un único grupo de hosts con máquinas virtuales de diferentes regiones. Si se van a utilizar varios grupos para los mismos usuarios, se debe resolver el problema de cómo sincronizar/replicar perfiles de usuario. FSLogix Cloud Cache podría usarse, pero debe revisarse y planificarse cuidadosamente, o los clientes pueden decidir no sincronizar / replicar en absoluto. "Activo-pasivo" se puede lograr mediante Azure Site Recovery (ASR) o la implementación de grupos a petición con un mecanismo automatizado. Para una discusión detallada sobre BCDR multi-región, lea el artículo complementario en la columna 'Más información' y esta página relacionada con FSLogix: https://learn.microsoft.com/en-us/fslogix/concepts-container-recovery-business-continuity.</t>
+          <t>El modelo "Activo-Activo" se puede lograr con varios grupos de hosts en diferentes regiones. No se recomienda un único grupo de hosts con máquinas virtuales de diferentes regiones. Si se van a utilizar varios grupos para los mismos usuarios, se debe resolver el problema de cómo sincronizar/replicar los perfiles de usuario. Se puede usar la caché en la nube de FSLogix, pero debe revisarse y planificarse cuidadosamente, o los clientes pueden decidir no sincronizar ni replicar en absoluto. "Activo-pasivo" se puede lograr mediante Azure Site Recovery (ASR) o la implementación de grupos a petición con un mecanismo automatizado. Para obtener una explicación detallada sobre BCDR multirregional, lea el artículo complementario en la columna "Más información" y esta página relacionada con FSLogix: https://learn.microsoft.com/fslogix/concepts-container-recovery-business-continuity.</t>
         </is>
       </c>
       <c r="E9" s="21" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Separar las aplicaciones críticas en diferentes grupos de hosts AVD</t>
+          <t>Separe las aplicaciones críticas en diferentes grupos de hosts de AVD</t>
         </is>
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>Antes de abordar la planeación y el diseño de BCDR de Azure Virtual Desktop, es importante considerar inicialmente qué aplicaciones que se consumen a través de AVD son críticas. Es posible que desee separarlas de las aplicaciones no críticas y usar un grupo de hosts independiente con un enfoque y capacidades de recuperación ante desastres diferentes.</t>
+          <t>Antes de abordar la planeación y el diseño de BCDR de Azure Virtual Desktop, es importante tener en cuenta inicialmente qué aplicaciones consumidas a través de AVD son críticas. Es posible que desee separarlos de las aplicaciones no críticas y usar un grupo de hosts independiente con un enfoque y capacidades de recuperación ante desastres diferentes.</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
@@ -1219,12 +1219,12 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Planeación de la mejor opción de resistencia para la implementación del grupo de hosts AVD</t>
+          <t>Planear la mejor opción de resistencia para la implementación del grupo de hosts de AVD</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>Cada grupo de hosts se puede implementar mediante zonas de disponibilidad (AZ) o conjunto de disponibilidad (AS). Para maximizar la resistencia, se recomienda el uso de AZ: en el momento de la creación del grupo de hosts, puede decidir distribuir los hosts de sesión del grupo de hosts en todas las zonas de disponibilidad disponibles. El uso de AS no protegerá contra errores de un solo centro de datos, por lo que solo debe usarse en regiones donde AZ no esté disponible. Más detalles sobre AZ y AVD en el artículo complementario. Para una comparación entre AZ y AS puede leer aquí: https://learn.microsoft.com/en-us/azure/virtual-machines/availability.</t>
+          <t>Cada grupo de hosts se puede implementar mediante zonas de disponibilidad (AZ) o conjunto de disponibilidad (AS). Para maximizar la resistencia, se recomienda el uso de AZ: en el momento de la creación del grupo de hosts, puede decidir distribuir los hosts de sesión del grupo de hosts entre todas las zonas de disponibilidad disponibles. El uso de AS no protegerá de errores de un solo centro de datos, por lo que solo debe usarse en regiones donde AZ no esté disponible. Más detalles sobre AZ y AVD en el artículo complementario. Para una comparación entre AZ y AS puedes leer aquí: https://learn.microsoft.com/azure/virtual-machines/availability.</t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1269,12 +1269,12 @@
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>Evaluar el requisito de copia de seguridad de las máquinas virtuales host de sesión AVD</t>
+          <t>Evaluar el requisito de hacer una copia de seguridad de las VM de host de sesión de AVD</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>Copia de seguridad de Azure se puede usar para proteger máquinas virtuales del grupo de hosts. Para los grupos agrupados, esto no es necesario ya que debe ser apátrida. En su lugar, esta opción se puede considerar para grupos de hosts personales.</t>
+          <t>Azure Backup se puede usar para proteger las máquinas virtuales del grupo de hosts. En el caso de los grupos agrupados, esto no es necesario, ya que no debe tener estado. En su lugar, esta opción se puede considerar para los grupos de anfitriones personales.</t>
         </is>
       </c>
       <c r="E12" s="21" t="inlineStr">
@@ -1319,12 +1319,12 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>Preparar una estrategia de recuperación ante desastres local para hosts de sesión de grupo de hosts personales</t>
+          <t>Preparación de una estrategia de recuperación ante desastres local para hosts de sesión de grupo de hosts personales</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>Incluso para grupos personales, se recomienda el uso de zonas de disponibilidad, cuando estén disponibles. Son posibles tres posibles estrategias de recuperación ante desastres en la región, se recomienda seleccionar la mejor en función del costo, RTO/RPO y, si es realmente necesario, guardar todo el disco del sistema operativo de máquina virtual: (1) crear cada host de sesión en una zona específica (AZ) y, a continuación, usar Azure Site Recovery (ASR) para replicar en una zona diferente. (2) Use Copia de seguridad de Azure para realizar copias de seguridad y restaurar el host de sesión específico en una zona de disponibilidad diferente. (3) Cree un nuevo host de sesión en una zona de disponibilidad diferente y confíe en FSLogix y/o OneDrive para que los datos y la configuración estén disponibles en la nueva máquina. Todas las opciones requieren la intervención del administrador para DR y la asignación directa de usuarios a nivel de grupo de hosts, luego deben planificarse y configurarse de antemano.</t>
+          <t>Incluso en el caso de los grupos personales, se recomienda el uso de zonas de disponibilidad, cuando estén disponibles. Son posibles tres posibles estrategias de recuperación ante desastres en la región, se recomienda seleccionar la mejor en función del costo, RTO/RPO y si es realmente necesario guardar todo el disco del sistema operativo de la máquina virtual: (1) crear cada host de sesión en una zona específica (AZ) y, a continuación, usar Azure Site Recovery (ASR) para replicar en una zona diferente. (2) Use Azure Backup para realizar copias de seguridad y restaurar el host de sesión específico en una zona de disponibilidad diferente. (3) Cree un nuevo host de sesión en una zona de disponibilidad diferente y confíe en FSLogix o OneDrive para que los datos y la configuración estén disponibles en la nueva máquina. Todas las opciones requieren la intervención del administrador para la recuperación ante desastres y la asignación directa de usuarios en el nivel del grupo de hosts, luego deben planificarse y configurarse de antemano.</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1369,12 +1369,12 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>Planeación de la disponibilidad de Golden Image entre regiones</t>
+          <t>Planear la disponibilidad de Golden Image entre regiones</t>
         </is>
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>Si se usan imágenes personalizadas para implementar máquinas virtuales de grupos de hosts de AVD, es importante asegurarse de que esos artefactos estén disponibles en todas las regiones donde se implementa AVD. El servicio Galería de proceso de Azure se puede usar para replicar imágenes en todas las regiones donde se implementa un grupo de hosts, con almacenamiento redundante y en varias copias. Tenga en cuenta que el servicio Galería de proceso de Azure no es un recurso global. Para escenarios de recuperación ante desastres, la práctica recomendada es tener al menos dos galerías, en diferentes regiones.</t>
+          <t>Si se usan imágenes personalizadas para implementar VM de AVD Host Pool, es importante asegurarse de que esos artefactos estén disponibles en todas las regiones en las que se implementa AVD. El servicio Azure Compute Gallery se puede usar para replicar imágenes en todas las regiones en las que se implementa un grupo de hosts, con almacenamiento redundante y en varias copias. Tenga en cuenta que el servicio Azure Compute Gallery no es un recurso global. En el caso de los escenarios de recuperación ante desastres, el procedimiento recomendado es tener al menos dos galerías en diferentes regiones.</t>
         </is>
       </c>
       <c r="E14" s="21" t="inlineStr">
@@ -1419,12 +1419,12 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evaluar las dependencias de infraestructura y aplicaciones </t>
+          <t xml:space="preserve">Evalúe las dependencias de la infraestructura y las aplicaciones </t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Si los usuarios de la infraestructura AVD necesitan acceso a recursos locales, la alta disponibilidad de la infraestructura de red necesaria para conectarse también es crítica y debe tenerse en cuenta. Es necesario evaluar la resiliencia de la infraestructura de autenticación. Los aspectos de BCDR para aplicaciones dependientes y otros recursos deben considerarse para garantizar la disponibilidad en la ubicación secundaria de DR.</t>
+          <t>Si los usuarios de la infraestructura AVD necesitan acceso a recursos locales, la alta disponibilidad de la infraestructura de red necesaria para conectarse también es fundamental y debe tenerse en cuenta. Es necesario evaluar la resiliencia de la infraestructura de autenticación. Es necesario tener en cuenta los aspectos de BCDR para las aplicaciones dependientes y otros recursos para garantizar la disponibilidad en la ubicación de recuperación ante desastres secundaria.</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>Evaluar qué datos deben protegerse en los contenedores de perfil y Office</t>
+          <t>Evalúe qué datos deben protegerse en los contenedores de perfiles y Office</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>No todos los datos dentro de los perfiles de usuario de FSLogix pueden merecer protección contra desastres. Además, si se utiliza almacenamiento externo, por ejemplo, OneDrive o servidores de archivos/recursos compartidos, lo que queda en el perfil FSLogix es mínimo y podría perderse en algunas circunstancias extremas. En otros casos, los datos dentro del perfil se pueden reconstruir desde otros almacenamientos (por ejemplo, la Bandeja de entrada de Outlook en modo caché).</t>
+          <t>Es posible que no todos los datos dentro de los perfiles de usuario de FSLogix merezcan protección contra desastres. Además, si se usa almacenamiento externo, por ejemplo, OneDrive o servidores de archivos/recursos compartidos, lo que queda en el perfil de FSLogix es mínimo y podría perderse en algunas circunstancias extremas. En otros casos, los datos dentro del perfil se pueden reconstruir desde otros almacenamientos (por ejemplo, la bandeja de entrada de Outlook en modo de caché).</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>Crear una estrategia de protección de copia de seguridad para contenedores de perfiles y Office</t>
+          <t>Creación de una estrategia de protección de copia de seguridad para contenedores de perfiles y Office</t>
         </is>
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>Prevenir la pérdida de datos para los datos críticos del usuario es importante, el primer paso es evaluar qué datos deben guardarse y protegerse. Si usa OneDrive u otro almacenamiento externo, es posible que no sea necesario guardar los datos del perfil de usuario o de los contenedores de Office. Se debe considerar un mecanismo apropiado para proporcionar protección a los datos críticos del usuario. El servicio Copia de seguridad de Azure se puede usar para proteger los datos de contenedores de Office y perfiles cuando se almacenan en los niveles Standard y Premium de Azure Files. Azure NetApp Files Snapshots and Policies se puede usar para Azure NetApp Files (todos los niveles).</t>
+          <t>Es importante evitar la pérdida de datos de los usuarios críticos, el primer paso es evaluar qué datos deben guardarse y protegerse. Si usa OneDrive u otro almacenamiento externo, es posible que no sea necesario guardar el perfil de usuario o los datos de los contenedores de Office. Se debe considerar un mecanismo adecuado para proporcionar protección a los datos críticos de los usuarios. El servicio Azure Backup se puede usar para proteger los datos de los contenedores de Office y de perfil cuando se almacenan en los niveles Estándar y Premium de Azure Files. Las instantáneas y directivas de Azure NetApp Files se pueden usar para Azure NetApp Files (todos los niveles).</t>
         </is>
       </c>
       <c r="E17" s="21" t="inlineStr">
@@ -1569,12 +1569,12 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Evaluar los requerimientos de replicación y la resiliencia del almacenamiento de almacenamiento de información de contenedores de perfiles para fines de BCDR</t>
+          <t>Evalúe los requisitos de replicación y la resistencia del almacenamiento de contenedores de perfiles para el propósito de BCDR</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>En AVD, se pueden usar varios mecanismos y estrategias de replicación para los datos de usuario que residen en contenedores FSLogix: [Patrón de perfil #1]: mecanismos de replicación de almacenamiento nativos de Azure, por ejemplo, replicación GRS estándar de Azure Files, replicación entre regiones de Azure NetApp Files. Se recomienda usar almacenamiento replicado en zona (ZRS) o almacenamiento con replicación geográfica (GRS) para Azure Files. LRS con resiliencia solo local se puede usar si no se requiere protección de zona o región. NOTA: Azure Files Share Standard es LRS/ZRS/GRS, pero con la compatibilidad grande de 100 TB habilitada, solo se admiten LRS/ZRS. [Patrón de perfil # 2]: FSLogix Cloud Cache está integrado en un mecanismo automático para replicar contenedores entre diferentes (hasta 4) cuentas de almacenamiento. Cloud Cache solo debe usarse cuando:(1) Perfil de usuario o contenedores de Office disponibilidad de datos requerida El SLA de alta disponibilidad es crítico y debe ser resistente a los errores de la región. (2) La opción de almacenamiento seleccionada no puede satisfacer los requisitos de BCDR. Por ejemplo, con el nivel Premium de Azure File Share o Azure File Share Standard con compatibilidad con archivos grandes habilitada, GRS no está disponible. (3) Cuando se requiere replicación entre almacenamiento de información dispar. [Patrón de perfil # 3]: solo configure la recuperación geográfica ante desastres para los datos de la aplicación y no para los contenedores de datos / perfiles de usuario: almacene los datos importantes de la aplicación en almacenamientos separados, como OneDrive u otro almacenamiento externo con su propio mecanismo de DR incorporado.</t>
+          <t>En AVD, se pueden usar varios mecanismos y estrategias de replicación para los datos de usuario que residen en contenedores de FSLogix: [Patrón de perfil #1]: mecanismos de replicación de almacenamiento nativo de Azure, por ejemplo, replicación GRS estándar de Azure Files, replicación entre regiones de Azure NetApp Files. Se recomienda usar el almacenamiento replicado de zona (ZRS) o el almacenamiento replicado geográficamente (GRS) para Azure Files. LRS con resistencia solo local se puede usar si no se requiere protección de zona o región. NOTA: Azure Files Share Standard es LRS/ZRS/GRS, pero con la compatibilidad con 100 TB de gran tamaño habilitada, solo se admiten LRS/ZRS. [Patrón de perfil #2]: FSLogix Cloud Cache está integrado en un mecanismo automático para replicar contenedores entre diferentes (hasta 4) cuentas de almacenamiento. Cloud Cache solo se debe usar cuando:(1) La disponibilidad de datos de perfil de usuario o contenedores de Office requiere un acuerdo de nivel de servicio de alta disponibilidad crítico y debe ser resistente a errores de región. (2) La opción de almacenamiento seleccionada no puede satisfacer los requisitos de BCDR. Por ejemplo, con el nivel Premium de Azure File Share o Azure File Share Standard con compatibilidad con archivos grandes habilitada, GRS no está disponible. (3) Cuando se requiere la replicación entre almacenamiento dispar. [Patrón de perfil #3]: Configure solo la recuperación ante desastres geográfica para los datos de la aplicación y no para los contenedores de datos de usuario/perfil: almacene los datos importantes de la aplicación en almacenamientos separados, como OneDrive u otro almacenamiento externo con su propio mecanismo de recuperación ante desastres incorporado.</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>Para la recuperación ante desastres local, se puede usar Azure Backup for Azure Files. Para la recuperación ante desastres geográficos entre regiones: GRS para Azure Files solo está disponible con SKU estándar y sin compatibilidad con recursos compartidos grandes, por lo que no es adecuado en la mayoría de los escenarios de clientes. Si se requiere replicación geográfica con Azure File Share Premium, se puede evaluar la replicación con FSLogix Cloud Cache o solo se debe considerar la resistencia de la zona de disponibilidad (AZ) "en la región".</t>
+          <t>Para la recuperación ante desastres local, se puede usar Azure Backup para Azure Files. Para la recuperación ante desastres geográfica entre regiones: GRS para Azure Files solo está disponible con una SKU estándar y no es compatible con recursos compartidos grandes, por lo que no es adecuado en la mayoría de los escenarios de clientes. Si se requiere la replicación geográfica con Azure File Share Premium, se puede evaluar la replicación con la caché en la nube de FSLogix o se debe tener en cuenta la resistencia solo de la zona de disponibilidad (AZ) "en la región".</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">El almacenamiento con redundancia de zona maximizará la resistencia dentro de la región para los datos del perfil de usuario. ZRS es compatible con recursos compartidos de archivos premium a través del tipo de cuenta de almacenamiento 'FileStorage'. ZRS es compatible con las cuentas de almacenamiento v2 de uso general estándar. El uso del almacenamiento con redundancia de zona debe combinarse con la implementación con redundancia de zona de hosts de sesión en cada grupo de hosts. </t>
+          <t xml:space="preserve">El almacenamiento con redundancia de zona maximizará la resistencia en la región para los datos de perfil de usuario. ZRS es compatible con recursos compartidos de archivos premium a través del tipo de cuenta de almacenamiento "FileStorage". ZRS es compatible con las cuentas de almacenamiento estándar de uso general v2. El uso del almacenamiento con redundancia de zona debe combinarse con la implementación con redundancia de zona de los hosts de sesión en cada grupo de hosts. </t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>Para la recuperación ante desastres local, está disponible la copia de seguridad nativa de Azure NetApp Files (ANF). ANF es esencialmente redundante localmente, entonces para la recuperación de desastres geográficos entre regiones es necesario utilizar un mecanismo adicional que sea la replicación entre regiones (CRR) https://learn.microsoft.com/en-us/azure/azure-netapp-files/cross-region-replication-create-peering. Actualmente, ANF no proporciona replicación ni redundancia en diferentes zonas de disponibilidad (AZ), solo la posibilidad de seleccionar en qué AZ colocar el volumen ANF: https://learn.microsoft.com/en-us/azure/azure-netapp-files/manage-availability-zone-volume-placement.</t>
+          <t>Para la recuperación ante desastres local, está disponible la copia de seguridad nativa de Azure NetApp Files (ANF). ANF es esencialmente redundante localmente, por lo que para la recuperación ante desastres geográfica entre regiones es necesario usar un mecanismo adicional que es la replicación entre regiones (CRR) https://learn.microsoft.com/azure/azure-netapp-files/cross-region-replication-create-peering. Actualmente, ANF no proporciona replicación ni redundancia entre diferentes zonas de disponibilidad (AZ), solo la posibilidad de seleccionar en qué única AZ colocar el volumen ANF: https://learn.microsoft.com/azure/azure-netapp-files/manage-availability-zone-volume-placement.</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1769,12 +1769,12 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Determinar cómo se implementarán las aplicaciones en los grupos de hosts AVD</t>
+          <t>Determinar cómo se implementarán las aplicaciones en los grupos de hosts de AVD</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>Las aplicaciones se pueden preinstalar en la(s) imagen(es) dorada, se pueden adjuntar mediante la función MSIX &amp; AppAttach o distribuirse a los hosts de sesión después de la implementación del grupo de hosts utilizando métodos tradicionales de distribución de software.</t>
+          <t>Las aplicaciones se pueden preinstalar en las imágenes maestras, se pueden adjuntar mediante la función MSIX y AppAttach o se pueden distribuir a los hosts de sesión después de la implementación del grupo de hosts mediante métodos tradicionales de distribución de software.</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1819,12 +1819,12 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Estimar el número de imágenes doradas que se requerirán</t>
+          <t>Calcule el número de imágenes áureas que se necesitarán</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>Se pueden requerir múltiples imágenes doradas para admitir diferentes versiones y / o configuraciones del sistema operativo, diferentes grupos de aplicaciones que deben separarse y no se pueden incluir en una sola imagen.</t>
+          <t>Es posible que se requieran varias imágenes maestras para admitir diferentes versiones y/o configuraciones del sistema operativo, diferentes grupos de aplicaciones que deben separarse y no se pueden incluir en una sola imagen.</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
@@ -1869,12 +1869,12 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Determinar qué imagenes del sistema operativo usará para la implementación del grupo de hosts</t>
+          <t>Determine qué imágenes del sistema operativo usará para la implementación del grupo de hosts</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Determine qué SO invitado se usará para implementar cada grupo de hosts: Windows 10 frente a Windows Server, Marketplace frente a imágenes personalizadas</t>
+          <t>Determinar qué sistema operativo invitado se usará para implementar cada grupo de hosts: Windows 10 frente a Windows Server, Marketplace frente a imágenes personalizadas</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>Las imágenes personalizadas de Azure VM se pueden crear y almacenar de diferentes maneras: en una Galería de proceso de Azure, como un objeto de imagen administrado o como un disco administrado en el almacenamiento. La forma recomendada es usar la Galería de proceso de Azure.</t>
+          <t>Las imágenes personalizadas de máquinas virtuales de Azure se pueden crear y almacenar de diferentes maneras: en una instancia de Azure Compute Gallery, como un objeto de imagen administrada o como un disco administrado en el almacenamiento. La manera recomendada es usar Azure Compute Gallery.</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1969,12 +1969,12 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Diseñar el proceso de compilación para imágenes personalizadas</t>
+          <t>Diseña tu proceso de compilación para imágenes personalizadas</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>Si se van a usar imágenes personalizadas, planee un proceso de compilación automatizado. Si no existe una fábrica de software preexistente, considere la posibilidad de usar plantillas de imagen personalizadas o Azure Image Builder para automatizar el proceso de compilación.</t>
+          <t>Si se van a usar imágenes personalizadas, planifique un proceso de compilación automatizado. Si no existe ninguna fábrica de software preexistente, considere la posibilidad de usar plantillas de imagen personalizadas o Azure Image Builder para automatizar el proceso de compilación.</t>
         </is>
       </c>
       <c r="E26" s="21" t="inlineStr">
@@ -2019,12 +2019,12 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Si se va a utilizar una imagen personalizada, consulta las prácticas recomendadas para AVD sobre cómo crear una imagen personalizada</t>
+          <t>Si se va a usar una imagen personalizada, consulta las prácticas recomendadas para AVD sobre cómo crear una imagen personalizada</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Hay algunas mejores prácticas y recomendaciones conocidas para la personalización de la imagen dorada, asegúrese de consultar el artículo al que se hace referencia.</t>
+          <t>Hay algunas prácticas recomendadas y recomendaciones conocidas para la personalización de la imagen dorada, asegúrese de consultar el artículo al que se hace referencia.</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2068,12 +2068,12 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Incluir la última versión de FSLogix en el proceso de actualización de imagen dorada</t>
+          <t>Incluir la versión más reciente de FSLogix en el proceso de actualización de la imagen maestra</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>La pila FSLogix instalada en hosts de sesión AVD no proporciona capacidad de actualización automática. Por esta razón, se recomienda descargar la última versión de FSLogix e incluirla en el proceso de actualización de la imagen dorada.</t>
+          <t>La pila de FSLogix instalada en hosts de sesión de AVD no proporciona capacidad de actualización automática. Por esta razón, se recomienda descargar la última versión de FSLogix e incluirla en el proceso de actualización de la imagen dorada.</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Evaluar el uso de Virtual-Desktop-Optimization-Tool</t>
+          <t>Evalúe el uso de Virtual-Desktop-Optimization-Tool</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Este conjunto de herramientas se ha creado para aplicar automáticamente la configuración a la que se hace referencia en las notas del producto 'Optimización de Windows 10, versión 2004 para un rol de infraestructura de escritorio virtual (VDI)': https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Se debe considerar el uso de la herramienta y / o las optimizaciones mencionadas en el documento técnico. </t>
+          <t xml:space="preserve">Este conjunto de herramientas se ha creado para aplicar automáticamente la configuración a la que se hace referencia en las notas del producto "Optimización de Windows 10, versión 2004 para un rol de infraestructura de escritorio virtual (VDI)": https://docs.microsoft.com/windows-server/remote/remote-desktop-services/rds-vdi-recommendations-2004. Se debe tener en cuenta el uso de la herramienta y/o las optimizaciones mencionadas en el documento técnico. </t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>Si se usa OneDrive y se incluye en una imagen dorada, asegúrese de seguir el procedimiento de configuración indicado en el artículo complementario de la sección "Más información". No está en el alcance de esta lista de comprobación de AVD, pero las optimizaciones de OneDrive como 'Redirección de carpetas conocidas' y 'Archivos a petición' deben evaluarse para reducir el espacio utilizado en los perfiles de FSLogix y proporcionar una mejor experiencia de usuario. En la actualidad, OneDrive no es compatible con aplicaciones remotas.</t>
+          <t>Si se usa OneDrive y se incluye en una imagen maestra, asegúrese de seguir el procedimiento de configuración que se indica en el artículo complementario de la sección "Más información". No está en el ámbito de esta lista de comprobación de AVD, pero las optimizaciones de OneDrive como "Redirección de carpetas conocidas" y "Archivos a petición" deben evaluarse para reducir el espacio utilizado en los perfiles de FSLogix y proporcionar una mejor experiencia de usuario. Actualmente, OneDrive no es compatible con aplicaciones remotas.</t>
         </is>
       </c>
       <c r="E30" s="21" t="inlineStr">
@@ -2220,7 +2220,7 @@
       </c>
       <c r="D31" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de revisar los requisitos y el procedimiento de configuración contenidos en el artículo complementario en la columna 'Más información'. Dado que las actualizaciones automáticas de Teams estarán deshabilitadas, se recomienda comprobar e incluir la última versión de Teams en el proceso de actualización de la imagen dorada.</t>
+          <t>Asegúrese de revisar los requisitos y el procedimiento de configuración contenidos en el artículo complementario en la columna "Más información". Dado que las actualizaciones automáticas de Teams estarán deshabilitadas, se recomienda verificar e incluir la última versión de Teams en el proceso de actualización de la imagen dorada.</t>
         </is>
       </c>
       <c r="E31" s="21" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Evaluar el requisito de admitir varios idiomas</t>
+          <t>Evalúe el requisito de admitir varios idiomas</t>
         </is>
       </c>
       <c r="D32" s="21" t="inlineStr">
@@ -2314,12 +2314,12 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>No utilice la misma cuenta/recurso compartido de almacenamiento que los perfiles de FSLogix</t>
+          <t>No use la misma cuenta de almacenamiento o recurso compartido que los perfiles de FSLogix</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda encarecidamente utilizar cuentas de almacenamiento/recursos compartidos independientes para almacenar paquetes MSIX. Si es necesario, el almacenamiento puede escalar horizontalmente de forma independiente y no verse afectado por las actividades de E/S del perfil. Azure ofrece varias opciones de almacenamiento que se pueden usar para la conexión de aplicaciones MISX. Se recomienda usar Azure Files o Azure NetApp Files, ya que estas opciones ofrecen el mejor valor entre costo y gastos generales de administración. </t>
+          <t xml:space="preserve">Se recomienda encarecidamente usar cuentas de almacenamiento o recursos compartidos independientes para almacenar paquetes MSIX. Si es necesario, el almacenamiento se puede escalar horizontalmente de forma independiente y no se ve afectado por las actividades de E/S de perfil. Azure ofrece varias opciones de almacenamiento que se pueden usar para la conexión de aplicaciones MISX. Se recomienda usar Azure Files o Azure NetApp Files, ya que estas opciones ofrecen el mejor valor entre costo y sobrecarga de administración. </t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2364,12 +2364,12 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Revisar las consideraciones de rendimiento para MSIX</t>
+          <t>Revisión de las consideraciones de rendimiento para MSIX</t>
         </is>
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>En el artículo al que se hace referencia, informamos pocas pero importantes consideraciones de rendimiento para el uso de MSIX en el contexto AVD, asegúrese de revisarlo cuidadosamente.</t>
+          <t>En el artículo al que se hace referencia, informamos sobre pocas pero importantes consideraciones de rendimiento para el uso de MSIX en el contexto de AVD, asegúrese de revisarlas detenidamente.</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -2414,12 +2414,12 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Comprobar los permisos de host de sesión adecuados para el recurso compartido MSIX</t>
+          <t>Comprobación de los permisos de host de sesión adecuados para el recurso compartido MSIX</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>La conexión de la aplicación MSIX requiere permisos de solo lectura para acceder al recurso compartido de archivos. Si va a almacenar las aplicaciones MSIX en Azure Files, deberá asignar a todas las máquinas virtuales host de sesión permisos de control de acceso basado en roles (RBAC) de cuentas de almacenamiento y permisos del sistema de archivos de nueva tecnología (NTFS) en el recurso compartido.</t>
+          <t>La conexión de la aplicación MSIX requiere permisos de solo lectura para acceder al recurso compartido de archivos. Si va a almacenar las aplicaciones MSIX en Azure Files, para los hosts de sesión, deberá asignar a todas las máquinas virtuales de host de sesión permisos de control de acceso basado en rol (RBAC) de cuenta de almacenamiento y de sistema de archivos de nueva tecnología (NTFS) en el recurso compartido.</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2464,12 +2464,12 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Paquetes MSIX para aplicaciones de 3ª parte</t>
+          <t>Paquetes MSIX para aplicaciones de terceros</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>El proveedor de software de 3rd party debe proporcionar un paquete MSIX, no se recomienda que el cliente intente el procedimiento de conversión sin el soporte adecuado del propietario de la aplicación.</t>
+          <t>El proveedor de software de terceros debe proporcionar un paquete MSIX, no se recomienda que el cliente intente el procedimiento de conversión sin el soporte adecuado del propietario de la aplicación.</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Deshabilitar la actualización automática para paquetes MSIX</t>
+          <t>Deshabilitar la actualización automática de paquetes MSIX</t>
         </is>
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>La aplicación MSIX adjunta no admite la actualización automática para aplicaciones MSIX, por lo que deben deshabilitarse.</t>
+          <t>La conexión de aplicaciones MSIX no admite la actualización automática para aplicaciones MSIX, por lo que deben estar deshabilitadas.</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
@@ -2564,12 +2564,12 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Revisar la compatibilidad con sistemas operativos</t>
+          <t>Revisión de la compatibilidad con los sistemas operativos</t>
         </is>
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>Para aprovechar MSIX &amp; App Attach, la imagen del SO invitado para el grupo de hosts AVD debe ser Windows 10/11 Enterprise o Windows 10/11 Enterprise Multi-session, versión 2004 o posterior.</t>
+          <t>Para aprovechar MSIX y App Attach, la imagen del sistema operativo invitado para el grupo de hosts AVD debe ser Windows 10/11 Enterprise o Windows 10/11 Enterprise Multisesión, versión 2004 o posterior.</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2609,17 +2609,17 @@
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>Host de sesión</t>
+          <t>Anfitrión de la sesión</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Evaluar el uso de la máquina virtual Gen2 para la implementación del grupo de hosts</t>
+          <t>Evaluación del uso de la máquina virtual Gen2 para la implementación del grupo de hosts</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
         <is>
-          <t>Una vez seleccionada la SKU de máquina virtual que se usará para la implementación del grupo de hosts, se recomienda usar el tipo Gen2 de la SKU para una mayor seguridad y capacidades mejoradas.</t>
+          <t>Una vez seleccionada la SKU de máquina virtual que se usará para la implementación del grupo de hosts, se recomienda usar el tipo Gen2 de la SKU para obtener una mayor seguridad y capacidades mejoradas.</t>
         </is>
       </c>
       <c r="E39" s="21" t="inlineStr">
@@ -2659,17 +2659,17 @@
       </c>
       <c r="B40" s="21" t="inlineStr">
         <is>
-          <t>Host de sesión</t>
+          <t>Anfitrión de la sesión</t>
         </is>
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Considere el uso de MMR (MultiMedia Redirection) para obtener un mejor rendimiento de video en el navegador</t>
+          <t>Considere la posibilidad de utilizar MMR (MultiMedia Redirection) para obtener un mejor rendimiento de vídeo en el navegador</t>
         </is>
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>MMR redirige el contenido multimedia del host de sesión a su máquina local para un procesamiento y representación más rápidos. Solo funciona cuando reproduce contenido multimedia en Microsoft Edge o Google Chrome. Consulte URL vinculada para obtener más detalles.</t>
+          <t>MMR redirige el contenido multimedia del host de sesión a su máquina local para un procesamiento y procesamiento más rápidos. Solo funciona cuando reproduce contenido multimedia en Microsoft Edge o Google Chrome. Consulte la URL vinculada para obtener más detalles.</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
@@ -2714,12 +2714,12 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Determinación del tipo de grupo de hosts que se va a usar</t>
+          <t>Determinar el tipo de grupo de hosts que se va a utilizar</t>
         </is>
       </c>
       <c r="D41" s="21" t="inlineStr">
         <is>
-          <t>Un grupo de hosts es una colección de máquinas virtuales de Azure que se registran en Azure Virtual Desktop como hosts de sesión. Un grupo host puede ser de dos tipos: Personal y Agrupado. Qué tipo usar, y cuántos, es una decisión de diseño clave que debe documentarse y validarse. Consulte el artículo complementario en la columna 'Más información' para obtener más detalles.</t>
+          <t>Un grupo de hosts es una colección de máquinas virtuales de Azure que se registran en Azure Virtual Desktop como hosts de sesión. Un grupo de hosts puede ser de dos tipos: Personal y Agrupado. Qué tipo usar, y cuántos, es una decisión de diseño clave que debe documentarse y validarse. Consulte el artículo complementario en la columna "Más información" para obtener más detalles.</t>
         </is>
       </c>
       <c r="E41" s="21" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estimar el número de grupos de hosts diferentes para implementar </t>
+          <t xml:space="preserve">Estimación del número de grupos de hosts diferentes que se van a implementar </t>
         </is>
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>Use los criterios de diseño para determinar el número de grupos de hosts que se van a implementar. Esto se basará en factores como diferentes imágenes del sistema operativo, compatibilidad con varias regiones, diferencias de hardware de VM invitada (como compatibilidad con GPU o no), diferentes expectativas de usuario y requisitos de tiempo de actividad (ejemplos pueden ser 'Ejecutivos', 'Trabajadores de oficina', 'Desarrolladores', etc.) y la configuración RDP del grupo de hosts (como la compatibilidad con la redirección de unidades). Estos determinarán el número de grupos de hosts, así como cuántos hosts habrá en cada grupo.</t>
+          <t>Utilice los criterios de diseño para determinar el número de grupos de hosts que se van a implementar. Esto se basará en factores como las diferentes imágenes del sistema operativo, la compatibilidad con varias regiones, las diferencias de hardware de la máquina virtual invitada (como la compatibilidad o no con la GPU), las diferentes expectativas de los usuarios y los requisitos de tiempo de actividad (los ejemplos pueden ser "Ejecutivos", "Trabajadores de oficina", "Desarrolladores", etc.) y la configuración de RDP del grupo de hosts (como la compatibilidad con la redirección de unidades). Estos determinarán el número de grupos de hosts, así como el número de hosts que habrá en cada grupo.</t>
         </is>
       </c>
       <c r="E42" s="21" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="D43" s="21" t="inlineStr">
         <is>
-          <t>Confirme que la diferencia entre asignación automática y directa se entiende bien y que la opción seleccionada es apropiada para el escenario en cuestión. Automático es la configuración predeterminada.</t>
+          <t>Confirme que se entiende bien la diferencia entre la asignación automática y la directa y que la opción seleccionada es adecuada para el escenario en cuestión. Automático es la configuración predeterminada.</t>
         </is>
       </c>
       <c r="E43" s="21" t="inlineStr">
@@ -2919,7 +2919,7 @@
       </c>
       <c r="D45" s="21" t="inlineStr">
         <is>
-          <t>El número de núcleos aumenta, la sobrecarga de sincronización del sistema también aumenta. Especialmente para el inicio de sesión de varios usuarios simultáneamente. Asegúrese de no usar una máquina virtual demasiado grande para el host de sesión</t>
+          <t>El número de núcleos aumenta, la sobrecarga de sincronización del sistema también aumenta. Especialmente para el inicio de sesión de varios usuarios simultáneamente. Asegúrese de no usar una máquina virtual que sea demasiado grande para el host de sesión</t>
         </is>
       </c>
       <c r="E45" s="21" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="D46" s="21" t="inlineStr">
         <is>
-          <t>AVD no admite la asignación de RemoteApp y el grupo de aplicaciones de escritorio (DAG) en un único grupo de hosts al mismo conjunto de usuarios. Si lo hace, un solo usuario tendrá dos sesiones de usuario en un solo grupo de hosts. Se supone que los usuarios no deben tener dos sesiones activas al mismo tiempo en el mismo grupo de hosts con el mismo perfil.</t>
+          <t>AVD no admite la asignación de RemoteApp y el grupo de aplicaciones de escritorio (DAG) en un solo grupo de hosts al mismo conjunto de usuarios. Si lo hace, un solo usuario tendrá dos sesiones de usuario en un único grupo de hosts. Se supone que los usuarios no deben tener dos sesiones activas al mismo tiempo en el mismo grupo de hosts con el mismo perfil.</t>
         </is>
       </c>
       <c r="E46" s="21" t="inlineStr">
@@ -3018,7 +3018,7 @@
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>Hay un límite de 500 grupos de aplicaciones que se pueden crear en AVD para cada inquilino de Microsoft Entra ID (antiguo Azure AD). El límite se puede aumentar (consulte el enlace complementario para obtener más detalles), pero no se recomienda.</t>
+          <t>Hay un límite de 500 grupos de aplicaciones que se pueden crear en AVD para cada inquilino de Microsoft Entra ID (anteriormente Azure AD). El límite se puede aumentar (consulte el enlace complementario para obtener más detalles), pero no se recomienda.</t>
         </is>
       </c>
       <c r="E47" s="21" t="inlineStr">
@@ -3063,12 +3063,12 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Estimar el número de aplicaciones para cada grupo de aplicaciones</t>
+          <t>Estimar el número de solicitudes para cada grupo de aplicaciones</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>Las aplicaciones se agrupan en Grupos de aplicaciones como contenedores para publicar y asignar permisos: se recomienda no publicar más de 50 aplicaciones por grupo de aplicaciones.</t>
+          <t>Las aplicaciones se agrupan en grupos de aplicaciones como contenedores para publicar y asignar permisos: se recomienda no publicar más de 50 aplicaciones por grupo de aplicaciones.</t>
         </is>
       </c>
       <c r="E48" s="21" t="inlineStr">
@@ -3112,12 +3112,12 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Evaluar el uso de FSLogix para grupos de hosts personales</t>
+          <t>Evaluación del uso de FSLogix para grupos de hosts personales</t>
         </is>
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>FSLogix no es necesario para los grupos de hosts personales, ya que cada máquina virtual se asigna estáticamente a un solo usuario, por lo que no hay necesidad inmediata de una solución de perfil móvil. En algunos escenarios de uso, FSLogix puede ayudar. Por ejemplo, se puede reasignar una máquina virtual, mover el usuario a otro escritorio, o usar un perfil móvil para guardar el perfil de usuario en una ubicación diferente para fines de recuperación ante desastres.</t>
+          <t>FSLogix no es necesario para los grupos de hosts personales, ya que cada máquina virtual se asigna estáticamente a un solo usuario, por lo que no se necesita una solución de perfil móvil inmediata. En algunos escenarios de uso, FSLogix puede ayudar. Por ejemplo, se puede reasignar una máquina virtual, mover el usuario a otro escritorio o usar un perfil móvil para guardar el perfil de usuario en una ubicación diferente con fines de recuperación ante desastres.</t>
         </is>
       </c>
       <c r="E49" s="21" t="inlineStr">
@@ -3133,7 +3133,7 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type?tabs=azure#reassign-a-personal-desktop</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/configure-host-pool-personal-desktop-assignment-type?tabs=azure#reassign-a-personal-desktop</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
@@ -3161,12 +3161,12 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Ejecución de pruebas de rendimiento de carga de trabajo para determinar el mejor SKU de máquina virtual de Azure y el tamaño que se debe usar</t>
+          <t>Ejecución de la prueba de rendimiento de la carga de trabajo para determinar la mejor SKU y tamaño de máquina virtual de Azure que se va a usar</t>
         </is>
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t>Utilice el enlace proporcionado para establecer un punto de partida para la decisión de SKU y, a continuación, valide mediante una prueba de rendimiento. Asegúrese de seleccionar un mínimo de cuatro núcleos para producción por host de sesión (sesión múltiple)</t>
+          <t>Utilice el vínculo proporcionado para establecer un punto de partida para la decisión de SKU y, a continuación, valide mediante una prueba de rendimiento. Asegúrese de que se selecciona un mínimo de cuatro núcleos para producción por host de sesión (multisesión)</t>
         </is>
       </c>
       <c r="E50" s="21" t="inlineStr">
@@ -3211,12 +3211,12 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Comprobar los límites de escalabilidad de AVD para el entorno</t>
+          <t>Verificar los límites de escalabilidad de AVD para el entorno</t>
         </is>
       </c>
       <c r="D51" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Es fundamental comprobar la capacidad de AVD y los límites informados en el artículo al que se hace referencia. Se aplican límites y umbrales adicionales para la administración de redes, computación, almacenamiento y servicios. </t>
+          <t xml:space="preserve">Es fundamental verificar la capacidad y los límites de AVD informados en el artículo al que se hace referencia. Se aplican límites y umbrales adicionales para la administración de redes, computación, almacenamiento y servicios. </t>
         </is>
       </c>
       <c r="E51" s="21" t="inlineStr">
@@ -3311,12 +3311,12 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Usar SKU de máquina virtual de Azure capaces de aprovechar las redes aceleradas</t>
+          <t>Uso de SKU de máquina virtual de Azure capaces de aprovechar las redes aceleradas</t>
         </is>
       </c>
       <c r="D53" s="21" t="inlineStr">
         <is>
-          <t>Siempre que sea posible, se recomienda aprovechar las SKU de VM con la función de red acelerada. Esta característica requiere SKU / tamaño de VM específico y versiones del sistema operativo, consulte la lista y los requisitos en el artículo complementario.</t>
+          <t>Siempre que sea posible, se recomienda aprovechar las SKU de máquina virtual con la característica de redes aceleradas. Esta característica requiere una SKU o tamaño de máquina virtual específicos y versiones del sistema operativo, consulte la lista y los requisitos en el artículo complementario.</t>
         </is>
       </c>
       <c r="E53" s="21" t="inlineStr">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Evaluar cuántos usuarios se conectarán a AVD y desde qué regiones</t>
+          <t>Evalúe cuántos usuarios se conectarán a AVD y desde qué regiones</t>
         </is>
       </c>
       <c r="D54" s="21" t="inlineStr">
@@ -3410,12 +3410,12 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Evaluar las dependencias externas para cada grupo de hosts</t>
+          <t>Evaluación de las dependencias externas para cada grupo de hosts</t>
         </is>
       </c>
       <c r="D55" s="21" t="inlineStr">
         <is>
-          <t>Se deben evaluar y revisar las dependencias de recursos externos al grupo de AVD, por ejemplo, Active Directory, recursos compartidos de archivos externos u otro almacenamiento, servicios y recursos locales, componentes de infraestructura de red como VPN o ExpressRoute, servicios externos y componentes de 3rd-party. Para todos estos recursos, es necesario evaluar la latencia del grupo de hosts AVD y considerar la conectividad. Además, las consideraciones de BCDR también deben aplicarse a estas dependencias.</t>
+          <t>Se deben evaluar y revisar las dependencias de recursos externos al grupo de AVD, por ejemplo, Active Directory, recursos compartidos de archivos externos u otro almacenamiento, servicios y recursos locales, componentes de infraestructura de red como VPN o ExpressRoute, servicios externos y componentes de terceros. Para todos estos recursos, se debe evaluar la latencia del grupo de hosts AVD y tener en cuenta la conectividad. Además, las consideraciones de BCDR también deben aplicarse a estas dependencias.</t>
         </is>
       </c>
       <c r="E55" s="21" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="D56" s="21" t="inlineStr">
         <is>
-          <t>AVD ofrece una variedad de tipos de clientes (fat, thin, web) para conectarse a través de diferentes plataformas (Windows, MacOS, iOS, Android). Revise las limitaciones de cada cliente y compare múltiples opciones cuando sea posible.</t>
+          <t>AVD ofrece una variedad de tipos de clientes (gruesos, delgados, web) para conectarse a través de diferentes plataformas (Windows, MacOS, iOS, Android). Revise las limitaciones de cada cliente y compare varias opciones cuando sea posible.</t>
         </is>
       </c>
       <c r="E56" s="21" t="inlineStr">
@@ -3480,7 +3480,7 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/en-us/azure/virtual-desktop/users/connect-windows</t>
+          <t>https://learn.microsoft.com/azure/virtual-desktop/users/connect-windows</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="D57" s="21" t="inlineStr">
         <is>
-          <t>Dependiendo de las ubicaciones de los usuarios y la implementación de la región AVD, los usuarios pueden tener una experiencia no óptima, por lo tanto, es importante probar lo antes posible en un entorno PoC pequeño. Ejecute la herramienta 'Azure Virtual Desktop Experience Estimator' para seleccionar la mejor región de Azure para implementar grupos de hosts. Más allá de la latencia de 150 ms, la experiencia del usuario puede no ser óptima.</t>
+          <t>Dependiendo de las ubicaciones de los usuarios y de la implementación de la región de AVD, es posible que los usuarios tengan una experiencia no óptima, por lo que es importante realizar pruebas lo antes posible en un entorno de PoC pequeño. Ejecute la herramienta "Estimador de experiencia de Azure Virtual Desktop" para seleccionar la mejor región de Azure para implementar grupos de hosts. Más allá de la latencia de 150 ms, la experiencia del usuario puede no ser óptima.</t>
         </is>
       </c>
       <c r="E57" s="21" t="inlineStr">
@@ -3557,12 +3557,12 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Evaluar y documentar la configuración de RDP para todos los grupos de usuarios</t>
+          <t>Evalúe y documente la configuración de RDP para todos los grupos de usuarios</t>
         </is>
       </c>
       <c r="D58" s="21" t="inlineStr">
         <is>
-          <t>Actualmente, la configuración de RDP solo se puede configurar en el nivel del grupo de hosts, no por usuario o grupo. Si se requieren diferentes configuraciones para diferentes conjuntos de usuarios, se recomienda crear varios grupos de hosts.</t>
+          <t>Actualmente, la configuración de RDP solo se puede configurar en el nivel de grupo de hosts, no por usuario o grupo. Si se requiere una configuración diferente para diferentes conjuntos de usuarios, se recomienda crear varios grupos de hosts.</t>
         </is>
       </c>
       <c r="E58" s="21" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Determine en qué regiones de Azure se implementarán los grupos de hosts AVD.</t>
+          <t>Determine en qué regiones de Azure se implementarán los grupos de hosts de AVD.</t>
         </is>
       </c>
       <c r="D59" s="21" t="inlineStr">
@@ -3655,12 +3655,12 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Determinar la ubicación de metadatos para el servicio AVD</t>
+          <t>Determinar la ubicación de los metadatos para el servicio AVD</t>
         </is>
       </c>
       <c r="D60" s="21" t="inlineStr">
         <is>
-          <t>AVD debe almacenar metadatos para admitir el servicio; Esto se almacena en la geografía especificada. Sin embargo, esto es independiente de las regiones donde se encuentran los grupos de servidores.</t>
+          <t>AVD debe almacenar metadatos para admitir el servicio; Esto se almacena en la geografía especificada. Sin embargo, esto es independiente de las regiones en las que se encuentran los grupos de hosts.</t>
         </is>
       </c>
       <c r="E60" s="21" t="inlineStr">
@@ -3704,12 +3704,12 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Comprobar las cuotas y la disponibilidad de Azure para tamaños y tipos de máquinas virtuales específicos en las regiones seleccionadas</t>
+          <t>Comprobación de las cuotas y la disponibilidad de Azure para tamaños y tipos de máquinas virtuales específicos en las regiones seleccionadas</t>
         </is>
       </c>
       <c r="D61" s="21" t="inlineStr">
         <is>
-          <t>Compruebe si hay SKU de máquina virtual específicas, especialmente si necesita GPU o SKU de especificaciones altas, y finalmente Azure NetApp Files si se usa.</t>
+          <t>Compruebe si hay SKU de máquina virtual específicas, especialmente si necesita SKU de GPU o de especificaciones altas y, finalmente, Azure NetApp Files, si se usa.</t>
         </is>
       </c>
       <c r="E61" s="21" t="inlineStr">
@@ -3753,12 +3753,12 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Creación de al menos dos controladores de dominio (DC) de Active Directory en un entorno de red virtual de Azure cerca del grupo de hosts AVD</t>
+          <t>Creación de al menos dos controladores de dominio (DC) de Active Directory en el entorno de red virtual de Azure cerca del grupo de hosts de AVD</t>
         </is>
       </c>
       <c r="D62" s="21" t="inlineStr">
         <is>
-          <t>Se recomiendan los controladores de dominio de AD en Azure (al menos dos en zonas de disponibilidad diferentes) para reducir la latencia para los usuarios que inician sesión en hosts de sesión AVD y, finalmente, para Azure NetApp Files y la integración de AD. Un DC debe poder comunicarse con los controladores de dominio para TODOS los dominios secundarios. Como alternativa, se debe usar la conectividad local para llegar a los controladores de dominio de AD.</t>
+          <t>Se recomiendan controladores de dominio de AD en Azure (al menos dos en diferentes zonas de disponibilidad) para reducir la latencia de los usuarios que inician sesión en hosts de sesión de AVD y, finalmente, para Azure NetApp Files y la integración de AD. Un controlador de dominio debe poder comunicarse con los controladores de dominio de TODOS los dominios secundarios. Como alternativa, se debe usar la conectividad local para llegar a los controladores de dominio de AD.</t>
         </is>
       </c>
       <c r="E62" s="21" t="inlineStr">
@@ -3802,12 +3802,12 @@
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Crear una unidad organizativa específica en Active Directory para cada grupo de hosts</t>
+          <t>Creación de una unidad organizativa específica en Active Directory para cada grupo de hosts</t>
         </is>
       </c>
       <c r="D63" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se recomienda crear una unidad organizativa independiente por grupo de hosts en una jerarquía de unidades organizativas independiente. Estas unidades organizativas contendrán cuentas de máquina de hosts de sesión AVD. </t>
+          <t xml:space="preserve">Se recomienda crear una unidad organizativa independiente por grupo de hosts en una jerarquía de unidades organizativas independiente. Estas unidades organizativas contendrán cuentas de máquina de hosts de sesión de AVD. </t>
         </is>
       </c>
       <c r="E63" s="21" t="inlineStr">
@@ -3852,12 +3852,12 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Revisar los GPO de dominio que se aplicarán a la unidad organizativa y que afectan a las funcionalidades de los hosts de sesión del grupo de hosts</t>
+          <t>Revise los GPO de dominio que se aplicarán a la unidad organizativa y que afectan a las funcionalidades de hosts de sesión del grupo de hosts</t>
         </is>
       </c>
       <c r="D64" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Revise detenidamente y, potencialmente, bloquee o filtre la herencia de GPO a las unidades organizativas que contienen grupos de hosts AVD. </t>
+          <t xml:space="preserve">Revisa detenidamente y, potencialmente, bloquea o filtra la herencia de GPO a las unidades organizativas que contienen grupos de hosts de AVD. </t>
         </is>
       </c>
       <c r="E64" s="21" t="inlineStr">
@@ -3902,12 +3902,12 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Configurar las opciones de FSLogix mediante la plantilla ADMX de GPO integrada proporcionada</t>
+          <t>Configuración de las opciones de FSLogix mediante la plantilla ADMX de GPO proporcionada integrada</t>
         </is>
       </c>
       <c r="D65" s="21" t="inlineStr">
         <is>
-          <t>Si se usan GPO de dominio de Active Directory, se recomienda configurar FSLogix mediante la plantilla ADMX de GPO integrada a la que se hace referencia en el artículo complementario de la columna "Más información"</t>
+          <t>Si se usan GPO de dominio de Active Directory, se recomienda configurar FSLogix mediante la plantilla ADMX de GPO proporcionada integrada a la que se hace referencia en el artículo complementario de la columna "Más información"</t>
         </is>
       </c>
       <c r="E65" s="21" t="inlineStr">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Crear una cuenta de usuario dedicada con solo permisos para unir la máquina virtual al dominio</t>
+          <t>Cree una cuenta de usuario dedicada con solo permisos para unir la máquina virtual al dominio</t>
         </is>
       </c>
       <c r="D66" s="21" t="inlineStr">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Crear un grupo de usuarios de dominio para cada conjunto de usuarios a los que se concederá acceso a cada grupo de aplicaciones del grupo de servidores host (DAG o RAG)</t>
+          <t>Cree un grupo de usuarios de dominio para cada conjunto de usuarios a los que se concederá acceso a cada grupo de aplicaciones de grupo de hosts (DAG o RAG)</t>
         </is>
       </c>
       <c r="D67" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evite conceder acceso por usuario, en su lugar use grupos de AD y replíquelos con el conector de Active Directory (ADC) en el identificador de Microsoft Entra (antiguo Azure AD). </t>
+          <t xml:space="preserve">Evite conceder acceso por usuario, en su lugar, use grupos de AD y replíquelos mediante el conector de Active Directory (ADC) en el identificador de Microsoft Entra (anteriormente Azure AD). </t>
         </is>
       </c>
       <c r="E67" s="21" t="inlineStr">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="D68" s="21" t="inlineStr">
         <is>
-          <t>Si se usa la integración de Azure Files Active Directory (AD), como parte del procedimiento de configuración, se creará una cuenta de AD para representar la cuenta de almacenamiento (recurso compartido de archivos). Puede elegir registrarse como cuenta de equipo o cuenta de inicio de sesión de servicio, consulte Preguntas frecuentes para obtener más información. Para las cuentas de equipo, hay una antigüedad de caducidad de contraseña predeterminada establecida en AD en 30 días. Del mismo modo, la cuenta de inicio de sesión del servicio puede tener una antigüedad de caducidad de contraseña predeterminada establecida en el dominio de AD o la unidad organizativa (OU). Para ambos tipos de cuenta, le recomendamos que compruebe la antigüedad de caducidad de la contraseña configurada en su entorno de AD y planee actualizar la contraseña de la identidad de la cuenta de almacenamiento de la cuenta de AD antes de la antigüedad máxima de la contraseña. Puede considerar la posibilidad de crear una nueva unidad organizativa (OU) de AD en AD y deshabilitar la directiva de caducidad de contraseñas en cuentas de equipo o cuentas de inicio de sesión de servicio en consecuencia.</t>
+          <t>Si se usa la integración de Active Directory (AD) de Azure Files, como parte del procedimiento de configuración, se creará una cuenta de AD para representar la cuenta de almacenamiento (recurso compartido de archivos). Puede optar por registrarse como una cuenta de equipo o una cuenta de inicio de sesión de servicio, consulte las preguntas frecuentes para obtener más información. En el caso de las cuentas de equipo, hay una edad de expiración de contraseña predeterminada establecida en AD de 30 días. Del mismo modo, la cuenta de inicio de sesión del servicio puede tener una antigüedad de caducidad de contraseña predeterminada establecida en el dominio de AD o en la unidad organizativa (OU). Para ambos tipos de cuenta, se recomienda comprobar la antigüedad de expiración de la contraseña configurada en el entorno de AD y planear la actualización de la contraseña de la identidad de la cuenta de almacenamiento de la cuenta de AD antes de la antigüedad máxima de la contraseña. Puede considerar la posibilidad de crear una nueva unidad organizativa (OU) de AD en AD y deshabilitar la directiva de expiración de contraseñas en las cuentas de equipo o las cuentas de inicio de sesión de servicio según corresponda.</t>
         </is>
       </c>
       <c r="E68" s="21" t="inlineStr">
@@ -4101,12 +4101,12 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Un bosque/dominio de Windows Server Active Directory debe estar sincronizado con Microsoft Entra ID</t>
+          <t>Un bosque/dominio de Windows Server Active Directory debe estar sincronizado con el identificador de Microsoft Entra</t>
         </is>
       </c>
       <c r="D69" s="21" t="inlineStr">
         <is>
-          <t>Puede configurarlo mediante Active Directory Connect (ADC) o Servicios de dominio de Azure AD (para organizaciones híbridas o en la nube). Microsoft Entra ID es el nuevo nombre de Azure Active Directory (Azure AD).</t>
+          <t>Puede configurarlo mediante Active Directory Connect (ADC) o Azure AD Domain Services (para organizaciones híbridas o en la nube). Microsoft Entra ID es el nuevo nombre de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="E69" s="21" t="inlineStr">
@@ -4146,17 +4146,17 @@
       </c>
       <c r="B70" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID</t>
+          <t>Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>Configuración del recurso compartido de Azure Files para el identificador de Microsoft Entra (antiguo Azure AD) Autenticación Kerberos en el escenario unido al identificador de Microsoft Entra</t>
+          <t>Configuración del recurso compartido de Azure Files para el identificador de Microsoft Entra (anteriormente Azure AD) Autenticación Kerberos en el escenario unido al identificador de Microsoft Entra</t>
         </is>
       </c>
       <c r="D70" s="21" t="inlineStr">
         <is>
-          <t>Si se usa Azure Files y se pueden cumplir los requisitos previos, se recomienda configurar la autenticación Kerberos (Microsoft Entra ID). Esta configuración permitirá almacenar perfiles FSLogix a los que pueden acceder las identidades de usuario híbridas desde hosts de sesión unidos a Azure AD sin necesidad de línea de visión de red para los controladores de dominio.</t>
+          <t>Si se usa Azure Files y se pueden cumplir los requisitos previos, se recomienda configurar la autenticación Kerberos (identificador de Microsoft Entra). Esta configuración permitirá almacenar perfiles de FSLogix a los que pueden acceder las identidades de usuario híbrido desde hosts de sesión unidos a Azure AD sin necesidad de una línea de visión de red para los controladores de dominio.</t>
         </is>
       </c>
       <c r="E70" s="21" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="D71" s="21" t="inlineStr">
         <is>
-          <t>Una suscripción de Azure debe estar vinculada al mismo inquilino de Microsoft Entra ID (antiguo Azure AD), que contiene una red virtual que contiene o está conectada a la instancia de Servicios de dominio de Windows Server Active Directory o Servicios de dominio de Microsoft Entra ID.</t>
+          <t>Una suscripción de Azure debe estar asociada al mismo inquilino de Microsoft Entra ID (antiguo Azure AD), que contiene una red virtual que contiene o está conectada a la instancia de Windows Server Active Directory Domain Services o Microsoft Entra ID Domain Services.</t>
         </is>
       </c>
       <c r="E71" s="21" t="inlineStr">
@@ -4251,12 +4251,12 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Revisar y documentar el escenario de identidad</t>
+          <t>Revisión y documentación del escenario de identidad</t>
         </is>
       </c>
       <c r="D72" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Desktop admite diferentes tipos de identidades en función de la configuración que elija. Revise los escenarios admitidos mencionados en el artículo "Más información" y documente la decisión de diseño en consecuencia en la columna "Comentario". Críticamente, las identidades externas (B2B o B2C) no son compatibles. Asegúrese de revisar también la lista de escenarios admitidos en https://learn.microsoft.com/en-us/azure/virtual-desktop/prerequisites?tabs=portal#supported-identity-scenarios.</t>
+          <t>Azure Virtual Desktop admite diferentes tipos de identidades en función de la configuración que elija. Revise los escenarios admitidos mencionados en el artículo "Más información" y documente la decisión de diseño en consecuencia en la columna "Comentario". Fundamentalmente, las identidades externas (B2B o B2C) no son compatibles. Asegúrese de revisar también la lista de escenarios admitidos en https://learn.microsoft.com/azure/virtual-desktop/prerequisites?tabs=portal#supported-identity-scenarios.</t>
         </is>
       </c>
       <c r="E72" s="21" t="inlineStr">
@@ -4301,12 +4301,12 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Evaluar los tipos y requisitos de la cuenta de usuario</t>
+          <t>Evaluar los tipos y requisitos de cuentas de usuario</t>
         </is>
       </c>
       <c r="D73" s="21" t="inlineStr">
         <is>
-          <t>Los usuarios necesitan cuentas que estén en Microsoft Entra ID (antiguo Azure AD). Si también usa AD DS o Servicios de dominio de Azure AD en la implementación de Azure Virtual Desktop, estas cuentas deberán ser identidades híbridas, lo que significa que las cuentas de usuario están sincronizadas. Si usa el identificador de Microsoft Entra con AD DS, deberá configurar Azure AD Connect para sincronizar los datos de identidad de usuario entre AD DS y el identificador de Microsoft entra. Si usa el identificador de Microsoft Entra con los Servicios de dominio de Azure AD, las cuentas de usuario se sincronizan de una manera desde el identificador de Microsoft Entra a los Servicios de dominio de Azure AD. Este proceso de sincronización es automático. AVD también admite cuentas nativas de Microsoft Entra ID con algunas restricciones. No se admiten identidades externas (B2B o B2C).</t>
+          <t>Los usuarios necesitan cuentas que estén en el identificador de Microsoft Entra (anteriormente Azure AD). Si también usa AD DS o Azure AD Domain Services en la implementación de Azure Virtual Desktop, estas cuentas deberán ser identidades híbridas, lo que significa que las cuentas de usuario están sincronizadas. Si usa el identificador de Microsoft Entra con AD DS, deberá configurar Azure AD Connect para sincronizar los datos de identidad de usuario entre AD DS y el identificador de Microsoft Entra. Si usa el identificador de Microsoft Entra con Azure AD Domain Services, las cuentas de usuario se sincronizan de forma unidireccional desde el identificador de Microsoft Entra a Azure AD Domain Services. Este proceso de sincronización es automático. AVD también es compatible con las cuentas nativas de Microsoft Entra ID con algunas restricciones. No se admiten identidades externas (B2B o B2C).</t>
         </is>
       </c>
       <c r="E73" s="21" t="inlineStr">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="D74" s="21" t="inlineStr">
         <is>
-          <t>AVD admite SSO mediante la autenticación de Servicios de federación de Active Directory (AD FS) o Microsoft Entra ID (anteriormente Azure AD). Esto último se recomienda, consulte los requisitos y la limitación en el artículo 'Más información'. El uso de AD FS podría ser una opción viable si ya está presente en el entorno del cliente, no se recomienda implementar una nueva infraestructura de ADFS solo para la implementación de AVD SSO.</t>
+          <t>AVD admite el inicio de sesión único mediante los Servicios de federación de Active Directory (AD FS) o la autenticación de identificador de Microsoft Entra (anteriormente Azure AD). Esto último es recomendable, consulte los requisitos y la limitación en el artículo 'Más información'. El uso de AD FS podría ser una opción viable si ya está presente en el entorno del cliente, no se recomienda implementar una nueva infraestructura de ADFS solo para la implementación de AVD SSO.</t>
         </is>
       </c>
       <c r="E74" s="21" t="inlineStr">
@@ -4401,12 +4401,12 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Seleccione el tipo de unión al dominio de host de sesión AVD adecuado</t>
+          <t>Seleccione el tipo de unión de dominio de host de sesión AVD adecuado</t>
         </is>
       </c>
       <c r="D75" s="21" t="inlineStr">
         <is>
-          <t>Las máquinas virtuales pueden estar unidas a un dominio de Windows Active Directory (AD), a AD híbridas, a Microsoft Entra ID (anteriormente Azure AD) unidas o a los Servicios de dominio de Azure AD. Asegúrese de revisar los escenarios admitidos, las limitaciones y los requisitos del artículo al que se hace referencia.</t>
+          <t>Las máquinas virtuales pueden estar unidas a un dominio de Windows Active Directory (AD), unidas a AD híbrido, unidas a Microsoft Entra ID (anteriormente Azure AD) unido o unido a Azure AD Domain Services. Asegúrese de revisar los escenarios, las limitaciones y los requisitos admitidos del artículo al que se hace referencia.</t>
         </is>
       </c>
       <c r="E75" s="21" t="inlineStr">
@@ -4451,12 +4451,12 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Antes de usar Servicios de dominio de Azure AD (AAD-D) para AVD, asegúrese de revisar las limitaciones.</t>
+          <t>Antes de usar Azure AD Domain Services (AAD-DS) para AVD, asegúrese de revisar las limitaciones.</t>
         </is>
       </c>
       <c r="D76" s="21" t="inlineStr">
         <is>
-          <t>Comparar los Servicios de dominio de Windows Active Directory autoadministrados, el identificador de Microsoft Entra (anteriormente Azure AD) y los Servicios de dominio de Azure AD administrados (AAD-DS)</t>
+          <t>Compare los servicios de dominio de Windows Active Directory autoadministrados, el identificador de Microsoft Entra (anteriormente Azure AD) y los servicios de dominio de Azure AD administrados (AAD-DS)</t>
         </is>
       </c>
       <c r="E76" s="21" t="inlineStr">
@@ -4491,7 +4491,7 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
@@ -4501,12 +4501,12 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Usar plantillas administrativas integradas para la configuración de AVD</t>
+          <t>Usar las plantillas administrativas integradas proporcionadas para la configuración de AVD</t>
         </is>
       </c>
       <c r="D77" s="21" t="inlineStr">
         <is>
-          <t>AVD proporciona plantillas administrativas para Intune y GPO de Active Directory. Usando estas plantillas es posible controlar centralmente varios ajustes de configuración de AVD: Registro de datos relacionados con gráficos, Protección de captura de pantalla, Shortpath RDP para redes administradas, Marca de agua. Consulte el artículo complementario en la columna 'Más información' para obtener más detalles. NOTA: FSLogix tiene su propia plantilla separada.</t>
+          <t>AVD proporciona plantillas administrativas para Intune y GPO de Active Directory. Con estas plantillas es posible controlar de forma centralizada varios ajustes de configuración de AVD: registro de datos relacionados con gráficos, protección de captura de pantalla, RDP Shortpath para redes administradas, marca de agua. Consulte el artículo complementario en la columna 'Más información' para obtener más detalles. NOTA: FSLogix tiene su propia plantilla independiente.</t>
         </is>
       </c>
       <c r="E77" s="21" t="inlineStr">
@@ -4541,7 +4541,7 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
@@ -4551,12 +4551,12 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Planeación de la estrategia de administración de configuración de AVD Session Hosts</t>
+          <t>Planeación de la estrategia de administración de la configuración de hosts de sesión de AVD</t>
         </is>
       </c>
       <c r="D78" s="21" t="inlineStr">
         <is>
-          <t>Determine si ya existe una herramienta de administración de configuración para administrar la configuración de la máquina virtual del grupo de hosts después de la implementación inicial, por ejemplo, SCCM/SCOM, Intune/ConfigurationManager, soluciones de 3rd-party.</t>
+          <t>Determine si ya existe una herramienta de administración de la configuración para administrar la configuración de la máquina virtual del grupo de hosts después de la implementación inicial, por ejemplo, SCCM/SCOM, Intune/ConfigurationManager, soluciones de terceros.</t>
         </is>
       </c>
       <c r="E78" s="21" t="inlineStr">
@@ -4591,7 +4591,7 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
@@ -4601,12 +4601,12 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Evaluar Intune para la administración de hosts de sesión AVD</t>
+          <t>Evaluación de la administración de hosts de sesión de Intune para AVD</t>
         </is>
       </c>
       <c r="D79" s="21" t="inlineStr">
         <is>
-          <t>Se recomienda usar Microsoft Intune, si se pueden cumplir los requisitos, para administrar el entorno de Azure Virtual Desktop. Revise los escenarios y requisitos admitidos para habilitar Intune para la administración de hosts de sesión AVD en el artículo al que se hace referencia en la columna "Más información". Documente su elección en la columna 'Comentario'. En ese artículo, revise los diferentes requisitos y capacidades para https://learn.microsoft.com/en-us/mem/intune/fundamentals/windows-virtual-desktop de sesión única y https://learn.microsoft.com/en-us/mem/intune/fundamentals/windows-virtual-desktop-multi-session de sesión múltiple AVD.</t>
+          <t>Se recomienda usar Microsoft Intune, si se pueden cumplir los requisitos, para administrar el entorno de Azure Virtual Desktop. Revise los escenarios y requisitos admitidos para habilitar la administración de host de sesión de Intune para AVD en el artículo al que se hace referencia en la columna Más información. Documente su elección en la columna 'Comentario'. En ese artículo, revisa los diferentes requisitos y capacidades para el AVD de https://learn.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop de sesión única y https://learn.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session de sesión múltiple.</t>
         </is>
       </c>
       <c r="E79" s="21" t="inlineStr">
@@ -4641,7 +4641,7 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
@@ -4651,12 +4651,12 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Evaluar los requisitos para la capacidad de escalado automático del grupo de hosts</t>
+          <t>Evaluación de los requisitos para la capacidad de escalado automático del grupo de hosts</t>
         </is>
       </c>
       <c r="D80" s="21" t="inlineStr">
         <is>
-          <t>La herramienta de escalado proporciona una opción de automatización de bajo costo para los clientes que desean optimizar los costos de la máquina virtual del host de sesión. Puede usar la herramienta de escalado para programar máquinas virtuales para que se inicien y detengan en función de las horas comerciales pico y fuera de pico, escalar horizontalmente máquinas virtuales en función del número de sesiones por núcleo de CPU, escalar en máquinas virtuales durante las horas de menor actividad, dejando en ejecución el número mínimo de máquinas virtuales host de sesión. Aún no está disponible para el tipo de grupo de hosts personales.</t>
+          <t>La herramienta de escalado proporciona una opción de automatización de bajo costo para los clientes que desean optimizar los costos de la máquina virtual del host de sesión. Puede usar la herramienta de escalado para programar máquinas virtuales para que se inicien y detengan en función de las horas punta y las horas de menor actividad, escalar horizontalmente las máquinas virtuales en función del número de sesiones por núcleo de CPU, escalar las máquinas virtuales durante las horas de menor actividad, dejando el número mínimo de máquinas virtuales de host de sesión en ejecución. Todavía no está disponible para el tipo de grupo de anfitriones personales.</t>
         </is>
       </c>
       <c r="E80" s="21" t="inlineStr">
@@ -4691,7 +4691,7 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
@@ -4701,12 +4701,12 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Considere el uso de Start VM on Connect for Personal Host Pools</t>
+          <t>Considere la posibilidad de usar Iniciar máquina virtual en Connect para grupos de hosts personales</t>
         </is>
       </c>
       <c r="D81" s="21" t="inlineStr">
         <is>
-          <t>Start VM On Connect le permite reducir los costos al permitir que los usuarios finales enciendan sus máquinas virtuales (VM) host de sesión solo cuando las necesiten. A continuación, puede desactivar las máquinas virtuales cuando no sean necesarias. Puede configurar Start VM on Connect para grupos de hosts personales o agrupados mediante Azure Portal o PowerShell. Iniciar máquina virtual al conectar es una configuración de todo el grupo de hosts.</t>
+          <t>Start VM On Connect le permite reducir los costos al permitir que los usuarios finales enciendan sus máquinas virtuales (VM) de host de sesión solo cuando las necesiten. A continuación, puede desactivar las máquinas virtuales cuando no sean necesarias. Puede configurar Iniciar máquina virtual al conectarse para grupos de hosts personales o agrupados mediante Azure Portal o PowerShell. Iniciar máquina virtual al conectarse es una configuración de todo el grupo de hosts.</t>
         </is>
       </c>
       <c r="E81" s="21" t="inlineStr">
@@ -4741,7 +4741,7 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
@@ -4751,12 +4751,12 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Evaluar la implementación de un mecanismo ad-hoc para cerrar los hosts de sesión de Personal AVD</t>
+          <t>Evaluar la implementación de un mecanismo ad-hoc para cerrar los hosts de sesión de AVD personal</t>
         </is>
       </c>
       <c r="D82" s="21" t="inlineStr">
         <is>
-          <t>'Start VM On Connect' proporciona una forma inteligente de iniciar automáticamente hosts de sesión previamente detenidos, pero no proporciona un mecanismo para apagar cuando no se usa. Se recomienda a los administradores que configuren directivas adicionales para cerrar la sesión de los usuarios en sus sesiones y ejecutar scripts de automatización de Azure para desasignar máquinas virtuales. No se debe permitir que los usuarios cierren sus hosts personales, ya que no podrán desasignar máquinas virtuales de Azure, por lo que la facturación seguirá activa sin reducción de costos.</t>
+          <t>"Iniciar VM al conectarse" proporciona una forma inteligente de iniciar automáticamente hosts de sesión previamente detenidos, pero no proporciona un mecanismo para apagarse cuando no está en uso. Se recomienda a los administradores que configuren directivas adicionales para cerrar la sesión de los usuarios y ejecutar scripts de automatización de Azure para desasignar máquinas virtuales. No se debe permitir que los usuarios apaguen sus hosts personales, ya que no podrán desasignar máquinas virtuales de Azure, por lo que la facturación seguirá activa sin reducción de costos.</t>
         </is>
       </c>
       <c r="E82" s="21" t="inlineStr">
@@ -4791,7 +4791,7 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
@@ -4801,12 +4801,12 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Revisar y adoptar las etiquetas de Azure sugeridas para Azure Virtual Desktop</t>
+          <t>Revisión y adopción de las etiquetas de Azure sugeridas para Azure Virtual Desktop</t>
         </is>
       </c>
       <c r="D83" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">La facturación de Azure Virtual Desktop se basa principalmente en el costo asociado a los recursos de proceso, redes y almacenamiento consumidos por los grupos de hosts. Además de esto, los costos pueden ser generados por recursos dependientes, por ejemplo, VPN o ExpressRoute o vWAN, controladores de dominio de Active Directory, DNS, etc. No hay ningún costo directo asociado a objetos AVD como espacios de trabajo, grupos de hosts o grupos de aplicaciones. Para que los costos asociados a AVD sean más evidentes y agrupados por grupo de hosts, se recomienda usar la etiqueta 'cm-resource-parent'. </t>
+          <t xml:space="preserve">La facturación de Azure Virtual Desktop se basa principalmente en el costo asociado a los recursos de proceso, redes y almacenamiento consumidos por los grupos de hosts. Además de esto, los costos pueden ser generados por recursos dependientes, por ejemplo, VPN o ExpressRoute o vWAN, controladores de dominio de Active Directory, DNS, etc. No hay ningún costo directo asociado a los objetos AVD, como áreas de trabajo, grupos de hosts o grupos de aplicaciones. Para que los costos asociados a AVD sean más evidentes y se agrupen por grupo de hosts, se recomienda usar la etiqueta 'cm-resource-parent'. </t>
         </is>
       </c>
       <c r="E83" s="21" t="inlineStr">
@@ -4841,7 +4841,7 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
@@ -4851,12 +4851,12 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Comprobar periódicamente las recomendaciones de Azure Advisor para AVD</t>
+          <t>Comprobación periódica de las recomendaciones de Azure Advisor para AVD</t>
         </is>
       </c>
       <c r="D84" s="21" t="inlineStr">
         <is>
-          <t>Azure Advisor analiza las configuraciones y la telemetría para ofrecer recomendaciones personalizadas para resolver problemas comunes. Con estas recomendaciones, puede optimizar sus recursos de Azure para ofrecer confiabilidad, seguridad, excelencia operativa, rendimiento y costo.</t>
+          <t>Azure Advisor analiza las configuraciones y la telemetría para ofrecer recomendaciones personalizadas para resolver problemas comunes. Con estas recomendaciones, puede optimizar los recursos de Azure para la confiabilidad, la seguridad, la excelencia operativa, el rendimiento y el costo.</t>
         </is>
       </c>
       <c r="E84" s="21" t="inlineStr">
@@ -4891,7 +4891,7 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
@@ -4901,12 +4901,12 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Planeación de una estrategia de actualización y revisión de emergencia del host de sesión</t>
+          <t>Planeación de una estrategia de actualización y aplicación de parches de emergencia del host de sesión</t>
         </is>
       </c>
       <c r="D85" s="21" t="inlineStr">
         <is>
-          <t>Los clientes tienen varias opciones: Microsoft Configuration Manager, en este artículo se explica cómo aplicar automáticamente actualizaciones a hosts de sesión de Azure Virtual Desktop que ejecutan Windows 10/11: https://learn.microsoft.com/en-us/azure/virtual-desktop/configure-automatic-updates, Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session, Azure Update Management y WSUS solo para SO de servidor Windows (SO cliente no compatible:  https://learn.microsoft.com/en-us/azure/automation/update-management/operating-system-requirements), herramientas del 3er Partido. Fuera de una situación de parches de seguridad de emergencia, se recomienda alejarse de una estrategia de parches de actualización "in situ" y adoptar un enfoque de regeneración de imágenes.</t>
+          <t>Los clientes tienen varias opciones: Microsoft Configuration Manager, en este artículo se explica cómo aplicar automáticamente actualizaciones a hosts de sesión de Azure Virtual Desktop que ejecutan Windows 10/11: https://learn.microsoft.com/azure/virtual-desktop/configure-automatic-updates, Microsoft Intune: https://docs.microsoft.com/mem/intune/fundamentals/windows-virtual-desktop-multi-session, Azure Update Management y WSUS solo para el sistema operativo Windows Server (no se admite el sistema operativo cliente):  https://learn.microsoft.com/azure/automation/update-management/operating-system-requirements), herramientas de terceros. Fuera de una situación de parches de seguridad de emergencia, se recomienda alejarse de una estrategia de parches de actualización "in situ" y adoptar un enfoque de recreación de imágenes.</t>
         </is>
       </c>
       <c r="E85" s="21" t="inlineStr">
@@ -4941,7 +4941,7 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="D86" s="21" t="inlineStr">
         <is>
-          <t>La función Actualizaciones programadas del agente le permite crear hasta dos ventanas de mantenimiento por grupo de hosts para actualizar los componentes de AVD en un momento conveniente. Se recomienda especificar ventanas de mantenimiento y luego no se realizará la actualización de los hosts de sesión durante las horas pico de trabajo. Las actualizaciones programadas del agente están deshabilitadas de forma predeterminada. Esto significa que, a menos que habilite esta configuración, el agente puede ser actualizado en cualquier momento por el servicio de vuelo de actualización del agente.</t>
+          <t>La función Actualizaciones programadas del agente te permite crear hasta dos ventanas de mantenimiento por grupo de hosts para actualizar los componentes de AVD en un momento conveniente. Se recomienda especificar ventanas de mantenimiento y, a continuación, la actualización de los hosts de sesión no se realizará durante las horas de mayor actividad. Las actualizaciones programadas del agente están deshabilitadas de forma predeterminada. Esto significa que, a menos que habilite esta configuración, el servicio piloto de actualización del agente puede actualizarlo en cualquier momento.</t>
         </is>
       </c>
       <c r="E86" s="21" t="inlineStr">
@@ -4991,7 +4991,7 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
@@ -5001,12 +5001,12 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Crear un grupo de hosts de validación (canario)</t>
+          <t>Creación de un grupo de hosts de validación (canary)</t>
         </is>
       </c>
       <c r="D87" s="21" t="inlineStr">
         <is>
-          <t>Los grupos de servidores host son una colección de una o varias máquinas virtuales idénticas dentro del entorno de Azure Virtual Desktop. Se recomienda encarecidamente crear un grupo de hosts de validación donde se apliquen primero las actualizaciones de servicio. Esto le permite supervisar las actualizaciones del servicio antes de que el servicio las aplique a su entorno estándar o de no validación.</t>
+          <t>Los grupos de hosts son una colección de una o varias máquinas virtuales idénticas dentro del entorno de Azure Virtual Desktop. Se recomienda encarecidamente crear un grupo de hosts de validación en el que se apliquen primero las actualizaciones de servicio. Esto le permite supervisar las actualizaciones del servicio antes de que el servicio las aplique a su entorno estándar o sin validación.</t>
         </is>
       </c>
       <c r="E87" s="21" t="inlineStr">
@@ -5041,7 +5041,7 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="D88" s="21" t="inlineStr">
         <is>
-          <t>Un grupo de hosts AVD se puede implementar de varias maneras: Portal de Azure, plantillas de ARM, herramienta CLI de Azure, PowerShell, creación manual de máquinas virtuales con token de registro, Terraform, herramientas de 3rd-party. Es importante adoptar método(s) adecuados/s para soportar la implementación automática a través de herramientas de automatización y CI/CD.</t>
+          <t>Un grupo de hosts de AVD se puede implementar de varias maneras: Azure Portal, plantillas de ARM, herramienta de la CLI de Azure, Powershell, creación manual de máquinas virtuales con token de registro, Terraform, herramientas de terceros. Es importante adoptar los métodos adecuados para admitir la implementación automática a través de herramientas de automatización y CI/CD.</t>
         </is>
       </c>
       <c r="E88" s="21" t="inlineStr">
@@ -5091,7 +5091,7 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
@@ -5101,12 +5101,12 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Activar las máquinas virtuales host de sesión al menos cada 90 días para la actualización de tokens</t>
+          <t>Activar las máquinas virtuales de host de sesión al menos cada 90 días para la actualización de tokens</t>
         </is>
       </c>
       <c r="D89" s="21" t="inlineStr">
         <is>
-          <t>Después de registrar una máquina virtual en un grupo de hosts dentro del servicio Azure Virtual Desktop, el agente actualiza periódicamente el token de la máquina virtual siempre que la máquina virtual está activa. El certificado para el token de registro es válido durante 90 días. Debido a este límite de 90 días, recomendamos que las máquinas virtuales estén en línea durante 20 minutos cada 90 días para que la máquina pueda actualizar sus tokens y actualizar el agente y los componentes de la pila en paralelo.</t>
+          <t>Después de registrar una máquina virtual en un grupo de hosts dentro del servicio Azure Virtual Desktop, el agente actualiza periódicamente el token de la máquina virtual cada vez que la máquina virtual está activa. El certificado del token de registro es válido durante 90 días. Debido a este límite de 90 días, se recomienda que las máquinas virtuales estén en línea durante 20 minutos cada 90 días para que la máquina pueda actualizar sus tokens y actualizar el agente y los componentes de la pila en paralelo.</t>
         </is>
       </c>
       <c r="E89" s="21" t="inlineStr">
@@ -5141,7 +5141,7 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
@@ -5151,12 +5151,12 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Habilitar la supervisión para AVD</t>
+          <t>Habilitación de la supervisión de AVD</t>
         </is>
       </c>
       <c r="D90" s="21" t="inlineStr">
         <is>
-          <t>Azure Virtual Desktop Insights es un panel basado en libros de Azure Monitor que ayuda a los profesionales de TI a comprender sus entornos de Azure Virtual Desktop. Lea el artículo al que se hace referencia para obtener información sobre cómo configurar Azure Monitor para Azure Virtual Desktop para supervisar los entornos AVD.</t>
+          <t>Azure Virtual Desktop Insights es un panel basado en libros de Azure Monitor que ayuda a los profesionales de TI a comprender sus entornos de Azure Virtual Desktop. Lea el artículo al que se hace referencia para obtener información sobre cómo configurar Azure Monitor para Azure Virtual Desktop para supervisar los entornos de AVD.</t>
         </is>
       </c>
       <c r="E90" s="21" t="inlineStr">
@@ -5191,7 +5191,7 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
@@ -5201,12 +5201,12 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Habilitar la configuración de diagnóstico para áreas de trabajo, grupos de hosts, grupos de aplicaciones y máquinas virtuales host en el área de trabajo de Log Analytics</t>
+          <t>Habilitación de la configuración de diagnóstico para áreas de trabajo, grupos de hosts, grupos de aplicaciones y máquinas virtuales host en el área de trabajo de Log Analytics</t>
         </is>
       </c>
       <c r="D91" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Azure Virtual Desktop usa Azure Monitor y Log Analytics para la supervisión y las alertas como muchos otros servicios de Azure. Esto permite a los administradores identificar problemas a través de una única interfaz. El servicio crea registros de actividad para las acciones administrativas y de usuario.  Cada registro de actividad se divide en las siguientes categorías: Administración, Fuente, Conexiones, Registro de host, Errores, Puntos de control. </t>
+          <t xml:space="preserve">Azure Virtual Desktop usa Azure Monitor y Log Analytics para la supervisión y las alertas, como muchos otros servicios de Azure. Esto permite a los administradores identificar problemas a través de una única interfaz. El servicio crea registros de actividad para las acciones administrativas y de usuario.  Cada registro de actividad se divide en las siguientes categorías: Administración, Fuente, Conexiones, Registro de host, Errores, Puntos de control. </t>
         </is>
       </c>
       <c r="E91" s="21" t="inlineStr">
@@ -5241,7 +5241,7 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
@@ -5251,7 +5251,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Crear alertas en el almacenamiento del perfil para recibir alertas en caso de uso elevado y limitación</t>
+          <t>Crear alertas en el almacenamiento de perfiles para recibir alertas en caso de uso elevado y limitación</t>
         </is>
       </c>
       <c r="D92" s="21" t="inlineStr">
@@ -5291,7 +5291,7 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
@@ -5301,12 +5301,12 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Configuración del estado del servicio de Azure para alertas AVD </t>
+          <t xml:space="preserve">Configuración de Azure Service Health para alertas de AVD </t>
         </is>
       </c>
       <c r="D93" s="21" t="inlineStr">
         <is>
-          <t>Puede usar Azure Service Health para supervisar problemas de servicio y avisos de mantenimiento para Azure Virtual Desktop. Azure Service Health puede notificarle con diferentes tipos de alertas (por ejemplo, correo electrónico o SMS), ayudarle a comprender el efecto de un problema y mantenerle actualizado a medida que se resuelve el problema.</t>
+          <t>Puede usar Azure Service Health para supervisar los problemas de servicio y los avisos de estado de Azure Virtual Desktop. Azure Service Health puede notificarle con diferentes tipos de alertas (por ejemplo, correo electrónico o SMS), ayudarle a comprender el efecto de un problema y mantenerlo actualizado a medida que se resuelve el problema.</t>
         </is>
       </c>
       <c r="E93" s="21" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="D94" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Si es necesario conectarse al entorno local, evalúe la opción de conectividad actual o planee la conectividad necesaria (ExpressRoute, Azure S2S o VPN NVA de terceros). </t>
+          <t xml:space="preserve">Si es necesario para conectarse a un entorno local, evalúe la opción de conectividad actual o planee la conectividad necesaria (ExpressRoute, Azure S2S o VPN de NVA de terceros). </t>
         </is>
       </c>
       <c r="E94" s="21" t="inlineStr">
@@ -5401,12 +5401,12 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Determinación de la ubicación de la red virtual de Azure (VNet) para cada grupo de hosts AVD</t>
+          <t>Determinación de la ubicación de Azure Virtual Network (VNet) para cada grupo de hosts de AVD</t>
         </is>
       </c>
       <c r="D95" s="21" t="inlineStr">
         <is>
-          <t>Los grupos de hosts AVD se pueden implementar en Azure Virtual WAN o en topologías de red tradicionales 'Hub &amp; Spoke'. Se recomienda implementar cada grupo de hosts en una red virtual "radial" independiente, no se recomienda usar 'hub'.</t>
+          <t>Los grupos de hosts de AVD se pueden implementar en Azure Virtual WAN o en topologías de red tradicionales de "Hub &amp; Spoke". Se recomienda implementar cada grupo de hosts en una red virtual de "radio" independiente, no se recomienda usar "concentrador".</t>
         </is>
       </c>
       <c r="E95" s="21" t="inlineStr">
@@ -5451,12 +5451,12 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Evaluar qué recursos locales se requieren de los grupos de hosts AVD</t>
+          <t>Evalúe qué recursos locales se requieren de los grupos de hosts de AVD</t>
         </is>
       </c>
       <c r="D96" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Evalúe los requisitos de ancho de banda, asegúrese de que el ancho de banda VPN / ER sea suficiente, asegúrese de que se implementen las reglas de enrutamiento y firewall adecuadas, pruebe la latencia de extremo a extremo. </t>
+          <t xml:space="preserve">Evalúe los requisitos de ancho de banda, asegúrese de que el ancho de banda de VPN/ER sea suficiente, asegúrese de que se implementen las reglas de enrutamiento y firewall adecuadas, pruebe la latencia de extremo a extremo. </t>
         </is>
       </c>
       <c r="E96" s="21" t="inlineStr">
@@ -5501,12 +5501,12 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>¿Necesita controlar/restringir el tráfico saliente de Internet para los hosts AVD?</t>
+          <t>¿Necesitas controlar o restringir el tráfico saliente de Internet para los hosts AVD?</t>
         </is>
       </c>
       <c r="D97" s="21" t="inlineStr">
         <is>
-          <t>Hay varias opciones disponibles. Puede usar Azure Firewall o servidores NVA, grupo de seguridad de red (NSG) o proxy equivalentes de 3ª parte. NSG no puede habilitar/deshabilitar por URL, solo puertos y protocolos. El proxy debe usarse solo como configuración explícita en el navegador del usuario. Los detalles sobre el uso de Azure Firewall Premium con AVD se indican en el artículo complementario de la columna "Más información". Asegúrese de permitir el acceso adecuado a las URL AVD requeridas. No se recomienda la tunelización forzada a las instalaciones.</t>
+          <t>Hay varias opciones disponibles. Puede usar Azure Firewall o servidores equivalentes de NVA, grupo de seguridad de red (NSG) o servidores proxy. El grupo de seguridad de red no puede habilitar o deshabilitar por dirección URL, solo puertos y protocolos. El proxy solo debe usarse como configuración explícita en el navegador del usuario. Los detalles sobre el uso de Azure Firewall Premium con AVD se informan en el artículo complementario de la columna "Más información". Asegúrate de permitir el acceso adecuado a las URL de AVD requeridas. No se recomienda la tunelización forzada en el entorno local.</t>
         </is>
       </c>
       <c r="E97" s="21" t="inlineStr">
@@ -5522,7 +5522,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
+          <t>https://docs.microsoft.com/azure/firewall/protect-windows-virtual-desktop</t>
         </is>
       </c>
       <c r="I97" s="15" t="n"/>
@@ -5551,12 +5551,12 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los puntos finales del plano de control AVD sean accesibles</t>
+          <t>Asegúrese de que los puntos de conexión del plano de control de AVD sean accesibles</t>
         </is>
       </c>
       <c r="D98" s="21" t="inlineStr">
         <is>
-          <t>Las URL necesarias para el acceso al plano de control AVD por parte de los hosts de sesión se documentan aquí: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. Hay disponible una herramienta de comprobación para verificar la conectividad de los hosts de sesión: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool. No se recomienda la tunelización forzada a las instalaciones.</t>
+          <t>Las URL necesarias para el acceso al plano de control de AVD por parte de los hosts de sesión se documentan aquí: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list. Hay disponible una herramienta de comprobación para verificar la conectividad de los hosts de sesión: https://docs.microsoft.com/azure/virtual-desktop/safe-url-list#required-url-check-tool. No se recomienda la tunelización forzada en el entorno local.</t>
         </is>
       </c>
       <c r="E98" s="21" t="inlineStr">
@@ -5601,12 +5601,12 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">¿Necesita controlar/restringir el tráfico saliente de Internet solo para usuarios en hosts AVD? </t>
+          <t xml:space="preserve">¿Necesita controlar o restringir el tráfico saliente de Internet solo para los usuarios de hosts AVD? </t>
         </is>
       </c>
       <c r="D99" s="21" t="inlineStr">
         <is>
-          <t>Tenga en cuenta el uso de Azure Defender Endpoint o agentes similares de 3rd party para controlar la navegación web del usuario, consulte la sección Seguridad para obtener más detalles.</t>
+          <t>Tenga en cuenta el uso de Azure Defender Endpoint o agentes de terceros similares para controlar la navegación web del usuario, consulte la sección Seguridad para obtener más información.</t>
         </is>
       </c>
       <c r="E99" s="21" t="inlineStr">
@@ -5651,12 +5651,12 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Revisar UDR y NSG personalizados para subredes de grupos de hosts AVD</t>
+          <t>Revisión de UDR y NSG personalizados para subredes de grupo de hosts AVD</t>
         </is>
       </c>
       <c r="D100" s="21" t="inlineStr">
         <is>
-          <t>UDR y NSG personalizados se pueden aplicar a subredes del grupo de hosts AVD, por ejemplo, para redirigir a Azure Firewall o NVA, o para filtrar o bloquear el tráfico de red. En este caso se recomienda revisar cuidadosamente para asegurarse de que se utiliza la ruta óptima para el tráfico saliente al plano de control AVD. Las etiquetas de servicio ahora se pueden usar con UDR y NSG, luego el tráfico del plano de administración AVD se puede permitir fácilmente: https://learn.microsoft.com/en-us/azure/virtual-desktop/safe-url-list.</t>
+          <t>La UDR y el grupo de seguridad de red personalizados se pueden aplicar a las subredes del grupo de hosts de AVD, por ejemplo, para redirigir a Azure Firewall o NVA, o para filtrar o bloquear el tráfico de red. En este caso, se recomienda revisar cuidadosamente para asegurarse de que se utiliza una ruta óptima para el tráfico saliente al plano de control AVD. Las etiquetas de servicio ahora se pueden usar con UDR y NSG, por lo que el tráfico del plano de administración de AVD se puede permitir fácilmente: https://learn.microsoft.com/azure/virtual-desktop/safe-url-list.</t>
         </is>
       </c>
       <c r="E100" s="21" t="inlineStr">
@@ -5706,7 +5706,7 @@
       </c>
       <c r="D101" s="21" t="inlineStr">
         <is>
-          <t>El tráfico de red desde las máquinas virtuales host de sesión AVD al plano de control AVD debe ser lo más directo posible. Redirigir este tráfico a través de un proxy o firewall con inspección profunda de paquetes y / o terminación SSL podría causar problemas graves y una mala experiencia del cliente. Se recomienda omitir Proxy y Firewall solo para el plano de control AVD. El tráfico generado por el usuario que navega por la web en su lugar, debe ser filtrado por el Firewall y / o redirigido a un Proxy. Para obtener detalles y directrices, consulte el artículo complementario en la columna "Más información".</t>
+          <t>El tráfico de red de las máquinas virtuales del host de sesión de AVD al plano de control de AVD debe ser lo más directo posible. Redirigir este tráfico a través de un proxy o firewall con inspección profunda de paquetes y/o terminación SSL podría causar problemas graves y una mala experiencia del cliente. Se recomienda omitir el proxy y el firewall solo para el plano de control del AVD. En cambio, el tráfico generado por el usuario que navega por la web debe ser filtrado por el Firewall y/o redirigido a un Proxy. Para obtener más información y directrices, consulte el artículo complementario en la columna "Más información".</t>
         </is>
       </c>
       <c r="E101" s="21" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Compruebe el ancho de banda de red necesario para cada usuario y, en total, para la SKU de máquina virtual</t>
+          <t>Compruebe el ancho de banda de red necesario para cada usuario y en total para la SKU de la máquina virtual</t>
         </is>
       </c>
       <c r="D102" s="21" t="inlineStr">
@@ -5806,7 +5806,7 @@
       </c>
       <c r="D103" s="21" t="inlineStr">
         <is>
-          <t>Si se va a usar el recurso compartido SMB de Azure Files para almacenar perfiles de usuario a través de FSLogix, se recomienda el uso de Private Endpoint (PE) para el acceso privado al almacenamiento. Los hosts de sesión AVD accederán al almacenamiento mediante una IP privada en la misma red virtual, se recomienda una subred independiente. Esta característica tiene un costo adicional que debe ser evaluado. Si no se va a utilizar PE, al menos se recomienda Service Endpoint (sin costo asociado).</t>
+          <t>Si se va a usar el recurso compartido SMB de Azure Files para almacenar perfiles de usuario a través de FSLogix, se recomienda el uso de Private Endpoint (PE) para el acceso privado al almacenamiento. Los hosts de sesión de AVD accederán al almacenamiento mediante una dirección IP privada en la misma red virtual, se recomienda una subred independiente. Esta característica tiene un costo adicional que debe ser evaluado. Si no se va a usar PE, se recomienda al menos el punto de conexión de servicio (sin costo asociado).</t>
         </is>
       </c>
       <c r="E103" s="21" t="inlineStr">
@@ -5856,7 +5856,7 @@
       </c>
       <c r="D104" s="21" t="inlineStr">
         <is>
-          <t>Las conexiones a Azure Virtual Desktop pueden usar TCP o UDP. RDP Shortpath es una característica de AVD que establece un transporte directo basado en UDP entre un cliente de Escritorio remoto de Windows compatible y un host de sesión. si los clientes tienen línea de visión a los hosts de sesión AVD desde la red interna (no se recomienda el uso de VPN), esta característica puede proporcionar una latencia más baja y el mejor rendimiento, como se explica en https://learn.microsoft.com/en-us/azure/virtual-desktop/rdp-shortpath?tabs=managed-networks#key-benefits.</t>
+          <t>Las conexiones a Azure Virtual Desktop pueden usar TCP o UDP. RDP Shortpath es una característica de AVD que establece un transporte directo basado en UDP entre un cliente de Escritorio remoto de Windows compatible y un host de sesión. si los clientes tienen línea de visión a los hosts de sesión AVD desde la red interna (no se recomienda el uso de VPN), esta función puede proporcionar una latencia más baja y los mejores rendimientos, como se explica en https://learn.microsoft.com/azure/virtual-desktop/rdp-shortpath?tabs=managed-networks#key-benefits.</t>
         </is>
       </c>
       <c r="E104" s="21" t="inlineStr">
@@ -5901,7 +5901,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Revisar el GPO de Active Directory para proteger las sesiones RDP</t>
+          <t>Revisión del GPO de Active Directory para proteger las sesiones de RDP</t>
         </is>
       </c>
       <c r="D105" s="21" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="D106" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Defender para Endpoint admite Azure Virtual Desktop para Windows 10/11 Enterprise multisesión. Consulte el artículo para la incorporación de dispositivos de infraestructura de escritorio virtual (VDI) no persistentes: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
+          <t>Microsoft Defender para punto de conexión admite Azure Virtual Desktop para Windows 10/11 Enterprise multisesión. Consulte el artículo para la incorporación de dispositivos de infraestructura de escritorio virtual (VDI) no persistentes: https://docs.microsoft.com/windows/security/threat-protection/microsoft-defender-atp/configure-endpoints-vdi</t>
         </is>
       </c>
       <c r="E106" s="21" t="inlineStr">
@@ -6001,12 +6001,12 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Evaluar los requisitos de cifrado de disco para los hosts de sesión AVD</t>
+          <t>Evaluar los requisitos de cifrado de disco para hosts de sesión de AVD</t>
         </is>
       </c>
       <c r="D107" s="21" t="inlineStr">
         <is>
-          <t>Los discos de Azure ya están cifrados en reposo de forma predeterminada con claves administradas por Microsoft. El cifrado de disco del sistema operativo de máquina virtual host es posible y se admite mediante Azure Disk Encryption (ADE - BitLocker) y Disk Encryption Set (DES - Server Side Encryption), este último recomendado. El cifrado del almacenamiento FSLogix mediante Azure Files se puede realizar mediante SSE en Azure Storage. Para el cifrado de OneDrive, consulta este artículo: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
+          <t>Los discos de Azure ya están cifrados en reposo de forma predeterminada con claves administradas de Microsoft. El cifrado de disco del sistema operativo de la máquina virtual host es posible y compatible con Azure Disk Encryption (ADE - BitLocker) y Disk Encryption Set (DES - Server Side Encryption), este último se recomienda. El cifrado del almacenamiento de FSLogix mediante Azure Files se puede realizar mediante SSE en Azure Storage. Para obtener información sobre el cifrado de OneDrive, consulte este artículo: https://docs.microsoft.com/compliance/assurance/assurance-encryption-for-microsoft-365-services.</t>
         </is>
       </c>
       <c r="E107" s="21" t="inlineStr">
@@ -6051,12 +6051,12 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Habilitación del inicio de confianza en hosts de sesión de máquina virtual de Azure Gen2</t>
+          <t>Habilitación del inicio seguro en hosts de sesión de máquina virtual de Azure Gen2</t>
         </is>
       </c>
       <c r="D108" s="21" t="inlineStr">
         <is>
-          <t>El lanzamiento de confianza son las máquinas virtuales Gen2 Azure con características de seguridad mejoradas destinadas a proteger contra las amenazas de la "parte inferior de la pila" a través de vectores de ataque como rootkits, kits de arranque y malware de nivel de kernel. Se recomienda habilitar y aprovechar el arranque seguro, el TPM virtual (vTPM) y la supervisión de integridad.</t>
+          <t>El lanzamiento seguro son las máquinas virtuales de Azure Gen2 con características de seguridad mejoradas destinadas a proteger contra las amenazas de la parte inferior de la pila a través de vectores de ataque como rootkits, kits de arranque y malware a nivel de kernel. Se recomienda habilitar y aprovechar el arranque seguro, el TPM virtual (vTPM) y la supervisión de integridad.</t>
         </is>
       </c>
       <c r="E108" s="21" t="inlineStr">
@@ -6101,12 +6101,12 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Habilitar Trusted Launch y usar la imagen Gen2 son requisitos del sistema para Windows 11</t>
+          <t>Habilitar el inicio seguro y usar la imagen Gen2 son requisitos del sistema para Windows 11</t>
         </is>
       </c>
       <c r="D109" s="21" t="inlineStr">
         <is>
-          <t>Trusted Launch y Gen2 VM no solo son características de mejora de la seguridad y el rendimiento, sino también requisitos del sistema para Windows 11. Al crear un entorno AVD basado en Windows 11, es esencial habilitar estas características.</t>
+          <t>Trusted Launch y Gen2 VM no solo son características que mejoran la seguridad y el rendimiento, sino también requisitos del sistema para Windows 11. Al crear un entorno AVD basado en Windows 11, es esencial habilitar estas funciones.</t>
         </is>
       </c>
       <c r="E109" s="21" t="inlineStr">
@@ -6151,12 +6151,12 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Considere habilitar la protección de captura de pantalla para evitar que se capture información confidencial</t>
+          <t>Considere la posibilidad de habilitar la protección de captura de pantalla para evitar que se capture información confidencial</t>
         </is>
       </c>
       <c r="D110" s="21" t="inlineStr">
         <is>
-          <t>El contenido mostrado se bloqueará u ocultará automáticamente en las capturas de pantalla. Tenga en cuenta que el uso compartido de pantalla también se bloqueará cuando use Teams u otro software de colaboración que use el uso compartido de pantalla.</t>
+          <t>El contenido mostrado se bloqueará u ocultará automáticamente en las capturas de pantalla. Tenga en cuenta que el uso compartido de pantalla también se bloqueará cuando se use Teams u otro software de colaboración que use el uso compartido de pantalla.</t>
         </is>
       </c>
       <c r="E110" s="21" t="inlineStr">
@@ -6201,12 +6201,12 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Restringir la redirección de dispositivos y la asignación de unidades</t>
+          <t>Restrinja la redirección de dispositivos y la asignación de unidades</t>
         </is>
       </c>
       <c r="D111" s="21" t="inlineStr">
         <is>
-          <t>Si no es absolutamente necesario, la redirección de unidades, impresoras y dispositivos USB al dispositivo local de un usuario en una sesión de escritorio remoto debe estar deshabilitada o muy restringida. Restringir el acceso del Explorador de Windows ocultando las asignaciones de unidades locales y remotas también es una medida segura para evitar que los usuarios descubran información no deseada sobre la configuración del sistema y los usuarios.</t>
+          <t>Si no es absolutamente necesario, la redirección de unidades, impresoras y dispositivos USB al dispositivo local de un usuario en una sesión de escritorio remoto debe estar deshabilitada o muy restringida. Restringir el acceso al Explorador de Windows ocultando las asignaciones de unidades locales y remotas también es una medida segura para adoptar que evita que los usuarios descubran información no deseada sobre la configuración del sistema y los usuarios.</t>
         </is>
       </c>
       <c r="E111" s="21" t="inlineStr">
@@ -6250,12 +6250,12 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Cuando sea posible, prefiera las aplicaciones remotas a los escritorios completos (DAG)</t>
+          <t>Cuando sea posible, prefiera las aplicaciones remotas en lugar de los escritorios completos (DAG)</t>
         </is>
       </c>
       <c r="D112" s="21" t="inlineStr">
         <is>
-          <t>Al elegir un modelo de implementación, puede proporcionar a los usuarios remotos acceso a escritorios virtuales completos o solo a aplicaciones seleccionadas. Las aplicaciones remotas, o RemoteApps, proporcionan una experiencia perfecta a medida que el usuario trabaja con aplicaciones en su escritorio virtual. RemoteApps reduce el riesgo al permitir que el usuario trabaje solo con un subconjunto del equipo remoto expuesto por la aplicación.</t>
+          <t>Al elegir un modelo de implementación, puede proporcionar a los usuarios remotos acceso a escritorios virtuales completos o solo a aplicaciones seleccionadas. Las aplicaciones remotas, o RemoteApps, proporcionan una experiencia fluida a medida que el usuario trabaja con aplicaciones en su escritorio virtual. RemoteApps reduce el riesgo al permitir que el usuario solo trabaje con un subconjunto de la máquina remota expuesta por la aplicación.</t>
         </is>
       </c>
       <c r="E112" s="21" t="inlineStr">
@@ -6300,12 +6300,12 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>¿Necesita controlar/restringir la navegación del usuario por Internet desde los hosts de sesión AVD?</t>
+          <t>¿Necesita controlar o restringir la navegación por Internet de los usuarios desde los hosts de sesión de AVD?</t>
         </is>
       </c>
       <c r="D113" s="21" t="inlineStr">
         <is>
-          <t>La característica de filtrado de contenido web proporcionada por la funcionalidad de protección web de Microsoft Defender para Endpoint se puede usar para controlar la navegación web del usuario. Si se utiliza esta herramienta, se recomienda configurar el filtrado web para la navegación web del usuario. Se debe garantizar el acceso del sistema de SO invitado a las URL del plano de control AVD requeridas.</t>
+          <t>La característica de filtrado de contenido web proporcionada por la funcionalidad de protección web de Microsoft Defender para punto de conexión se puede usar para controlar la navegación web del usuario. Si se utiliza esta herramienta, se recomienda configurar el filtrado web para la navegación web del usuario. Se debe garantizar el acceso del sistema SO invitado a las URL del plano de control AVD requeridas.</t>
         </is>
       </c>
       <c r="E113" s="21" t="inlineStr">
@@ -6350,12 +6350,12 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de que los usuarios de AVD no tengan privilegios de administrador local en los hosts AVD</t>
+          <t>Asegúrate de que los usuarios de AVD no tengan privilegios de administrador local en los hosts de AVD</t>
         </is>
       </c>
       <c r="D114" s="21" t="inlineStr">
         <is>
-          <t>Le recomendamos que no conceda a los usuarios acceso de administrador a escritorios virtuales. Si necesita paquetes de software, le recomendamos que los ponga a disposición a través de utilidades de administración de configuración.</t>
+          <t>Le recomendamos que no conceda a los usuarios acceso de administrador a los escritorios virtuales. Si necesita paquetes de software, le recomendamos que los ponga a su disposición a través de las utilidades de administración de configuración.</t>
         </is>
       </c>
       <c r="E114" s="21" t="inlineStr">
@@ -6400,12 +6400,12 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Habilitar Microsoft Defender para la nube para administrar la postura de seguridad de los hosts de sesión AVD</t>
+          <t>Habilitación de Microsoft Defender for Cloud para administrar la posición de seguridad de hosts de sesión de AVD</t>
         </is>
       </c>
       <c r="D115" s="21" t="inlineStr">
         <is>
-          <t>Le recomendamos que habilite Defender for Cloud para las suscripciones, máquinas virtuales, almacenes de claves y cuentas de almacenamiento utilizadas por AVD. Con esta herramienta es posible evaluar y gestionar vulnerabilidades, evaluar el cumplimiento de marcos comunes como PCI, fortalecer la seguridad general de su entorno AVD y medirla a lo largo del tiempo utilizando 'Secure Score': https://learn.microsoft.com/en-us/azure/virtual-desktop/security-guide#improve-your-secure-score.</t>
+          <t>Se recomienda habilitar Defender for Cloud para las suscripciones, las máquinas virtuales, los almacenes de claves y las cuentas de almacenamiento que usa AVD. Con esta herramienta es posible evaluar y gestionar las vulnerabilidades, evaluar el cumplimiento de marcos comunes como PCI, reforzar la seguridad general de tu entorno AVD y medirla a lo largo del tiempo utilizando 'Secure Score': https://learn.microsoft.com/azure/virtual-desktop/security-guide#improve-your-secure-score.</t>
         </is>
       </c>
       <c r="E115" s="21" t="inlineStr">
@@ -6449,12 +6449,12 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Habilitar el registro de diagnóstico y auditoría</t>
+          <t>Habilitación del registro de diagnóstico y auditoría</t>
         </is>
       </c>
       <c r="D116" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">La habilitación de la recopilación de registros de auditoría le permite ver la actividad de usuarios y administradores relacionada con Azure Virtual Desktop y almacenarla en un repositorio central como el área de trabajo de Log Analytics. </t>
+          <t xml:space="preserve">La habilitación de la recopilación de registros de auditoría le permite ver la actividad de usuario y administrador relacionada con Azure Virtual Desktop y almacenarla en un repositorio central, como el área de trabajo de Log Analytics. </t>
         </is>
       </c>
       <c r="E116" s="21" t="inlineStr">
@@ -6503,7 +6503,7 @@
       </c>
       <c r="D117" s="21" t="inlineStr">
         <is>
-          <t>Asigne el privilegio mínimo necesario definiendo roles administrativos, de operaciones e ingeniería a roles RBAC de Azure. Para limitar el acceso a roles con privilegios altos dentro de la zona de aterrizaje de Azure Virtual Desktop, considere la posibilidad de integrarlos con Azure Privileged Identity Management (PIM). Mantener el conocimiento de qué equipo es responsable de cada área administrativa concreta le ayuda a determinar los roles y la configuración del control de acceso basado en rol (RBAC) de Azure.</t>
+          <t>Asigne los privilegios mínimos necesarios mediante la definición de roles administrativos, de operaciones y de ingeniería a los roles de RBAC de Azure. Para limitar el acceso a roles con privilegios elevados dentro de la zona de aterrizaje de Azure Virtual Desktop, considere la posibilidad de integrarse con Azure Privileged Identity Management (PIM). Mantener el conocimiento de qué equipo es responsable de cada área administrativa determinada le ayuda a determinar los roles y la configuración del control de acceso basado en rol (RBAC) de Azure.</t>
         </is>
       </c>
       <c r="E117" s="21" t="inlineStr">
@@ -6547,12 +6547,12 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Restringir a los usuarios la instalación de aplicaciones no autorizadas</t>
+          <t>Impedir que los usuarios instalen aplicaciones no autorizadas</t>
         </is>
       </c>
       <c r="D118" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los usuarios de AVD no deben tener permiso para instalar la aplicación. Si es necesario, el Control de aplicaciones de Windows Defender (WDAC) se puede usar para controlar qué controladores y aplicaciones pueden ejecutarse en sus clientes Windows. </t>
+          <t xml:space="preserve">Los usuarios de AVD no deben tener permiso para instalar la aplicación. Si es necesario, el Control de aplicaciones de Windows Defender (WDAC) se puede usar para controlar qué controladores y aplicaciones pueden ejecutarse en sus clientes de Windows. </t>
         </is>
       </c>
       <c r="E118" s="21" t="inlineStr">
@@ -6592,17 +6592,17 @@
       </c>
       <c r="B119" s="21" t="inlineStr">
         <is>
-          <t>Microsoft Entra ID</t>
+          <t>Id. de Microsoft Entra</t>
         </is>
       </c>
       <c r="C119" s="21" t="inlineStr">
         <is>
-          <t>Evaluar el uso de Multi-Factor Authentication (MFA) y acceso condicional (CA) para usuarios de AVD</t>
+          <t>Evaluar el uso de la autenticación multifactor (MFA) y el acceso condicional (CA) para los usuarios de AVD</t>
         </is>
       </c>
       <c r="D119" s="21" t="inlineStr">
         <is>
-          <t>Habilitar MFA y CA le permite administrar los riesgos antes de conceder a los usuarios acceso a su entorno AVD. Al decidir a qué usuarios conceder acceso, le recomendamos que también tenga en cuenta quién es el usuario, cómo inicia sesión y qué dispositivo está usando. En el artículo complementario se proporcionan detalles adicionales y procedimientos de configuración. Microsoft Entra ID es el nuevo nombre de Azure Active Directory (Azure AD).</t>
+          <t>La habilitación de MFA y CA te permite administrar los riesgos antes de otorgar a los usuarios acceso a tu entorno de AVD. A la hora de decidir a qué usuarios conceder acceso, te recomendamos que también tengas en cuenta quién es el usuario, cómo inicia sesión y qué dispositivo utiliza. En el artículo complementario se proporcionan detalles adicionales y procedimientos de configuración. Microsoft Entra ID es el nuevo nombre de Azure Active Directory (Azure AD).</t>
         </is>
       </c>
       <c r="E119" s="21" t="inlineStr">
@@ -6646,12 +6646,12 @@
       </c>
       <c r="C120" s="21" t="inlineStr">
         <is>
-          <t>Revisar y aplicar los principios y la orientación de Zero Trust</t>
+          <t>Revisar y aplicar los principios y la guía de Zero Trust</t>
         </is>
       </c>
       <c r="D120" s="21" t="inlineStr">
         <is>
-          <t>Si Zero Trust es un requisito, revise el artículo complementario en la columna 'Más información'. Proporciona los pasos para aplicar los principios de confianza cero a una implementación de Azure Virtual Desktop.</t>
+          <t>Si Zero Trust es un requisito, revisa el artículo complementario en la columna "Más información". Proporciona pasos para aplicar los principios de Confianza cero a una implementación de Azure Virtual Desktop.</t>
         </is>
       </c>
       <c r="E120" s="21" t="inlineStr">
@@ -6696,7 +6696,7 @@
       </c>
       <c r="C121" s="21" t="inlineStr">
         <is>
-          <t>Comprobar los procedimientos recomendados para Azure Files</t>
+          <t>Comprobación de los procedimientos recomendados para Azure Files</t>
         </is>
       </c>
       <c r="D121" s="21" t="inlineStr">
@@ -6746,12 +6746,12 @@
       </c>
       <c r="C122" s="21" t="inlineStr">
         <is>
-          <t>Habilite SMB multicanal cuando use un recurso compartido de archivos premium para hospedar contenedores de perfiles FSLogix.</t>
+          <t>Habilite SMB multicanal cuando use un recurso compartido de archivos premium para hospedar contenedores de perfiles de FSLogix.</t>
         </is>
       </c>
       <c r="D122" s="21" t="inlineStr">
         <is>
-          <t>SMB Multichannel permite a los clientes utilizar múltiples conexiones de red que proporcionan un mayor rendimiento al tiempo que reducen el costo de propiedad. El aumento del rendimiento se logra mediante la agregación de ancho de banda en varias NIC y el uso de la compatibilidad con Receive Side Scaling (RSS) para que las NIC distribuyan la carga de E/S entre varias CPU.</t>
+          <t>SMB Multichannel permite a los clientes utilizar varias conexiones de red que proporcionan un mayor rendimiento a la vez que reducen el coste de propiedad. El aumento del rendimiento se logra a través de la agregación de ancho de banda en varias NIC y el uso de la compatibilidad con el escalado del lado de recepción (RSS) para que las NIC distribuyan la carga de E/S entre varias CPU.</t>
         </is>
       </c>
       <c r="E122" s="21" t="inlineStr">
@@ -6791,17 +6791,17 @@
       </c>
       <c r="B123" s="21" t="inlineStr">
         <is>
-          <t>Archivos de Azure NetApp</t>
+          <t>Azure NetApp Files</t>
         </is>
       </c>
       <c r="C123" s="21" t="inlineStr">
         <is>
-          <t>Si se requiere almacenamiento de archivos de NetApp, compruebe la disponibilidad del servicio de almacenamiento en su región específica.</t>
+          <t>Si se requiere almacenamiento de NetApp Files, compruebe la disponibilidad del servicio de almacenamiento en su región específica.</t>
         </is>
       </c>
       <c r="D123" s="21" t="inlineStr">
         <is>
-          <t>Si se requiere una segunda región para fines de DR, verifique también la disponibilidad de NetApp.</t>
+          <t>Si se requiere una segunda región para fines de recuperación ante desastres, compruebe también la disponibilidad de NetApp allí.</t>
         </is>
       </c>
       <c r="E123" s="21" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="B124" s="21" t="inlineStr">
         <is>
-          <t>Archivos de Azure NetApp</t>
+          <t>Azure NetApp Files</t>
         </is>
       </c>
       <c r="C124" s="21" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="D124" s="21" t="inlineStr">
         <is>
-          <t>La opción CA es una configuración recomendada en el escenario FSLogix, ya que permite una sesión SMB más resistente entre el host de sesión y los archivos de NetApp.</t>
+          <t>La opción CA es una configuración recomendada en el escenario de FSLogix, ya que permite una sesión SMB más resistente entre el host de sesión y los archivos de NetApp.</t>
         </is>
       </c>
       <c r="E124" s="21" t="inlineStr">
@@ -6891,7 +6891,7 @@
       </c>
       <c r="B125" s="21" t="inlineStr">
         <is>
-          <t>Archivos de Azure NetApp</t>
+          <t>Azure NetApp Files</t>
         </is>
       </c>
       <c r="C125" s="21" t="inlineStr">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="D125" s="21" t="inlineStr">
         <is>
-          <t>Se debe crear un sitio de Active Directory para el entorno de red virtual de Azure donde se creará la subred Azure NetApp Files (ANF) y ese nombre de sitio debe especificarse en la propiedad de conexión ANF al ejecutar el procedimiento de unión, como se explica en el artículo de referencia.</t>
+          <t>Se debe crear un sitio de Active Directory para el entorno de red virtual de Azure en el que se creará la subred de Azure NetApp Files (ANF), y ese nombre de sitio debe especificarse en la propiedad de conexión ANF al ejecutar el procedimiento de combinación, como se explica en el artículo de referencia.</t>
         </is>
       </c>
       <c r="E125" s="21" t="inlineStr">
@@ -6946,12 +6946,12 @@
       </c>
       <c r="C126" s="21" t="inlineStr">
         <is>
-          <t>Determinar qué tipo de disco administrado se utilizará para los hosts de sesión</t>
+          <t>Determinar qué tipo de disco administrado se usará para los hosts de sesión</t>
         </is>
       </c>
       <c r="D126" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Opciones posibles: HDD estándar, SSD estándar o SSD premium. Los discos efímeros no son compatibles, no se recomiendan Ultra-Disks. Se recomienda evaluar Premium para el disco del sistema operativo si la densidad de usuarios no es baja y si se utilizará Cloud Cache. </t>
+          <t xml:space="preserve">Opciones posibles: HDD estándar, SSD estándar o SSD premium. Los discos efímeros no son compatibles, no se recomiendan los discos Ultra. Se recomienda evaluar Premium para el disco del sistema operativo si la densidad de usuarios no es baja y si se usará Cloud Cache. </t>
         </is>
       </c>
       <c r="E126" s="21" t="inlineStr">
@@ -6995,12 +6995,12 @@
       </c>
       <c r="C127" s="21" t="inlineStr">
         <is>
-          <t>Determinar qué solución back-end de almacenamiento se utilizará para los perfiles FSLogix</t>
+          <t>Determinar qué solución de back-end de almacenamiento se usará para los perfiles de FSLogix</t>
         </is>
       </c>
       <c r="D127" s="21" t="inlineStr">
         <is>
-          <t>Las opciones posibles son: Azure NetApp Files, Azure Files, servidor de archivos basado en VM. No se recomienda el servidor de archivos. Azure Files Premium suele ser un buen punto de partida. Por lo general, NetApp se requiere para entornos de gran escala / alto rendimiento. Para una comparación detallada, consulte el artículo en la columna 'Más información'.</t>
+          <t>Las opciones posibles son: Azure NetApp Files, Azure Files, servidor de archivos basado en máquina virtual. File-server no se recomienda. Azure Files Premium suele ser un buen punto de partida. Por lo general, NetApp es necesario para entornos a gran escala y de alto rendimiento. Para obtener una comparación detallada, consulte el artículo en la columna 'Más información'.</t>
         </is>
       </c>
       <c r="E127" s="21" t="inlineStr">
@@ -7044,12 +7044,12 @@
       </c>
       <c r="C128" s="21" t="inlineStr">
         <is>
-          <t>No compartir almacenamiento y perfiles entre diferentes grupos de hosts</t>
+          <t>No comparta el almacenamiento y los perfiles entre diferentes grupos de hosts</t>
         </is>
       </c>
       <c r="D128" s="21" t="inlineStr">
         <is>
-          <t>Cada grupo de hosts debe usar un conjunto independiente de cuentas/volúmenes de almacenamiento (al menos uno) y recursos compartidos. Los usuarios deben tener un perfil diferente para cada grupo de hosts, ya que los ajustes y configuraciones son específicos de cada grupo de hosts. Además, el acceso a diferentes grupos de hosts al mismo tiempo puede provocar errores en el VHD/X del perfil de usuario compartido. También se recomienda escalar de forma independiente el uso de diferentes cuentas o volúmenes de almacenamiento para varios recursos compartidos.</t>
+          <t>Cada grupo de hosts debe usar un conjunto independiente de cuentas o volúmenes de almacenamiento (al menos uno) y recursos compartidos. Los usuarios deben tener un perfil diferente para cada grupo de hosts, ya que los ajustes y las configuraciones son específicos de cada grupo de hosts. Además, el acceso a diferentes grupos de hosts al mismo tiempo puede provocar errores en el VHD/X del perfil de usuario compartido. También se recomienda el uso de diferentes cuentas de almacenamiento o volúmenes para varios recursos compartidos para escalar de forma independiente.</t>
         </is>
       </c>
       <c r="E128" s="21" t="inlineStr">
@@ -7093,12 +7093,12 @@
       </c>
       <c r="C129" s="21" t="inlineStr">
         <is>
-          <t>Comprobar los límites de escalabilidad del almacenamiento y los requisitos del grupo de hosts</t>
+          <t>Verifique los límites de escalabilidad del almacenamiento y los requisitos del grupo de hosts</t>
         </is>
       </c>
       <c r="D129" s="21" t="inlineStr">
         <is>
-          <t>Como punto de partida para estimar los requisitos de rendimiento de almacenamiento de contenedores de perfiles, se recomienda asumir 10 IOPS por usuario en estado estable y 50 IOPS por usuario durante el inicio y cierre de sesión. Los requisitos de espacio se obtienen simplemente en función del tamaño máximo de perfiles en FSLogix por el número total de usuarios para cada grupo de hosts. Se pueden usar varias cuentas de almacenamiento para el mismo grupo de hosts si es necesario.</t>
+          <t>Como punto de partida para calcular los requisitos de rendimiento del almacenamiento de contenedores de perfiles, se recomienda suponer 10 IOPS por usuario en el estado estable y 50 IOPS por usuario durante el inicio y cierre de sesión. Los requisitos de espacio se obtienen simplemente en función del tamaño máximo de perfiles en FSLogix por el número total de usuarios para cada grupo de hosts. Se pueden usar varias cuentas de almacenamiento para el mismo grupo de hosts si es necesario.</t>
         </is>
       </c>
       <c r="E129" s="21" t="inlineStr">
@@ -7142,7 +7142,7 @@
       </c>
       <c r="C130" s="21" t="inlineStr">
         <is>
-          <t>Para un rendimiento óptimo, la solución de almacenamiento y el contenedor de perfiles de FSLogix deben estar en la misma región de Azure.</t>
+          <t>Para obtener un rendimiento óptimo, la solución de almacenamiento y el contenedor de perfiles de FSLogix deben estar en la misma región de Azure.</t>
         </is>
       </c>
       <c r="D130" s="21" t="inlineStr">
@@ -7191,12 +7191,12 @@
       </c>
       <c r="C131" s="21" t="inlineStr">
         <is>
-          <t>No utilice contenedores de Office (ODFC) si no es estrictamente necesario y justificado</t>
+          <t>No use contenedores de Office (ODFC) si no es estrictamente necesario y justificado</t>
         </is>
       </c>
       <c r="D131" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">La recomendación de Azure Virtual Desktop es usar el contenedor de perfiles sin división del contenedor de Office (ODFC), a menos que esté planeando escenarios específicos de continuidad empresarial y recuperación ante desastres (BCDR), como se describe en la sección Recuperación ante desastres a continuación. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
+          <t xml:space="preserve">La recomendación en Azure Virtual Desktop es usar el contenedor de perfiles sin la división del contenedor de Office (ODFC) a menos que esté planeando escenarios específicos de continuidad empresarial y recuperación ante desastres (BCDR), como se describe en la sección Recuperación ante desastres a continuación. https://docs.microsoft.com/fslogix/profile-container-office-container-cncpt </t>
         </is>
       </c>
       <c r="E131" s="21" t="inlineStr">
@@ -7240,12 +7240,12 @@
       </c>
       <c r="C132" s="21" t="inlineStr">
         <is>
-          <t>Configure las exclusiones antivirus recomendadas para FSLogix (incluye no analizar archivos VHD(x) al conectarse).</t>
+          <t>Configure las exclusiones de antivirus recomendadas para FSLogix (incluye no analizar archivos VHD(x) al conectarse).</t>
         </is>
       </c>
       <c r="D132" s="21" t="inlineStr">
         <is>
-          <t>Asegúrese de configurar las siguientes exclusiones antivirus para las unidades de disco duro virtuales FSLogix Profile Container, como se documenta en el artículo al que se hace referencia en la columna 'Más información'.</t>
+          <t>Asegúrese de configurar las siguientes exclusiones de antivirus para los discos duros virtuales de FSLogix Profile Container, como se documenta en el artículo al que se hace referencia en la columna "Más información".</t>
         </is>
       </c>
       <c r="E132" s="21" t="inlineStr">
@@ -7289,12 +7289,12 @@
       </c>
       <c r="C133" s="21" t="inlineStr">
         <is>
-          <t>Revisar y confirmar el tamaño máximo de perfil configurado en FSLogix</t>
+          <t>Revise y confirme el tamaño máximo de perfil configurado en FSLogix</t>
         </is>
       </c>
       <c r="D133" s="21" t="inlineStr">
         <is>
-          <t>Los contenedores de perfiles tienen un tamaño máximo predeterminado de 30 GB. Si se anticipan contenedores de perfiles grandes y los clientes quieren intentar mantenerlos pequeños, considere la posibilidad de usar OneDrive para hospedar archivos de Office 365 fuera del perfil de FSLogix.</t>
+          <t>Los contenedores de perfiles tienen un tamaño máximo predeterminado de 30 GB. Si se prevén contenedores de perfiles grandes y los clientes quieren intentar mantenerlos pequeños, considere la posibilidad de usar OneDrive para hospedar archivos de Office 365 fuera del perfil de FSLogix.</t>
         </is>
       </c>
       <c r="E133" s="21" t="inlineStr">
@@ -7338,12 +7338,12 @@
       </c>
       <c r="C134" s="21" t="inlineStr">
         <is>
-          <t>Revise las claves del Registro FSLogix y determine cuáles aplicar</t>
+          <t>Revise las claves del Registro de FSLogix y determine cuáles aplicar</t>
         </is>
       </c>
       <c r="D134" s="21" t="inlineStr">
         <is>
-          <t>Los valores predeterminados y la configuración recomendada se informan en el artículo complementario de la columna "Más información". Si no se deben usar claves y/o valores recomendados, asegúrese de revisar con un experto de Microsoft AVD y documentar claramente sus elecciones.</t>
+          <t>Los valores predeterminados y la configuración recomendada se indican en el artículo complementario de la columna "Más información". Si no se deben usar claves o valores recomendados, asegúrese de revisar con un experto en AVD de Microsoft y documentar claramente sus opciones.</t>
         </is>
       </c>
       <c r="E134" s="21" t="inlineStr">
@@ -7392,7 +7392,7 @@
       </c>
       <c r="D135" s="21" t="inlineStr">
         <is>
-          <t>No se recomiendan conexiones simultáneas o varias en Azure Virtual Desktop. Las conexiones simultáneas tampoco son compatibles con los hosts de sesión que se ejecutan en un grupo de hosts de escritorio virtual de Azure. OneDrive, si se usa, no admite conexiones simultáneas o múltiples con el mismo contenedor, bajo ninguna circunstancia. Para varias conexiones, no se recomienda el uso del mismo disco de perfil.</t>
+          <t>No se recomiendan las conexiones simultáneas o varias en Azure Virtual Desktop. Las conexiones simultáneas tampoco son compatibles con los hosts de sesión que se ejecutan en un grupo de hosts de Azure Virtual Desktop. OneDrive, si se usa, no admite conexiones simultáneas o varias con el mismo contenedor, bajo ninguna circunstancia. Para varias conexiones, no se recomienda el uso del mismo disco de perfil.</t>
         </is>
       </c>
       <c r="E135" s="21" t="inlineStr">
@@ -7436,12 +7436,12 @@
       </c>
       <c r="C136" s="21" t="inlineStr">
         <is>
-          <t>Si se usa FSLogix Cloud Cache, considere mover el directorio de caché a la unidad temporal de la máquina virtual.</t>
+          <t>Si se usa la caché en la nube de FSLogix, considere la posibilidad de mover el directorio de caché a la unidad temporal de la máquina virtual.</t>
         </is>
       </c>
       <c r="D136" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cloud Cache utiliza la unidad del sistema operativo como almacenamiento en caché local y puede generar mucha presión en el disco de la máquina virtual. Según el SKU de la máquina virtual y el tamaño utilizado, la unidad temporal de la máquina virtual puede ser una solución viable y de alto rendimiento donde reubicar el contenido en caché de Cloud Cache. Antes de adoptar esta solución, se deben ejecutar pruebas para confirmar el rendimiento y la estabilidad. Puede encontrar más detalles sobre Cloud Cache aquí: https://learn.microsoft.com/en-us/fslogix/concepts-fslogix-cloud-cache. </t>
+          <t xml:space="preserve">Cloud Cache usa la unidad del sistema operativo como almacenamiento de caché local y puede generar mucha presión en el disco de la máquina virtual. Según la SKU y el tamaño de la máquina virtual usada, la unidad temporal de la máquina virtual puede ser una solución viable y eficaz para reubicar el contenido almacenado en caché de Cloud Cache. Antes de adoptar esta solución, se deben ejecutar pruebas para confirmar el rendimiento y la estabilidad. Puede encontrar más detalles sobre Cloud Cache aquí: https://learn.microsoft.com/fslogix/concepts-fslogix-cloud-cache. </t>
         </is>
       </c>
       <c r="E136" s="21" t="inlineStr">
@@ -7485,12 +7485,12 @@
       </c>
       <c r="C137" s="21" t="inlineStr">
         <is>
-          <t>Revise el uso de la redirección FSLogix.</t>
+          <t>Revise el uso de la redirección de FSLogix.</t>
         </is>
       </c>
       <c r="D137" s="21" t="inlineStr">
         <is>
-          <t>REDIRECTION.XML archivo se utiliza para controlar qué carpetas se redirigen fuera del contenedor de perfiles a la unidad 'C:'. Las exclusiones deben ser la excepción y nunca deben usarse a menos que la exclusión específica sea completamente entendida por la persona que configura la exclusión. Las exclusiones siempre deben probarse completamente en el entorno donde se pretende implementar. La configuración de exclusiones puede afectar a la funcionalidad, la estabilidad y el rendimiento.</t>
+          <t>El archivo REDIRECTION.XML se utiliza para controlar qué carpetas se redirigen fuera del contenedor de perfiles a la unidad 'C:'. Las exclusiones deben ser la excepción y nunca deben usarse a menos que la persona que configura la exclusión específica comprenda completamente la exclusión. Las exclusiones siempre deben probarse completamente en el entorno en el que se pretende implementar. La configuración de exclusiones puede afectar a la funcionalidad, la estabilidad y el rendimiento.</t>
         </is>
       </c>
       <c r="E137" s="21" t="inlineStr">
@@ -10258,7 +10258,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Esta comprobación se ha comprobado y no hay más elementos de acción asociados a ella</t>
+          <t>Esta comprobación se ha verificado y no hay más elementos de acción asociados a ella</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -10314,7 +10314,7 @@
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>Monitoreo y Gestión</t>
+          <t>Seguimiento y gestión</t>
         </is>
       </c>
     </row>
